--- a/REGULAR/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/GOMEZ, EMMA M..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A8DBBD-8B9C-4697-82D7-F968F3E47397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE366B-A945-4BB9-8E34-708119D4CD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="384">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3993,9 +3993,9 @@
   <dimension ref="A2:K679"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="4452" topLeftCell="A633" activePane="bottomLeft"/>
+      <pane ySplit="4452" topLeftCell="A630" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="G634" sqref="G634"/>
+      <selection pane="bottomLeft" activeCell="B634" sqref="B634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4158,7 +4158,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.561000000000149</v>
+        <v>82.811000000000149</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4168,7 +4168,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.18299999999999</v>
+        <v>196.43299999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14173,7 +14173,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.561000000000149</v>
+        <v>82.811000000000149</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -14183,7 +14183,7 @@
       <c r="H448" s="37"/>
       <c r="I448" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.18299999999999</v>
+        <v>196.43299999999999</v>
       </c>
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.561000000000149</v>
+        <v>82.811000000000149</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -15566,7 +15566,7 @@
       <c r="H508" s="37"/>
       <c r="I508" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.18299999999999</v>
+        <v>196.43299999999999</v>
       </c>
       <c r="J508" s="11"/>
       <c r="K508" s="50"/>
@@ -18422,23 +18422,33 @@
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A633" s="38"/>
-      <c r="B633" s="20"/>
-      <c r="C633" s="13"/>
+      <c r="A633" s="38">
+        <v>44986</v>
+      </c>
+      <c r="B633" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C633" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D633" s="37"/>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G633" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H633" s="37"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
-      <c r="K633" s="20"/>
+      <c r="K633" s="50">
+        <v>45008</v>
+      </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A634" s="38"/>
+      <c r="A634" s="38">
+        <v>45017</v>
+      </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
       <c r="D634" s="37"/>
@@ -18454,7 +18464,9 @@
       <c r="K634" s="20"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A635" s="38"/>
+      <c r="A635" s="38">
+        <v>45047</v>
+      </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
       <c r="D635" s="37"/>
@@ -18470,7 +18482,9 @@
       <c r="K635" s="20"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A636" s="38"/>
+      <c r="A636" s="38">
+        <v>45078</v>
+      </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
       <c r="D636" s="37"/>
@@ -18486,7 +18500,9 @@
       <c r="K636" s="20"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A637" s="38"/>
+      <c r="A637" s="38">
+        <v>45108</v>
+      </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
       <c r="D637" s="37"/>
@@ -18502,7 +18518,9 @@
       <c r="K637" s="20"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A638" s="38"/>
+      <c r="A638" s="38">
+        <v>45139</v>
+      </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
       <c r="D638" s="37"/>
@@ -18518,7 +18536,9 @@
       <c r="K638" s="20"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A639" s="38"/>
+      <c r="A639" s="38">
+        <v>45170</v>
+      </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
       <c r="D639" s="37"/>
@@ -18534,7 +18554,9 @@
       <c r="K639" s="20"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A640" s="38"/>
+      <c r="A640" s="38">
+        <v>45200</v>
+      </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
       <c r="D640" s="37"/>
@@ -18550,7 +18572,9 @@
       <c r="K640" s="20"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A641" s="38"/>
+      <c r="A641" s="38">
+        <v>45231</v>
+      </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
       <c r="D641" s="37"/>
@@ -18566,7 +18590,9 @@
       <c r="K641" s="20"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A642" s="38"/>
+      <c r="A642" s="38">
+        <v>45261</v>
+      </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
       <c r="D642" s="37"/>
@@ -18582,7 +18608,9 @@
       <c r="K642" s="20"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A643" s="38"/>
+      <c r="A643" s="38">
+        <v>45292</v>
+      </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
       <c r="D643" s="37"/>
@@ -18598,7 +18626,9 @@
       <c r="K643" s="20"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A644" s="38"/>
+      <c r="A644" s="38">
+        <v>45323</v>
+      </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
       <c r="D644" s="37"/>
@@ -18614,7 +18644,9 @@
       <c r="K644" s="20"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A645" s="38"/>
+      <c r="A645" s="38">
+        <v>45352</v>
+      </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
       <c r="D645" s="37"/>
@@ -18630,7 +18662,9 @@
       <c r="K645" s="20"/>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A646" s="38"/>
+      <c r="A646" s="38">
+        <v>45383</v>
+      </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
       <c r="D646" s="37"/>
@@ -18646,7 +18680,9 @@
       <c r="K646" s="20"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A647" s="38"/>
+      <c r="A647" s="38">
+        <v>45413</v>
+      </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
       <c r="D647" s="37"/>
@@ -18662,7 +18698,9 @@
       <c r="K647" s="20"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A648" s="38"/>
+      <c r="A648" s="38">
+        <v>45444</v>
+      </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
       <c r="D648" s="37"/>
@@ -18678,7 +18716,9 @@
       <c r="K648" s="20"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A649" s="38"/>
+      <c r="A649" s="38">
+        <v>45474</v>
+      </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
       <c r="D649" s="37"/>
@@ -18694,7 +18734,9 @@
       <c r="K649" s="20"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A650" s="38"/>
+      <c r="A650" s="38">
+        <v>45505</v>
+      </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
       <c r="D650" s="37"/>
@@ -18710,7 +18752,9 @@
       <c r="K650" s="20"/>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A651" s="38"/>
+      <c r="A651" s="38">
+        <v>45536</v>
+      </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
       <c r="D651" s="37"/>
@@ -18726,7 +18770,9 @@
       <c r="K651" s="20"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A652" s="38"/>
+      <c r="A652" s="38">
+        <v>45566</v>
+      </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
       <c r="D652" s="37"/>
@@ -18742,7 +18788,9 @@
       <c r="K652" s="20"/>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A653" s="38"/>
+      <c r="A653" s="38">
+        <v>45597</v>
+      </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
       <c r="D653" s="37"/>
@@ -18758,7 +18806,9 @@
       <c r="K653" s="20"/>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A654" s="38"/>
+      <c r="A654" s="38">
+        <v>45627</v>
+      </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
       <c r="D654" s="37"/>
@@ -18774,7 +18824,9 @@
       <c r="K654" s="20"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A655" s="38"/>
+      <c r="A655" s="38">
+        <v>45658</v>
+      </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
       <c r="D655" s="37"/>

--- a/REGULAR/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/GOMEZ, EMMA M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE366B-A945-4BB9-8E34-708119D4CD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="386">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1187,12 +1186,18 @@
   </si>
   <si>
     <t>CEO</t>
+  </si>
+  <si>
+    <t>VL(16-0-0)</t>
+  </si>
+  <si>
+    <t>5/12,15-19,22-26,29-31 6/1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2077,7 +2082,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2125,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2189,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2249,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2315,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2378,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2476,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2535,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2600,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2643,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2718,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2904,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2970,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3028,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3089,7 +3094,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3150,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3225,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3268,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3334,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3390,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3483,7 +3488,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3546,7 +3551,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,25 +3617,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K679" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K679" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3642,13 +3647,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3657,14 +3662,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3968,7 +3973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3978,7 +3983,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3986,34 +3991,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K679"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="4452" topLeftCell="A630" activePane="bottomLeft"/>
+      <pane ySplit="4455" topLeftCell="A630" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B634" sqref="B634"/>
+      <selection pane="bottomLeft" activeCell="D635" sqref="D635"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -4036,7 +4041,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4054,7 +4059,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4076,7 +4081,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -4084,7 +4089,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -4097,7 +4102,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -4114,7 +4119,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
       <c r="B9" s="53" t="s">
         <v>23</v>
@@ -4158,7 +4163,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.811000000000149</v>
+        <v>66.811000000000149</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4173,7 +4178,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>42</v>
       </c>
@@ -4197,7 +4202,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>43</v>
       </c>
@@ -4217,7 +4222,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="11" t="s">
         <v>44</v>
@@ -4239,7 +4244,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>45</v>
       </c>
@@ -4257,7 +4262,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>35947</v>
       </c>
@@ -4277,7 +4282,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <f>EDATE(A14,1)</f>
         <v>35977</v>
@@ -4304,7 +4309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="15" t="s">
         <v>48</v>
@@ -4324,7 +4329,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f>EDATE(A15,1)</f>
         <v>36008</v>
@@ -4351,7 +4356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>51</v>
@@ -4371,7 +4376,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <f>EDATE(A17,1)</f>
         <v>36039</v>
@@ -4396,7 +4401,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <f>EDATE(A19,1)</f>
         <v>36069</v>
@@ -4423,7 +4428,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>54</v>
@@ -4445,7 +4450,7 @@
         <v>36094</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>55</v>
@@ -4465,7 +4470,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <f>EDATE(A20,1)</f>
         <v>36100</v>
@@ -4492,7 +4497,7 @@
         <v>36108</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>51</v>
@@ -4512,7 +4517,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <f>EDATE(A23,1)</f>
         <v>36130</v>
@@ -4539,7 +4544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
         <v>57</v>
@@ -4561,7 +4566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="20" t="s">
         <v>60</v>
@@ -4581,7 +4586,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>61</v>
       </c>
@@ -4599,7 +4604,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <f>EDATE(A25,1)</f>
         <v>36161</v>
@@ -4626,7 +4631,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
         <v>63</v>
@@ -4646,7 +4651,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <f>EDATE(A29,1)</f>
         <v>36192</v>
@@ -4673,7 +4678,7 @@
         <v>36214</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -4693,7 +4698,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <f>EDATE(A31,1)</f>
         <v>36220</v>
@@ -4720,7 +4725,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>65</v>
@@ -4740,7 +4745,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <f>EDATE(A33,1)</f>
         <v>36251</v>
@@ -4767,7 +4772,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
         <v>68</v>
@@ -4789,7 +4794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>49</v>
@@ -4811,7 +4816,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>71</v>
@@ -4831,7 +4836,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <f>EDATE(A35,1)</f>
         <v>36281</v>
@@ -4856,7 +4861,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <f>EDATE(A39,1)</f>
         <v>36312</v>
@@ -4881,7 +4886,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <f t="shared" ref="A41:A42" si="0">EDATE(A40,1)</f>
         <v>36342</v>
@@ -4906,7 +4911,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -4931,7 +4936,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4953,7 +4958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <f>EDATE(A42,1)</f>
         <v>36404</v>
@@ -4980,7 +4985,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>54</v>
@@ -5002,7 +5007,7 @@
         <v>36426</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -5022,7 +5027,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <f>EDATE(A44,1)</f>
         <v>36434</v>
@@ -5047,7 +5052,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <f>EDATE(A47,1)</f>
         <v>36465</v>
@@ -5072,7 +5077,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <f>EDATE(A48,1)</f>
         <v>36495</v>
@@ -5097,7 +5102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>80</v>
@@ -5119,7 +5124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20" t="s">
         <v>81</v>
@@ -5139,7 +5144,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>84</v>
       </c>
@@ -5157,7 +5162,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <f>EDATE(A49,1)</f>
         <v>36526</v>
@@ -5182,7 +5187,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <f>EDATE(A53,1)</f>
         <v>36557</v>
@@ -5205,7 +5210,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>86</v>
@@ -5225,7 +5230,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <f>EDATE(A54,1)</f>
         <v>36586</v>
@@ -5250,7 +5255,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <f>EDATE(A56,1)</f>
         <v>36617</v>
@@ -5275,7 +5280,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <f t="shared" ref="A58:A59" si="1">EDATE(A57,1)</f>
         <v>36647</v>
@@ -5298,7 +5303,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -5325,7 +5330,7 @@
         <v>36558</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -5345,7 +5350,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <f>EDATE(A59,1)</f>
         <v>36708</v>
@@ -5370,7 +5375,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <f>EDATE(A61,1)</f>
         <v>36739</v>
@@ -5397,7 +5402,7 @@
         <v>36756</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20" t="s">
         <v>81</v>
@@ -5417,7 +5422,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <f>EDATE(A62,1)</f>
         <v>36770</v>
@@ -5438,7 +5443,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <f>EDATE(A64,1)</f>
         <v>36800</v>
@@ -5465,7 +5470,7 @@
         <v>36818</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5487,7 +5492,7 @@
         <v>36829</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>54</v>
@@ -5509,7 +5514,7 @@
         <v>36830</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -5527,7 +5532,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <f>EDATE(A65,1)</f>
         <v>36831</v>
@@ -5554,7 +5559,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>52</v>
@@ -5574,7 +5579,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <f>EDATE(A69,1)</f>
         <v>36861</v>
@@ -5601,7 +5606,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>54</v>
@@ -5623,7 +5628,7 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>64</v>
@@ -5640,7 +5645,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
         <v>93</v>
       </c>
@@ -5655,7 +5660,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="50"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <f>EDATE(A71,1)</f>
         <v>36892</v>
@@ -5680,7 +5685,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <f>EDATE(A75,1)</f>
         <v>36923</v>
@@ -5707,7 +5712,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>92</v>
@@ -5727,7 +5732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>54</v>
@@ -5749,7 +5754,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -5771,7 +5776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20" t="s">
         <v>74</v>
@@ -5791,7 +5796,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <f>EDATE(A76,1)</f>
         <v>36951</v>
@@ -5818,7 +5823,7 @@
         <v>36969</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20" t="s">
         <v>54</v>
@@ -5840,7 +5845,7 @@
         <v>36973</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20" t="s">
         <v>98</v>
@@ -5860,7 +5865,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <f>EDATE(A81,1)</f>
         <v>36982</v>
@@ -5885,7 +5890,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <f>EDATE(A84,1)</f>
         <v>37012</v>
@@ -5912,7 +5917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20" t="s">
         <v>57</v>
@@ -5934,7 +5939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>54</v>
@@ -5956,7 +5961,7 @@
         <v>37035</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <f>EDATE(A85,1)</f>
         <v>37043</v>
@@ -5983,7 +5988,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>102</v>
@@ -6003,7 +6008,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <f>EDATE(A88,1)</f>
         <v>37073</v>
@@ -6030,7 +6035,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -6050,7 +6055,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <f>EDATE(A90,1)</f>
         <v>37104</v>
@@ -6077,7 +6082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20" t="s">
         <v>49</v>
@@ -6099,7 +6104,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -6119,7 +6124,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <f>EDATE(A92,1)</f>
         <v>37135</v>
@@ -6144,7 +6149,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>54</v>
@@ -6166,7 +6171,7 @@
         <v>37145</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20" t="s">
         <v>109</v>
@@ -6186,7 +6191,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <f>EDATE(A95,1)</f>
         <v>37165</v>
@@ -6207,7 +6212,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <f>EDATE(A98,1)</f>
         <v>37196</v>
@@ -6234,7 +6239,7 @@
         <v>37204</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <f>EDATE(A99,1)</f>
         <v>37226</v>
@@ -6261,7 +6266,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>110</v>
@@ -6281,7 +6286,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6303,7 +6308,7 @@
         <v>37237</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20" t="s">
         <v>53</v>
@@ -6325,7 +6330,7 @@
         <v>37244</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20" t="s">
         <v>111</v>
@@ -6345,7 +6350,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
         <v>112</v>
       </c>
@@ -6363,7 +6368,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
         <f>EDATE(A100,1)</f>
         <v>37257</v>
@@ -6388,7 +6393,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <f>EDATE(A106,1)</f>
         <v>37288</v>
@@ -6415,7 +6420,7 @@
         <v>37306</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20" t="s">
         <v>66</v>
@@ -6435,7 +6440,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -6457,7 +6462,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <f>EDATE(A107,1)</f>
         <v>37316</v>
@@ -6482,7 +6487,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <f>EDATE(A110,1)</f>
         <v>37347</v>
@@ -6509,7 +6514,7 @@
         <v>37350</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20" t="s">
         <v>54</v>
@@ -6531,7 +6536,7 @@
         <v>37363</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20" t="s">
         <v>117</v>
@@ -6551,7 +6556,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
         <f>EDATE(A111,1)</f>
         <v>37377</v>
@@ -6578,7 +6583,7 @@
         <v>37386</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20" t="s">
         <v>80</v>
@@ -6600,7 +6605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20" t="s">
         <v>119</v>
@@ -6620,7 +6625,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
         <f>EDATE(A114,1)</f>
         <v>37408</v>
@@ -6645,7 +6650,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <f>EDATE(A117,1)</f>
         <v>37438</v>
@@ -6670,7 +6675,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <f>EDATE(A118,1)</f>
         <v>37469</v>
@@ -6697,7 +6702,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6719,7 +6724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="20" t="s">
         <v>91</v>
@@ -6739,7 +6744,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
         <f>EDATE(A119,1)</f>
         <v>37500</v>
@@ -6766,7 +6771,7 @@
         <v>37502</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="20" t="s">
         <v>54</v>
@@ -6788,7 +6793,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="20" t="s">
         <v>53</v>
@@ -6810,7 +6815,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <f>EDATE(A122,1)</f>
         <v>37530</v>
@@ -6835,7 +6840,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <f>EDATE(A125,1)</f>
         <v>37561</v>
@@ -6862,7 +6867,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38"/>
       <c r="B127" s="20" t="s">
         <v>53</v>
@@ -6884,7 +6889,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="20" t="s">
         <v>123</v>
@@ -6904,7 +6909,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <f>EDATE(A126,1)</f>
         <v>37591</v>
@@ -6931,7 +6936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6951,7 +6956,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="49" t="s">
         <v>127</v>
       </c>
@@ -6969,7 +6974,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -6994,7 +6999,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
         <f>EDATE(A132,1)</f>
         <v>37653</v>
@@ -7021,7 +7026,7 @@
         <v>37301</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38"/>
       <c r="B134" s="20" t="s">
         <v>129</v>
@@ -7041,7 +7046,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>66</v>
@@ -7061,7 +7066,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <f>EDATE(A133,1)</f>
         <v>37681</v>
@@ -7086,7 +7091,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <f>EDATE(A136,1)</f>
         <v>37712</v>
@@ -7111,7 +7116,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
         <f>EDATE(A137,1)</f>
         <v>37742</v>
@@ -7138,7 +7143,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38"/>
       <c r="B139" s="20" t="s">
         <v>133</v>
@@ -7158,7 +7163,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <f>EDATE(A138,1)</f>
         <v>37773</v>
@@ -7183,7 +7188,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <f>EDATE(A140,1)</f>
         <v>37803</v>
@@ -7208,7 +7213,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <f>EDATE(A141,1)</f>
         <v>37834</v>
@@ -7229,7 +7234,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <f>EDATE(A142,1)</f>
         <v>37865</v>
@@ -7256,7 +7261,7 @@
         <v>37865</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="20" t="s">
         <v>66</v>
@@ -7276,7 +7281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="20" t="s">
         <v>53</v>
@@ -7298,7 +7303,7 @@
         <v>37893</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>136</v>
@@ -7318,7 +7323,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <f>EDATE(A143,1)</f>
         <v>37895</v>
@@ -7343,7 +7348,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <f>EDATE(A147,1)</f>
         <v>37926</v>
@@ -7370,7 +7375,7 @@
         <v>37945</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -7390,7 +7395,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <f>EDATE(A148,1)</f>
         <v>37956</v>
@@ -7417,7 +7422,7 @@
         <v>37963</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38"/>
       <c r="B151" s="20" t="s">
         <v>49</v>
@@ -7439,7 +7444,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38"/>
       <c r="B152" s="20" t="s">
         <v>53</v>
@@ -7461,7 +7466,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38"/>
       <c r="B153" s="20" t="s">
         <v>53</v>
@@ -7483,7 +7488,7 @@
         <v>37985</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
         <v>140</v>
@@ -7503,7 +7508,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="49" t="s">
         <v>141</v>
       </c>
@@ -7521,7 +7526,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <f>EDATE(A150,1)</f>
         <v>37987</v>
@@ -7546,7 +7551,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
         <f>EDATE(A156,1)</f>
         <v>38018</v>
@@ -7571,7 +7576,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <f>EDATE(A157,1)</f>
         <v>38047</v>
@@ -7598,7 +7603,7 @@
         <v>38082</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
         <v>144</v>
@@ -7618,7 +7623,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <f>EDATE(A158,1)</f>
         <v>38078</v>
@@ -7643,7 +7648,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38"/>
       <c r="B161" s="20" t="s">
         <v>66</v>
@@ -7663,7 +7668,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <f>EDATE(A160,1)</f>
         <v>38108</v>
@@ -7690,7 +7695,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38"/>
       <c r="B163" s="20" t="s">
         <v>148</v>
@@ -7710,7 +7715,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="50"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <f>EDATE(A162,1)</f>
         <v>38139</v>
@@ -7735,7 +7740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38"/>
       <c r="B165" s="20" t="s">
         <v>54</v>
@@ -7757,7 +7762,7 @@
         <v>38145</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38"/>
       <c r="B166" s="20" t="s">
         <v>57</v>
@@ -7779,7 +7784,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38"/>
       <c r="B167" s="20" t="s">
         <v>49</v>
@@ -7801,7 +7806,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -7821,7 +7826,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <f>EDATE(A164,1)</f>
         <v>38169</v>
@@ -7848,7 +7853,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38"/>
       <c r="B170" s="20" t="s">
         <v>49</v>
@@ -7870,7 +7875,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38"/>
       <c r="B171" s="20" t="s">
         <v>153</v>
@@ -7890,7 +7895,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <f>EDATE(A169,1)</f>
         <v>38200</v>
@@ -7917,7 +7922,7 @@
         <v>38208</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
         <v>154</v>
@@ -7937,7 +7942,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <f>EDATE(A172,1)</f>
         <v>38231</v>
@@ -7964,7 +7969,7 @@
         <v>38232</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38"/>
       <c r="B175" s="20" t="s">
         <v>53</v>
@@ -7986,7 +7991,7 @@
         <v>38250</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -8008,7 +8013,7 @@
         <v>38247</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38"/>
       <c r="B177" s="20" t="s">
         <v>155</v>
@@ -8028,7 +8033,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38">
         <f>EDATE(A174,1)</f>
         <v>38261</v>
@@ -8055,7 +8060,7 @@
         <v>38281</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38"/>
       <c r="B179" s="20" t="s">
         <v>156</v>
@@ -8075,7 +8080,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <f>EDATE(A178,1)</f>
         <v>38292</v>
@@ -8102,7 +8107,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38"/>
       <c r="B181" s="20" t="s">
         <v>54</v>
@@ -8124,7 +8129,7 @@
         <v>38302</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38"/>
       <c r="B182" s="20" t="s">
         <v>54</v>
@@ -8146,7 +8151,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <f>EDATE(A180,1)</f>
         <v>38322</v>
@@ -8173,7 +8178,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>159</v>
@@ -8193,7 +8198,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38"/>
       <c r="B185" s="20" t="s">
         <v>53</v>
@@ -8215,7 +8220,7 @@
         <v>38344</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="38"/>
       <c r="B186" s="20" t="s">
         <v>160</v>
@@ -8235,7 +8240,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="49" t="s">
         <v>161</v>
       </c>
@@ -8253,7 +8258,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38">
         <f>EDATE(A183,1)</f>
         <v>38353</v>
@@ -8278,7 +8283,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38"/>
       <c r="B189" s="20" t="s">
         <v>54</v>
@@ -8300,7 +8305,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>164</v>
@@ -8320,7 +8325,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="50"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38">
         <f>EDATE(A188,1)</f>
         <v>38384</v>
@@ -8345,7 +8350,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38"/>
       <c r="B192" s="20" t="s">
         <v>66</v>
@@ -8365,7 +8370,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>166</v>
@@ -8385,7 +8390,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <f>EDATE(A191,1)</f>
         <v>38412</v>
@@ -8412,7 +8417,7 @@
         <v>38426</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
         <v>54</v>
@@ -8434,7 +8439,7 @@
         <v>38442</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39"/>
       <c r="B196" s="15" t="s">
         <v>167</v>
@@ -8454,7 +8459,7 @@
       <c r="J196" s="12"/>
       <c r="K196" s="15"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <f>EDATE(A194,1)</f>
         <v>38443</v>
@@ -8481,7 +8486,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
         <v>168</v>
@@ -8501,7 +8506,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <f>EDATE(A197,1)</f>
         <v>38473</v>
@@ -8528,7 +8533,7 @@
         <v>38492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38"/>
       <c r="B200" s="20" t="s">
         <v>54</v>
@@ -8550,7 +8555,7 @@
         <v>38489</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>54</v>
@@ -8572,7 +8577,7 @@
         <v>38497</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38"/>
       <c r="B202" s="20" t="s">
         <v>170</v>
@@ -8592,7 +8597,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <f>EDATE(A199,1)</f>
         <v>38504</v>
@@ -8619,7 +8624,7 @@
         <v>38517</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38"/>
       <c r="B204" s="20" t="s">
         <v>54</v>
@@ -8641,7 +8646,7 @@
         <v>38518</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>171</v>
@@ -8661,7 +8666,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38">
         <f>EDATE(A203,1)</f>
         <v>38534</v>
@@ -8688,7 +8693,7 @@
         <v>38537</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
         <v>54</v>
@@ -8710,7 +8715,7 @@
         <v>38547</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>54</v>
@@ -8732,7 +8737,7 @@
         <v>38551</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38"/>
       <c r="B209" s="20" t="s">
         <v>169</v>
@@ -8754,7 +8759,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>172</v>
@@ -8774,7 +8779,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38">
         <f>EDATE(A206,1)</f>
         <v>38565</v>
@@ -8801,7 +8806,7 @@
         <v>38597</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38"/>
       <c r="B212" s="20" t="s">
         <v>54</v>
@@ -8823,7 +8828,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8843,7 +8848,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <f>EDATE(A211,1)</f>
         <v>38596</v>
@@ -8870,7 +8875,7 @@
         <v>38603</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38"/>
       <c r="B215" s="20" t="s">
         <v>49</v>
@@ -8892,7 +8897,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="20" t="s">
         <v>175</v>
@@ -8912,7 +8917,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <f>EDATE(A214,1)</f>
         <v>38626</v>
@@ -8939,7 +8944,7 @@
         <v>38635</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38"/>
       <c r="B218" s="20" t="s">
         <v>54</v>
@@ -8961,7 +8966,7 @@
         <v>38637</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38"/>
       <c r="B219" s="20" t="s">
         <v>176</v>
@@ -8981,7 +8986,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="50"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38">
         <f>EDATE(A217,1)</f>
         <v>38657</v>
@@ -9006,7 +9011,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="38"/>
       <c r="B221" s="20" t="s">
         <v>177</v>
@@ -9026,7 +9031,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38"/>
       <c r="B222" s="20" t="s">
         <v>53</v>
@@ -9048,7 +9053,7 @@
         <v>38685</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38">
         <f>EDATE(A220,1)</f>
         <v>38687</v>
@@ -9075,7 +9080,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>169</v>
@@ -9097,7 +9102,7 @@
         <v>38708</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>54</v>
@@ -9117,7 +9122,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38"/>
       <c r="B226" s="20" t="s">
         <v>178</v>
@@ -9137,7 +9142,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>179</v>
       </c>
@@ -9155,7 +9160,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38">
         <f>EDATE(A223,1)</f>
         <v>38718</v>
@@ -9180,7 +9185,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>180</v>
@@ -9200,7 +9205,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38"/>
       <c r="B230" s="20" t="s">
         <v>181</v>
@@ -9220,7 +9225,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <f>EDATE(A228,1)</f>
         <v>38749</v>
@@ -9247,7 +9252,7 @@
         <v>38772</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="20" t="s">
         <v>184</v>
@@ -9267,7 +9272,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38">
         <f>EDATE(A231,1)</f>
         <v>38777</v>
@@ -9294,7 +9299,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38"/>
       <c r="B234" s="20" t="s">
         <v>185</v>
@@ -9314,7 +9319,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38">
         <f>EDATE(A233,1)</f>
         <v>38808</v>
@@ -9341,7 +9346,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38"/>
       <c r="B236" s="20" t="s">
         <v>54</v>
@@ -9363,7 +9368,7 @@
         <v>38816</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="20" t="s">
         <v>186</v>
@@ -9383,7 +9388,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <f>EDATE(A235,1)</f>
         <v>38838</v>
@@ -9410,7 +9415,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>187</v>
@@ -9430,7 +9435,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38">
         <f>EDATE(A238,1)</f>
         <v>38869</v>
@@ -9457,7 +9462,7 @@
         <v>38881</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38"/>
       <c r="B241" s="20" t="s">
         <v>54</v>
@@ -9479,7 +9484,7 @@
         <v>38876</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38"/>
       <c r="B242" s="20" t="s">
         <v>49</v>
@@ -9501,7 +9506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38"/>
       <c r="B243" s="20" t="s">
         <v>190</v>
@@ -9521,7 +9526,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <f>EDATE(A240,1)</f>
         <v>38899</v>
@@ -9548,7 +9553,7 @@
         <v>38916</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>49</v>
@@ -9570,7 +9575,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38"/>
       <c r="B246" s="20" t="s">
         <v>189</v>
@@ -9590,7 +9595,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <f>EDATE(A244,1)</f>
         <v>38930</v>
@@ -9617,7 +9622,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
@@ -9639,7 +9644,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>192</v>
@@ -9659,7 +9664,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <f>EDATE(A247,1)</f>
         <v>38961</v>
@@ -9684,7 +9689,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38"/>
       <c r="B251" s="20" t="s">
         <v>193</v>
@@ -9704,7 +9709,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39">
         <f>EDATE(A250,1)</f>
         <v>38991</v>
@@ -9731,7 +9736,7 @@
         <v>39006</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>194</v>
@@ -9753,7 +9758,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38"/>
       <c r="B254" s="20" t="s">
         <v>196</v>
@@ -9773,7 +9778,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38">
         <f>EDATE(A252,1)</f>
         <v>39022</v>
@@ -9798,7 +9803,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <f>EDATE(A255,1)</f>
         <v>39052</v>
@@ -9825,7 +9830,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38"/>
       <c r="B257" s="20" t="s">
         <v>54</v>
@@ -9847,7 +9852,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="20" t="s">
         <v>200</v>
@@ -9867,7 +9872,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="49" t="s">
         <v>201</v>
       </c>
@@ -9885,7 +9890,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <f>EDATE(A256,1)</f>
         <v>39083</v>
@@ -9910,7 +9915,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38"/>
       <c r="B261" s="20" t="s">
         <v>203</v>
@@ -9930,7 +9935,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38">
         <f>EDATE(A260,1)</f>
         <v>39114</v>
@@ -9957,7 +9962,7 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="20" t="s">
         <v>66</v>
@@ -9977,7 +9982,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38"/>
       <c r="B264" s="20" t="s">
         <v>205</v>
@@ -9999,7 +10004,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="50"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <f>EDATE(A262,1)</f>
         <v>39142</v>
@@ -10024,7 +10029,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <f>EDATE(A265,1)</f>
         <v>39173</v>
@@ -10049,7 +10054,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38"/>
       <c r="B267" s="20" t="s">
         <v>54</v>
@@ -10071,7 +10076,7 @@
         <v>39195</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>208</v>
@@ -10091,7 +10096,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <f>EDATE(A266,1)</f>
         <v>39203</v>
@@ -10118,7 +10123,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38"/>
       <c r="B270" s="20" t="s">
         <v>209</v>
@@ -10138,7 +10143,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <f>EDATE(A269,1)</f>
         <v>39234</v>
@@ -10165,7 +10170,7 @@
         <v>39246</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38"/>
       <c r="B272" s="20" t="s">
         <v>54</v>
@@ -10187,7 +10192,7 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>54</v>
@@ -10209,7 +10214,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="38"/>
       <c r="B274" s="20" t="s">
         <v>211</v>
@@ -10229,7 +10234,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <f>EDATE(A271,1)</f>
         <v>39264</v>
@@ -10256,7 +10261,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38"/>
       <c r="B276" s="20" t="s">
         <v>213</v>
@@ -10276,7 +10281,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <f>EDATE(A275,1)</f>
         <v>39295</v>
@@ -10303,7 +10308,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38"/>
       <c r="B278" s="20" t="s">
         <v>49</v>
@@ -10325,7 +10330,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38"/>
       <c r="B279" s="20" t="s">
         <v>214</v>
@@ -10345,7 +10350,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <f>EDATE(A277,1)</f>
         <v>39326</v>
@@ -10372,7 +10377,7 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>49</v>
@@ -10394,7 +10399,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38"/>
       <c r="B282" s="20" t="s">
         <v>216</v>
@@ -10414,7 +10419,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <f>EDATE(A280,1)</f>
         <v>39356</v>
@@ -10441,7 +10446,7 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
         <v>169</v>
@@ -10463,7 +10468,7 @@
         <v>39381</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38"/>
       <c r="B285" s="20" t="s">
         <v>54</v>
@@ -10483,7 +10488,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38"/>
       <c r="B286" s="20" t="s">
         <v>218</v>
@@ -10503,7 +10508,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <f>EDATE(A283,1)</f>
         <v>39387</v>
@@ -10530,7 +10535,7 @@
         <v>39401</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38"/>
       <c r="B288" s="20" t="s">
         <v>169</v>
@@ -10552,7 +10557,7 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38"/>
       <c r="B289" s="20" t="s">
         <v>219</v>
@@ -10572,7 +10577,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="50"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38">
         <f>EDATE(A287,1)</f>
         <v>39417</v>
@@ -10597,7 +10602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38"/>
       <c r="B291" s="20" t="s">
         <v>49</v>
@@ -10619,7 +10624,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38"/>
       <c r="B292" s="20" t="s">
         <v>222</v>
@@ -10639,7 +10644,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="49" t="s">
         <v>223</v>
       </c>
@@ -10657,7 +10662,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="38">
         <f>EDATE(A290,1)</f>
         <v>39448</v>
@@ -10682,7 +10687,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38"/>
       <c r="B295" s="20" t="s">
         <v>54</v>
@@ -10704,7 +10709,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38"/>
       <c r="B296" s="20" t="s">
         <v>224</v>
@@ -10724,7 +10729,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38">
         <f>EDATE(A294,1)</f>
         <v>39479</v>
@@ -10749,7 +10754,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38"/>
       <c r="B298" s="20" t="s">
         <v>225</v>
@@ -10769,7 +10774,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38">
         <f>EDATE(A297,1)</f>
         <v>39508</v>
@@ -10796,7 +10801,7 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38"/>
       <c r="B300" s="20" t="s">
         <v>169</v>
@@ -10818,7 +10823,7 @@
         <v>39531</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10838,7 +10843,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <f>EDATE(A299,1)</f>
         <v>39539</v>
@@ -10865,7 +10870,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38"/>
       <c r="B303" s="20" t="s">
         <v>227</v>
@@ -10885,7 +10890,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <f>EDATE(A302,1)</f>
         <v>39569</v>
@@ -10912,7 +10917,7 @@
         <v>39584</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>54</v>
@@ -10934,7 +10939,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38"/>
       <c r="B306" s="20" t="s">
         <v>54</v>
@@ -10954,7 +10959,7 @@
         <v>39587</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
         <v>169</v>
@@ -10974,7 +10979,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>54</v>
@@ -10994,7 +10999,7 @@
         <v>39594</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38"/>
       <c r="B309" s="20" t="s">
         <v>54</v>
@@ -11014,7 +11019,7 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
         <v>228</v>
@@ -11034,7 +11039,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38">
         <f>EDATE(A304,1)</f>
         <v>39600</v>
@@ -11061,7 +11066,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38"/>
       <c r="B312" s="20" t="s">
         <v>49</v>
@@ -11083,7 +11088,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>233</v>
@@ -11103,7 +11108,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <f>EDATE(A311,1)</f>
         <v>39630</v>
@@ -11128,7 +11133,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38"/>
       <c r="B315" s="20" t="s">
         <v>235</v>
@@ -11148,7 +11153,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <f>EDATE(A314,1)</f>
         <v>39661</v>
@@ -11173,7 +11178,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <f>EDATE(A316,1)</f>
         <v>39692</v>
@@ -11200,7 +11205,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>54</v>
@@ -11222,7 +11227,7 @@
         <v>39706</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
         <v>237</v>
@@ -11242,7 +11247,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <f>EDATE(A317,1)</f>
         <v>39722</v>
@@ -11263,7 +11268,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <f>EDATE(A320,1)</f>
         <v>39753</v>
@@ -11290,7 +11295,7 @@
         <v>39755</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
         <v>169</v>
@@ -11312,7 +11317,7 @@
         <v>39769</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38"/>
       <c r="B323" s="20" t="s">
         <v>54</v>
@@ -11334,7 +11339,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38"/>
       <c r="B324" s="20" t="s">
         <v>238</v>
@@ -11354,7 +11359,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <f>EDATE(A321,1)</f>
         <v>39783</v>
@@ -11381,7 +11386,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>239</v>
@@ -11401,7 +11406,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="49" t="s">
         <v>240</v>
       </c>
@@ -11419,7 +11424,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38">
         <f>EDATE(A325,1)</f>
         <v>39814</v>
@@ -11444,7 +11449,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38"/>
       <c r="B329" s="20" t="s">
         <v>242</v>
@@ -11464,7 +11469,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <f>EDATE(A328,1)</f>
         <v>39845</v>
@@ -11489,7 +11494,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="15" t="s">
         <v>243</v>
@@ -11509,7 +11514,7 @@
       <c r="J331" s="12"/>
       <c r="K331" s="15"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <f>EDATE(A330,1)</f>
         <v>39873</v>
@@ -11536,7 +11541,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>244</v>
@@ -11556,7 +11561,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38">
         <f>EDATE(A332,1)</f>
         <v>39904</v>
@@ -11583,7 +11588,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38"/>
       <c r="B335" s="20" t="s">
         <v>54</v>
@@ -11605,7 +11610,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38"/>
       <c r="B336" s="20" t="s">
         <v>169</v>
@@ -11627,7 +11632,7 @@
         <v>39931</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>245</v>
@@ -11647,7 +11652,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <f>EDATE(A334,1)</f>
         <v>39934</v>
@@ -11674,7 +11679,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38"/>
       <c r="B339" s="20" t="s">
         <v>49</v>
@@ -11696,7 +11701,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38"/>
       <c r="B340" s="20" t="s">
         <v>247</v>
@@ -11716,7 +11721,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <f>EDATE(A338,1)</f>
         <v>39965</v>
@@ -11743,7 +11748,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
         <v>248</v>
@@ -11763,7 +11768,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <f>EDATE(A341,1)</f>
         <v>39995</v>
@@ -11792,7 +11797,7 @@
         <v>39997</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>54</v>
@@ -11814,7 +11819,7 @@
         <v>40025</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38"/>
       <c r="B345" s="20" t="s">
         <v>250</v>
@@ -11834,7 +11839,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <f>EDATE(A343,1)</f>
         <v>40026</v>
@@ -11861,7 +11866,7 @@
         <v>40043</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38"/>
       <c r="B347" s="20" t="s">
         <v>251</v>
@@ -11881,7 +11886,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="50"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <f>EDATE(A346,1)</f>
         <v>40057</v>
@@ -11906,7 +11911,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="38"/>
       <c r="B349" s="20" t="s">
         <v>54</v>
@@ -11928,7 +11933,7 @@
         <v>40058</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38"/>
       <c r="B350" s="20" t="s">
         <v>252</v>
@@ -11948,7 +11953,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38">
         <f>EDATE(A348,1)</f>
         <v>40087</v>
@@ -11973,7 +11978,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38">
         <f>EDATE(A351,1)</f>
         <v>40118</v>
@@ -12000,7 +12005,7 @@
         <v>40134</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>254</v>
@@ -12020,7 +12025,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <f>EDATE(A352,1)</f>
         <v>40148</v>
@@ -12047,7 +12052,7 @@
         <v>40165</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38"/>
       <c r="B355" s="20" t="s">
         <v>49</v>
@@ -12069,7 +12074,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38"/>
       <c r="B356" s="20" t="s">
         <v>256</v>
@@ -12089,7 +12094,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="49" t="s">
         <v>257</v>
       </c>
@@ -12107,7 +12112,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38">
         <f>EDATE(A354,1)</f>
         <v>40179</v>
@@ -12132,7 +12137,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38"/>
       <c r="B359" s="20" t="s">
         <v>258</v>
@@ -12152,7 +12157,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <f>EDATE(A358,1)</f>
         <v>40210</v>
@@ -12179,7 +12184,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38"/>
       <c r="B361" s="20" t="s">
         <v>66</v>
@@ -12201,7 +12206,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38"/>
       <c r="B362" s="20" t="s">
         <v>263</v>
@@ -12221,7 +12226,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38">
         <f>EDATE(A360,1)</f>
         <v>40238</v>
@@ -12248,7 +12253,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38"/>
       <c r="B364" s="20" t="s">
         <v>264</v>
@@ -12268,7 +12273,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="50"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38">
         <f>EDATE(A363,1)</f>
         <v>40269</v>
@@ -12293,7 +12298,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38">
         <f t="shared" ref="A366" si="2">EDATE(A365,1)</f>
         <v>40299</v>
@@ -12320,7 +12325,7 @@
         <v>40315</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38"/>
       <c r="B367" s="20" t="s">
         <v>54</v>
@@ -12342,7 +12347,7 @@
         <v>40311</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38"/>
       <c r="B368" s="20" t="s">
         <v>266</v>
@@ -12362,7 +12367,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="50"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38">
         <f>EDATE(A366,1)</f>
         <v>40330</v>
@@ -12389,7 +12394,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38"/>
       <c r="B370" s="20" t="s">
         <v>267</v>
@@ -12409,7 +12414,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="50"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="38">
         <f>EDATE(A369,1)</f>
         <v>40360</v>
@@ -12436,7 +12441,7 @@
         <v>40361</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="38"/>
       <c r="B372" s="20" t="s">
         <v>54</v>
@@ -12456,7 +12461,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="50"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>268</v>
@@ -12476,7 +12481,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="50"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="38">
         <f>EDATE(A371,1)</f>
         <v>40391</v>
@@ -12503,7 +12508,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
         <v>269</v>
@@ -12523,7 +12528,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="50"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="38">
         <f>EDATE(A374,1)</f>
         <v>40422</v>
@@ -12550,7 +12555,7 @@
         <v>40423</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="38"/>
       <c r="B377" s="20" t="s">
         <v>124</v>
@@ -12572,7 +12577,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38"/>
       <c r="B378" s="20" t="s">
         <v>124</v>
@@ -12594,7 +12599,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>272</v>
@@ -12614,7 +12619,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38">
         <f>EDATE(A376,1)</f>
         <v>40452</v>
@@ -12641,7 +12646,7 @@
         <v>40471</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="20" t="s">
         <v>273</v>
@@ -12661,7 +12666,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38">
         <f>EDATE(A380,1)</f>
         <v>40483</v>
@@ -12688,7 +12693,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38"/>
       <c r="B383" s="20" t="s">
         <v>275</v>
@@ -12708,7 +12713,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="50"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38">
         <f>EDATE(A382,1)</f>
         <v>40513</v>
@@ -12735,7 +12740,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>194</v>
@@ -12757,7 +12762,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38"/>
       <c r="B386" s="20" t="s">
         <v>274</v>
@@ -12777,7 +12782,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="49" t="s">
         <v>277</v>
       </c>
@@ -12795,7 +12800,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="38">
         <f>EDATE(A384,1)</f>
         <v>40544</v>
@@ -12820,7 +12825,7 @@
         <v>40560</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>74</v>
@@ -12840,7 +12845,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="50"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="38">
         <f>EDATE(A388,1)</f>
         <v>40575</v>
@@ -12863,7 +12868,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="38">
         <f t="shared" ref="A391:A400" si="3">EDATE(A390,1)</f>
         <v>40603</v>
@@ -12890,7 +12895,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="38"/>
       <c r="B392" s="20" t="s">
         <v>278</v>
@@ -12910,7 +12915,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="50"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="38">
         <f>EDATE(A391,1)</f>
         <v>40634</v>
@@ -12935,7 +12940,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="38">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -12960,7 +12965,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="38"/>
       <c r="B395" s="20" t="s">
         <v>281</v>
@@ -12980,7 +12985,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="38">
         <f>EDATE(A394,1)</f>
         <v>40695</v>
@@ -13007,7 +13012,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="38"/>
       <c r="B397" s="20" t="s">
         <v>54</v>
@@ -13029,7 +13034,7 @@
         <v>40721</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="38"/>
       <c r="B398" s="20" t="s">
         <v>282</v>
@@ -13049,7 +13054,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="50"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="38">
         <f>EDATE(A396,1)</f>
         <v>40725</v>
@@ -13074,7 +13079,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="38">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -13101,7 +13106,7 @@
         <v>40765</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="38"/>
       <c r="B401" s="20" t="s">
         <v>169</v>
@@ -13119,7 +13124,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="50"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="38"/>
       <c r="B402" s="20" t="s">
         <v>66</v>
@@ -13137,7 +13142,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="50"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="38"/>
       <c r="B403" s="20" t="s">
         <v>283</v>
@@ -13157,7 +13162,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="50"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="38">
         <f>EDATE(A400,1)</f>
         <v>40787</v>
@@ -13184,7 +13189,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="38"/>
       <c r="B405" s="20" t="s">
         <v>284</v>
@@ -13204,7 +13209,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="50"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="38">
         <f>EDATE(A404,1)</f>
         <v>40817</v>
@@ -13231,7 +13236,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="38"/>
       <c r="B407" s="20" t="s">
         <v>286</v>
@@ -13251,7 +13256,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="38">
         <f>EDATE(A406,1)</f>
         <v>40848</v>
@@ -13278,7 +13283,7 @@
         <v>40876</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="38"/>
       <c r="B409" s="20" t="s">
         <v>51</v>
@@ -13298,7 +13303,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="50"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="38">
         <f>EDATE(A408,1)</f>
         <v>40878</v>
@@ -13325,7 +13330,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="38"/>
       <c r="B411" s="20" t="s">
         <v>287</v>
@@ -13345,7 +13350,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="49" t="s">
         <v>288</v>
       </c>
@@ -13363,7 +13368,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="38">
         <f>EDATE(A410,1)</f>
         <v>40909</v>
@@ -13388,7 +13393,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="38"/>
       <c r="B414" s="20" t="s">
         <v>54</v>
@@ -13410,7 +13415,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="38"/>
       <c r="B415" s="20" t="s">
         <v>66</v>
@@ -13430,7 +13435,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="38"/>
       <c r="B416" s="20" t="s">
         <v>66</v>
@@ -13450,7 +13455,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="38"/>
       <c r="B417" s="20" t="s">
         <v>292</v>
@@ -13470,7 +13475,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="38">
         <f>EDATE(A413,1)</f>
         <v>40940</v>
@@ -13497,7 +13502,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="38"/>
       <c r="B419" s="20" t="s">
         <v>148</v>
@@ -13517,7 +13522,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="38">
         <f>EDATE(A418,1)</f>
         <v>40969</v>
@@ -13544,7 +13549,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="38"/>
       <c r="B421" s="20" t="s">
         <v>54</v>
@@ -13566,7 +13571,7 @@
         <v>40995</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>294</v>
@@ -13586,7 +13591,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="50"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="38">
         <f>EDATE(A420,1)</f>
         <v>41000</v>
@@ -13611,7 +13616,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="38">
         <f t="shared" ref="A424:A437" si="4">EDATE(A423,1)</f>
         <v>41030</v>
@@ -13638,7 +13643,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="38"/>
       <c r="B425" s="20" t="s">
         <v>194</v>
@@ -13660,7 +13665,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="38"/>
       <c r="B426" s="20" t="s">
         <v>296</v>
@@ -13680,7 +13685,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="38">
         <f>EDATE(A424,1)</f>
         <v>41061</v>
@@ -13705,7 +13710,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="38">
         <f t="shared" si="4"/>
         <v>41091</v>
@@ -13732,7 +13737,7 @@
         <v>41110</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="38"/>
       <c r="B429" s="20" t="s">
         <v>54</v>
@@ -13754,7 +13759,7 @@
         <v>41121</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="38"/>
       <c r="B430" s="20" t="s">
         <v>297</v>
@@ -13774,7 +13779,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="38">
         <f>EDATE(A428,1)</f>
         <v>41122</v>
@@ -13799,7 +13804,7 @@
         <v>41155</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="38"/>
       <c r="B432" s="20" t="s">
         <v>54</v>
@@ -13821,7 +13826,7 @@
         <v>41143</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="38"/>
       <c r="B433" s="20" t="s">
         <v>299</v>
@@ -13841,7 +13846,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="50"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="38">
         <f>EDATE(A431,1)</f>
         <v>41153</v>
@@ -13868,7 +13873,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="38"/>
       <c r="B435" s="20" t="s">
         <v>298</v>
@@ -13888,7 +13893,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="50"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="38">
         <f>EDATE(A434,1)</f>
         <v>41183</v>
@@ -13913,7 +13918,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="38">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -13940,7 +13945,7 @@
         <v>41234</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>73</v>
@@ -13960,7 +13965,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="50"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="38">
         <f>EDATE(A437,1)</f>
         <v>41244</v>
@@ -13987,7 +13992,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="38"/>
       <c r="B440" s="20" t="s">
         <v>227</v>
@@ -14007,7 +14012,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="49" t="s">
         <v>301</v>
       </c>
@@ -14025,7 +14030,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="38">
         <f>EDATE(A439,1)</f>
         <v>41275</v>
@@ -14050,7 +14055,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="38">
         <f>EDATE(A442,1)</f>
         <v>41306</v>
@@ -14075,7 +14080,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="38"/>
       <c r="B444" s="20" t="s">
         <v>54</v>
@@ -14097,7 +14102,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="38"/>
       <c r="B445" s="20" t="s">
         <v>66</v>
@@ -14117,7 +14122,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="38"/>
       <c r="B446" s="20" t="s">
         <v>309</v>
@@ -14137,7 +14142,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="38">
         <f>EDATE(A443,1)</f>
         <v>41334</v>
@@ -14162,7 +14167,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="38"/>
       <c r="B448" s="20" t="s">
         <v>279</v>
@@ -14173,7 +14178,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.811000000000149</v>
+        <v>66.811000000000149</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -14188,7 +14193,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="38">
         <f>EDATE(A447,1)</f>
         <v>41365</v>
@@ -14213,7 +14218,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="38">
         <f t="shared" ref="A450:A457" si="5">EDATE(A449,1)</f>
         <v>41395</v>
@@ -14234,7 +14239,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="38">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -14259,7 +14264,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="38">
         <f t="shared" si="5"/>
         <v>41456</v>
@@ -14284,7 +14289,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="38">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -14309,7 +14314,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="38"/>
       <c r="B454" s="20" t="s">
         <v>169</v>
@@ -14331,7 +14336,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="38"/>
       <c r="B455" s="20" t="s">
         <v>312</v>
@@ -14351,7 +14356,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="38">
         <f>EDATE(A453,1)</f>
         <v>41518</v>
@@ -14376,7 +14381,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="38">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -14403,7 +14408,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="38"/>
       <c r="B458" s="20" t="s">
         <v>315</v>
@@ -14423,7 +14428,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="38">
         <f>EDATE(A457,1)</f>
         <v>41579</v>
@@ -14450,7 +14455,7 @@
         <v>41606</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="38"/>
       <c r="B460" s="20" t="s">
         <v>316</v>
@@ -14470,7 +14475,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="50"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="38">
         <f>EDATE(A459,1)</f>
         <v>41609</v>
@@ -14494,7 +14499,7 @@
         <v>41614</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="38"/>
       <c r="B462" s="20" t="s">
         <v>317</v>
@@ -14514,7 +14519,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="50"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="49" t="s">
         <v>303</v>
       </c>
@@ -14532,7 +14537,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="38">
         <f>EDATE(A461,1)</f>
         <v>41640</v>
@@ -14557,7 +14562,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="38">
         <f>EDATE(A464,1)</f>
         <v>41671</v>
@@ -14582,7 +14587,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="38">
         <f>EDATE(A465,1)</f>
         <v>41699</v>
@@ -14607,7 +14612,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="38"/>
       <c r="B467" s="20" t="s">
         <v>169</v>
@@ -14629,7 +14634,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="38"/>
       <c r="B468" s="20" t="s">
         <v>66</v>
@@ -14649,7 +14654,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
       <c r="B469" s="20" t="s">
         <v>66</v>
@@ -14669,7 +14674,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
       <c r="B470" s="20" t="s">
         <v>310</v>
@@ -14689,7 +14694,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="38">
         <f>EDATE(A466,1)</f>
         <v>41730</v>
@@ -14714,7 +14719,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="38">
         <f t="shared" ref="A472:A481" si="6">EDATE(A471,1)</f>
         <v>41760</v>
@@ -14739,7 +14744,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="38">
         <f t="shared" si="6"/>
         <v>41791</v>
@@ -14764,7 +14769,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="38">
         <f t="shared" si="6"/>
         <v>41821</v>
@@ -14785,7 +14790,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="38">
         <f t="shared" si="6"/>
         <v>41852</v>
@@ -14812,7 +14817,7 @@
         <v>41884</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="38"/>
       <c r="B476" s="20" t="s">
         <v>321</v>
@@ -14832,7 +14837,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="50"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="38">
         <f>EDATE(A475,1)</f>
         <v>41883</v>
@@ -14859,7 +14864,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="38"/>
       <c r="B478" s="20" t="s">
         <v>169</v>
@@ -14879,7 +14884,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="38"/>
       <c r="B479" s="20" t="s">
         <v>88</v>
@@ -14899,7 +14904,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="50"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="38">
         <f>EDATE(A477,1)</f>
         <v>41913</v>
@@ -14924,7 +14929,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="38">
         <f t="shared" si="6"/>
         <v>41944</v>
@@ -14949,7 +14954,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="38">
         <f>EDATE(A481,1)</f>
         <v>41974</v>
@@ -14976,7 +14981,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="38"/>
       <c r="B483" s="20" t="s">
         <v>52</v>
@@ -14998,7 +15003,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="49" t="s">
         <v>304</v>
       </c>
@@ -15016,7 +15021,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="38">
         <f>EDATE(A482,1)</f>
         <v>42005</v>
@@ -15037,7 +15042,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="38">
         <f>EDATE(A485,1)</f>
         <v>42036</v>
@@ -15058,7 +15063,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="38">
         <f t="shared" ref="A487:A495" si="7">EDATE(A486,1)</f>
         <v>42064</v>
@@ -15083,7 +15088,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="38">
         <f t="shared" si="7"/>
         <v>42095</v>
@@ -15108,7 +15113,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="38">
         <f t="shared" si="7"/>
         <v>42125</v>
@@ -15129,7 +15134,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="38">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -15154,7 +15159,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="38">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -15175,7 +15180,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="38">
         <f t="shared" si="7"/>
         <v>42217</v>
@@ -15200,7 +15205,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="38">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -15225,7 +15230,7 @@
         <v>42254</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="38">
         <f>EDATE(A493,1)</f>
         <v>42278</v>
@@ -15250,7 +15255,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="38">
         <f t="shared" si="7"/>
         <v>42309</v>
@@ -15275,7 +15280,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="38"/>
       <c r="B496" s="20" t="s">
         <v>54</v>
@@ -15295,7 +15300,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="38">
         <f>EDATE(A495,1)</f>
         <v>42339</v>
@@ -15316,7 +15321,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="49" t="s">
         <v>305</v>
       </c>
@@ -15334,7 +15339,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="38">
         <f>EDATE(A497,1)</f>
         <v>42370</v>
@@ -15359,7 +15364,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="38"/>
       <c r="B500" s="20" t="s">
         <v>302</v>
@@ -15379,7 +15384,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="38">
         <f>EDATE(A499,1)</f>
         <v>42401</v>
@@ -15404,7 +15409,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="38">
         <f t="shared" ref="A502" si="8">EDATE(A501,1)</f>
         <v>42430</v>
@@ -15431,7 +15436,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="38"/>
       <c r="B503" s="20" t="s">
         <v>133</v>
@@ -15451,7 +15456,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="50"/>
     </row>
-    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="38">
         <f>EDATE(A502,1)</f>
         <v>42461</v>
@@ -15476,7 +15481,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="38"/>
       <c r="B505" s="20" t="s">
         <v>57</v>
@@ -15498,7 +15503,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="38"/>
       <c r="B506" s="20" t="s">
         <v>330</v>
@@ -15518,7 +15523,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="38">
         <f>EDATE(A504,1)</f>
         <v>42491</v>
@@ -15545,7 +15550,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="38"/>
       <c r="B508" s="20" t="s">
         <v>331</v>
@@ -15556,7 +15561,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.811000000000149</v>
+        <v>66.811000000000149</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -15571,7 +15576,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="50"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="38">
         <f>EDATE(A507,1)</f>
         <v>42522</v>
@@ -15596,7 +15601,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="39">
         <f>EDATE(A509,1)</f>
         <v>42552</v>
@@ -15621,7 +15626,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="38"/>
       <c r="B511" s="20" t="s">
         <v>332</v>
@@ -15641,7 +15646,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39">
         <f>EDATE(A510,1)</f>
         <v>42583</v>
@@ -15668,7 +15673,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="38"/>
       <c r="B513" s="20" t="s">
         <v>337</v>
@@ -15688,7 +15693,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="50"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39">
         <f>EDATE(A512,1)</f>
         <v>42614</v>
@@ -15713,7 +15718,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39">
         <f t="shared" ref="A515:A516" si="9">EDATE(A514,1)</f>
         <v>42644</v>
@@ -15738,7 +15743,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39">
         <f t="shared" si="9"/>
         <v>42675</v>
@@ -15765,7 +15770,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="38"/>
       <c r="B517" s="20" t="s">
         <v>74</v>
@@ -15785,7 +15790,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39">
         <f>EDATE(A516,1)</f>
         <v>42705</v>
@@ -15812,7 +15817,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="38"/>
       <c r="B519" s="20" t="s">
         <v>339</v>
@@ -15830,7 +15835,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="49" t="s">
         <v>306</v>
       </c>
@@ -15848,7 +15853,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="38">
         <f>EDATE(A518,1)</f>
         <v>42736</v>
@@ -15873,7 +15878,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="38"/>
       <c r="B522" s="20" t="s">
         <v>341</v>
@@ -15895,7 +15900,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="38">
         <f>EDATE(A521,1)</f>
         <v>42767</v>
@@ -15920,7 +15925,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="38">
         <f t="shared" ref="A524:A537" si="10">EDATE(A523,1)</f>
         <v>42795</v>
@@ -15945,7 +15950,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="38">
         <f t="shared" si="10"/>
         <v>42826</v>
@@ -15970,7 +15975,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="38">
         <f>EDATE(A525,1)</f>
         <v>42856</v>
@@ -15997,7 +16002,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="38"/>
       <c r="B527" s="20" t="s">
         <v>57</v>
@@ -16019,7 +16024,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="38"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -16039,7 +16044,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="38">
         <f>EDATE(A526,1)</f>
         <v>42887</v>
@@ -16064,7 +16069,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="38"/>
       <c r="B530" s="20" t="s">
         <v>91</v>
@@ -16084,7 +16089,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="38">
         <f>EDATE(A529,1)</f>
         <v>42917</v>
@@ -16109,7 +16114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="38"/>
       <c r="B532" s="20" t="s">
         <v>76</v>
@@ -16129,7 +16134,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="38">
         <f>EDATE(A531,1)</f>
         <v>42948</v>
@@ -16156,7 +16161,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="38"/>
       <c r="B534" s="20" t="s">
         <v>63</v>
@@ -16176,7 +16181,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="50"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="38">
         <f>EDATE(A533,1)</f>
         <v>42979</v>
@@ -16201,7 +16206,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="38">
         <f t="shared" si="10"/>
         <v>43009</v>
@@ -16226,7 +16231,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="38">
         <f t="shared" si="10"/>
         <v>43040</v>
@@ -16247,7 +16252,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39">
         <f>EDATE(A537,1)</f>
         <v>43070</v>
@@ -16274,7 +16279,7 @@
         <v>43098</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="49" t="s">
         <v>347</v>
       </c>
@@ -16292,7 +16297,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="38">
         <f>EDATE(A538,1)</f>
         <v>43101</v>
@@ -16317,7 +16322,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="38">
         <f>EDATE(A540,1)</f>
         <v>43132</v>
@@ -16342,7 +16347,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="38">
         <f>EDATE(A541,1)</f>
         <v>43160</v>
@@ -16367,7 +16372,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="38"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16389,7 +16394,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="38">
         <f>EDATE(A542,1)</f>
         <v>43191</v>
@@ -16416,7 +16421,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="38"/>
       <c r="B545" s="20" t="s">
         <v>53</v>
@@ -16438,7 +16443,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="38">
         <f>EDATE(A544,1)</f>
         <v>43221</v>
@@ -16463,7 +16468,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="38">
         <f t="shared" ref="A547:A554" si="11">EDATE(A546,1)</f>
         <v>43252</v>
@@ -16488,7 +16493,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="38"/>
       <c r="B548" s="20" t="s">
         <v>55</v>
@@ -16508,7 +16513,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="38">
         <f>EDATE(A547,1)</f>
         <v>43282</v>
@@ -16533,7 +16538,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="38">
         <f t="shared" si="11"/>
         <v>43313</v>
@@ -16560,7 +16565,7 @@
         <v>43314</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="38"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -16582,7 +16587,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="38"/>
       <c r="B552" s="20" t="s">
         <v>350</v>
@@ -16602,7 +16607,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="38">
         <f>EDATE(A550,1)</f>
         <v>43344</v>
@@ -16627,7 +16632,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="38">
         <f t="shared" si="11"/>
         <v>43374</v>
@@ -16654,7 +16659,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="38"/>
       <c r="B555" s="20" t="s">
         <v>54</v>
@@ -16676,7 +16681,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="38"/>
       <c r="B556" s="20" t="s">
         <v>322</v>
@@ -16696,7 +16701,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="38">
         <f>EDATE(A554,1)</f>
         <v>43405</v>
@@ -16723,7 +16728,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="38"/>
       <c r="B558" s="20" t="s">
         <v>81</v>
@@ -16743,7 +16748,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="38">
         <f>EDATE(A557,1)</f>
         <v>43435</v>
@@ -16770,7 +16775,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="38"/>
       <c r="B560" s="20" t="s">
         <v>57</v>
@@ -16792,7 +16797,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="38"/>
       <c r="B561" s="20" t="s">
         <v>122</v>
@@ -16812,7 +16817,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="49" t="s">
         <v>352</v>
       </c>
@@ -16830,7 +16835,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="38">
         <f>EDATE(A559,1)</f>
         <v>43466</v>
@@ -16857,7 +16862,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="38"/>
       <c r="B564" s="20" t="s">
         <v>92</v>
@@ -16877,7 +16882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="38"/>
       <c r="B565" s="20" t="s">
         <v>76</v>
@@ -16897,7 +16902,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="38">
         <f>EDATE(A563,1)</f>
         <v>43497</v>
@@ -16922,7 +16927,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="38">
         <f t="shared" ref="A567:A573" si="12">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16947,7 +16952,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="38">
         <f t="shared" si="12"/>
         <v>43556</v>
@@ -16974,7 +16979,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="38"/>
       <c r="B569" s="20" t="s">
         <v>120</v>
@@ -16994,7 +16999,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="38">
         <f>EDATE(A568,1)</f>
         <v>43586</v>
@@ -17021,7 +17026,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="38">
         <f t="shared" si="12"/>
         <v>43617</v>
@@ -17046,7 +17051,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="38">
         <f t="shared" si="12"/>
         <v>43647</v>
@@ -17071,7 +17076,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="38">
         <f t="shared" si="12"/>
         <v>43678</v>
@@ -17098,7 +17103,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="38"/>
       <c r="B574" s="20" t="s">
         <v>54</v>
@@ -17120,7 +17125,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="38"/>
       <c r="B575" s="20" t="s">
         <v>359</v>
@@ -17140,7 +17145,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="50"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="38">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -17167,7 +17172,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="38"/>
       <c r="B577" s="20" t="s">
         <v>102</v>
@@ -17187,7 +17192,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="50"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="38">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -17212,7 +17217,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="38">
         <f>EDATE(A578,1)</f>
         <v>43770</v>
@@ -17239,7 +17244,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="38"/>
       <c r="B580" s="20" t="s">
         <v>49</v>
@@ -17261,7 +17266,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="38"/>
       <c r="B581" s="20" t="s">
         <v>76</v>
@@ -17281,7 +17286,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="38">
         <f>EDATE(A579,1)</f>
         <v>43800</v>
@@ -17308,7 +17313,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="38"/>
       <c r="B583" s="20" t="s">
         <v>252</v>
@@ -17328,7 +17333,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="49" t="s">
         <v>361</v>
       </c>
@@ -17346,7 +17351,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="38">
         <f>EDATE(A582,1)</f>
         <v>43831</v>
@@ -17371,7 +17376,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="38"/>
       <c r="B586" s="20" t="s">
         <v>363</v>
@@ -17391,7 +17396,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="38">
         <f>EDATE(A585,1)</f>
         <v>43862</v>
@@ -17418,7 +17423,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="38"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17440,7 +17445,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="38">
         <f>EDATE(A587,1)</f>
         <v>43891</v>
@@ -17461,7 +17466,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="38">
         <f t="shared" ref="A590:A600" si="13">EDATE(A589,1)</f>
         <v>43922</v>
@@ -17482,7 +17487,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="38">
         <f t="shared" si="13"/>
         <v>43952</v>
@@ -17503,7 +17508,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="38">
         <f t="shared" si="13"/>
         <v>43983</v>
@@ -17528,7 +17533,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="38"/>
       <c r="B593" s="20" t="s">
         <v>66</v>
@@ -17548,7 +17553,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="38">
         <f>EDATE(A592,1)</f>
         <v>44013</v>
@@ -17575,7 +17580,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="38">
         <f t="shared" si="13"/>
         <v>44044</v>
@@ -17596,7 +17601,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="38">
         <f>EDATE(A595,1)</f>
         <v>44075</v>
@@ -17623,7 +17628,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="38"/>
       <c r="B597" s="20" t="s">
         <v>49</v>
@@ -17645,7 +17650,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="38">
         <f>EDATE(A596,1)</f>
         <v>44105</v>
@@ -17670,7 +17675,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="38">
         <f>EDATE(A598,1)</f>
         <v>44136</v>
@@ -17691,7 +17696,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="38">
         <f t="shared" si="13"/>
         <v>44166</v>
@@ -17718,7 +17723,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="38"/>
       <c r="B601" s="20" t="s">
         <v>353</v>
@@ -17738,7 +17743,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="49" t="s">
         <v>370</v>
       </c>
@@ -17756,7 +17761,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="38">
         <f>EDATE(A600,1)</f>
         <v>44197</v>
@@ -17777,7 +17782,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="38">
         <f>EDATE(A603,1)</f>
         <v>44228</v>
@@ -17798,7 +17803,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="38">
         <f t="shared" ref="A605:A614" si="14">EDATE(A604,1)</f>
         <v>44256</v>
@@ -17819,7 +17824,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="38">
         <f t="shared" si="14"/>
         <v>44287</v>
@@ -17840,7 +17845,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="38">
         <f t="shared" si="14"/>
         <v>44317</v>
@@ -17861,7 +17866,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="38">
         <f t="shared" si="14"/>
         <v>44348</v>
@@ -17882,7 +17887,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="38">
         <f t="shared" si="14"/>
         <v>44378</v>
@@ -17903,7 +17908,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="38">
         <f t="shared" si="14"/>
         <v>44409</v>
@@ -17924,7 +17929,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="38">
         <f t="shared" si="14"/>
         <v>44440</v>
@@ -17945,7 +17950,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="38">
         <f t="shared" si="14"/>
         <v>44470</v>
@@ -17966,7 +17971,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="38">
         <f>EDATE(A612,1)</f>
         <v>44501</v>
@@ -17987,7 +17992,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="38">
         <f t="shared" si="14"/>
         <v>44531</v>
@@ -18012,7 +18017,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="49" t="s">
         <v>372</v>
       </c>
@@ -18030,7 +18035,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="38">
         <f>EDATE(A614,1)</f>
         <v>44562</v>
@@ -18051,7 +18056,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="38">
         <f>EDATE(A616,1)</f>
         <v>44593</v>
@@ -18072,7 +18077,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="38">
         <f t="shared" ref="A618:A622" si="15">EDATE(A617,1)</f>
         <v>44621</v>
@@ -18097,7 +18102,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="38">
         <f t="shared" si="15"/>
         <v>44652</v>
@@ -18118,7 +18123,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="38">
         <f t="shared" si="15"/>
         <v>44682</v>
@@ -18143,7 +18148,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="38">
         <f t="shared" si="15"/>
         <v>44713</v>
@@ -18164,7 +18169,7 @@
       <c r="J621" s="12"/>
       <c r="K621" s="15"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="38">
         <f t="shared" si="15"/>
         <v>44743</v>
@@ -18191,7 +18196,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="38">
         <v>44774</v>
       </c>
@@ -18217,7 +18222,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="38">
         <v>44805</v>
       </c>
@@ -18241,7 +18246,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="38"/>
       <c r="B625" s="20" t="s">
         <v>54</v>
@@ -18263,7 +18268,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="38">
         <v>44835</v>
       </c>
@@ -18283,7 +18288,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="38">
         <v>44866</v>
       </c>
@@ -18309,7 +18314,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="38"/>
       <c r="B628" s="20" t="s">
         <v>54</v>
@@ -18331,7 +18336,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="38">
         <v>44896</v>
       </c>
@@ -18355,7 +18360,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="49" t="s">
         <v>380</v>
       </c>
@@ -18373,7 +18378,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="50"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="38">
         <f>EDATE(A629,1)</f>
         <v>44927</v>
@@ -18394,7 +18399,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="38">
         <f t="shared" ref="A632" si="16">EDATE(A631,1)</f>
         <v>44958</v>
@@ -18421,7 +18426,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="38">
         <v>44986</v>
       </c>
@@ -18445,13 +18450,17 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="38">
         <v>45017</v>
       </c>
-      <c r="B634" s="20"/>
+      <c r="B634" s="20" t="s">
+        <v>384</v>
+      </c>
       <c r="C634" s="13"/>
-      <c r="D634" s="37"/>
+      <c r="D634" s="37">
+        <v>16</v>
+      </c>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
       <c r="G634" s="13" t="str">
@@ -18461,9 +18470,11 @@
       <c r="H634" s="37"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
-      <c r="K634" s="20"/>
-    </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K634" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="38">
         <v>45047</v>
       </c>
@@ -18481,7 +18492,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="38">
         <v>45078</v>
       </c>
@@ -18499,7 +18510,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="38">
         <v>45108</v>
       </c>
@@ -18517,7 +18528,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="38">
         <v>45139</v>
       </c>
@@ -18535,7 +18546,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="38">
         <v>45170</v>
       </c>
@@ -18553,7 +18564,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="38">
         <v>45200</v>
       </c>
@@ -18571,7 +18582,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="38">
         <v>45231</v>
       </c>
@@ -18589,7 +18600,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="38">
         <v>45261</v>
       </c>
@@ -18607,7 +18618,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="38">
         <v>45292</v>
       </c>
@@ -18625,7 +18636,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="38">
         <v>45323</v>
       </c>
@@ -18643,7 +18654,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="38">
         <v>45352</v>
       </c>
@@ -18661,7 +18672,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="38">
         <v>45383</v>
       </c>
@@ -18679,7 +18690,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="38">
         <v>45413</v>
       </c>
@@ -18697,7 +18708,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="38">
         <v>45444</v>
       </c>
@@ -18715,7 +18726,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="38">
         <v>45474</v>
       </c>
@@ -18733,7 +18744,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="38">
         <v>45505</v>
       </c>
@@ -18751,7 +18762,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="38">
         <v>45536</v>
       </c>
@@ -18769,7 +18780,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="38">
         <v>45566</v>
       </c>
@@ -18787,7 +18798,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="38">
         <v>45597</v>
       </c>
@@ -18805,7 +18816,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38">
         <v>45627</v>
       </c>
@@ -18823,7 +18834,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="38">
         <v>45658</v>
       </c>
@@ -18841,7 +18852,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18857,7 +18868,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="38"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18873,7 +18884,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="38"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18889,7 +18900,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18905,7 +18916,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="38"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18921,7 +18932,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18937,7 +18948,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="38"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18953,7 +18964,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="38"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18969,7 +18980,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="38"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18985,7 +18996,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="38"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -19001,7 +19012,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="38"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -19017,7 +19028,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="38"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -19033,7 +19044,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="38"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19049,7 +19060,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="38"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19065,7 +19076,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="38"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19081,7 +19092,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="38"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19097,7 +19108,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="38"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19113,7 +19124,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="38"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19129,7 +19140,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="38"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19145,7 +19156,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="38"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19161,7 +19172,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="38"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19177,7 +19188,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="38"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19193,7 +19204,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="38"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19209,7 +19220,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="39"/>
       <c r="B679" s="15"/>
       <c r="C679" s="40"/>
@@ -19240,10 +19251,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19266,7 +19277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19274,21 +19285,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -19301,7 +19312,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -19330,7 +19341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>21.683</v>
       </c>
@@ -19360,17 +19371,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -19391,7 +19402,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -19418,7 +19429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -19444,7 +19455,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -19470,7 +19481,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -19496,7 +19507,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -19522,7 +19533,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -19548,7 +19559,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -19574,7 +19585,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -19600,7 +19611,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -19620,7 +19631,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -19640,7 +19651,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -19660,7 +19671,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -19681,7 +19692,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -19702,7 +19713,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -19723,7 +19734,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -19744,7 +19755,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -19765,7 +19776,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -19786,7 +19797,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -19807,7 +19818,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -19828,7 +19839,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -19849,7 +19860,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -19870,7 +19881,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -19891,7 +19902,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -19912,7 +19923,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -19933,7 +19944,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -19954,7 +19965,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -19975,7 +19986,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -19996,7 +20007,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -20017,7 +20028,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -20038,7 +20049,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -20059,7 +20070,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -20080,7 +20091,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -20089,7 +20100,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -20098,7 +20109,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -20107,7 +20118,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -20116,7 +20127,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -20125,7 +20136,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -20134,7 +20145,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -20143,7 +20154,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -20152,7 +20163,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -20161,7 +20172,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -20170,7 +20181,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -20179,7 +20190,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -20188,7 +20199,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -20197,7 +20208,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -20206,7 +20217,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -20215,7 +20226,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -20224,7 +20235,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -20233,7 +20244,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -20242,7 +20253,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -20251,7 +20262,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -20260,7 +20271,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -20269,7 +20280,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -20278,7 +20289,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -20287,7 +20298,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -20296,7 +20307,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -20305,7 +20316,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -20314,7 +20325,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -20323,7 +20334,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -20332,7 +20343,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -20341,7 +20352,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/GOMEZ, EMMA M..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A72EFF-ECFD-453B-8BAA-20893793EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="602" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1197,7 +1198,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2082,7 +2083,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2126,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2190,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2250,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2316,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2379,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2477,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2536,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2600,7 +2601,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2644,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2719,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2905,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2970,7 +2971,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3029,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3095,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +3151,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3226,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3269,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3335,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,7 +3391,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3489,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3552,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,25 +3618,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K679" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K679" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K679" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3647,13 +3649,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3662,14 +3664,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3973,7 +3975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3983,7 +3985,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3991,34 +3993,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K679"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="4455" topLeftCell="A630" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D635" sqref="D635"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <pane ySplit="4452" topLeftCell="A629" activePane="bottomLeft"/>
+      <selection activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E636" sqref="E636"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -4041,7 +4043,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4059,7 +4061,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4081,7 +4083,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -4089,7 +4091,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -4102,7 +4104,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -4119,7 +4121,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="53" t="s">
         <v>23</v>
@@ -4163,7 +4165,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.811000000000149</v>
+        <v>57.417000000000094</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4173,12 +4175,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>196.43299999999999</v>
+        <v>193.18299999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>42</v>
       </c>
@@ -4202,7 +4204,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>43</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
       <c r="B12" s="11" t="s">
         <v>44</v>
@@ -4244,7 +4246,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>45</v>
       </c>
@@ -4262,7 +4264,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>35947</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <f>EDATE(A14,1)</f>
         <v>35977</v>
@@ -4309,7 +4311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="15" t="s">
         <v>48</v>
@@ -4329,7 +4331,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <f>EDATE(A15,1)</f>
         <v>36008</v>
@@ -4356,7 +4358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>51</v>
@@ -4376,7 +4378,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <f>EDATE(A17,1)</f>
         <v>36039</v>
@@ -4401,7 +4403,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <f>EDATE(A19,1)</f>
         <v>36069</v>
@@ -4428,7 +4430,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>54</v>
@@ -4450,7 +4452,7 @@
         <v>36094</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>55</v>
@@ -4470,7 +4472,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <f>EDATE(A20,1)</f>
         <v>36100</v>
@@ -4497,7 +4499,7 @@
         <v>36108</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>51</v>
@@ -4517,7 +4519,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <f>EDATE(A23,1)</f>
         <v>36130</v>
@@ -4544,7 +4546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
         <v>57</v>
@@ -4566,7 +4568,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="20" t="s">
         <v>60</v>
@@ -4586,7 +4588,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
         <v>61</v>
       </c>
@@ -4604,7 +4606,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <f>EDATE(A25,1)</f>
         <v>36161</v>
@@ -4631,7 +4633,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
         <v>63</v>
@@ -4651,7 +4653,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <f>EDATE(A29,1)</f>
         <v>36192</v>
@@ -4678,7 +4680,7 @@
         <v>36214</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -4698,7 +4700,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <f>EDATE(A31,1)</f>
         <v>36220</v>
@@ -4725,7 +4727,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>65</v>
@@ -4745,7 +4747,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <f>EDATE(A33,1)</f>
         <v>36251</v>
@@ -4772,7 +4774,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
         <v>68</v>
@@ -4794,7 +4796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>49</v>
@@ -4816,7 +4818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>71</v>
@@ -4836,7 +4838,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <f>EDATE(A35,1)</f>
         <v>36281</v>
@@ -4861,7 +4863,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <f>EDATE(A39,1)</f>
         <v>36312</v>
@@ -4886,7 +4888,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <f t="shared" ref="A41:A42" si="0">EDATE(A40,1)</f>
         <v>36342</v>
@@ -4911,7 +4913,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -4936,7 +4938,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4958,7 +4960,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <f>EDATE(A42,1)</f>
         <v>36404</v>
@@ -4985,7 +4987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>54</v>
@@ -5007,7 +5009,7 @@
         <v>36426</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -5027,7 +5029,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <f>EDATE(A44,1)</f>
         <v>36434</v>
@@ -5052,7 +5054,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <f>EDATE(A47,1)</f>
         <v>36465</v>
@@ -5077,7 +5079,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <f>EDATE(A48,1)</f>
         <v>36495</v>
@@ -5085,15 +5087,17 @@
       <c r="B49" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="37">
         <v>3.5</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="9"/>
@@ -5102,7 +5106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>80</v>
@@ -5124,7 +5128,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="20" t="s">
         <v>81</v>
@@ -5144,7 +5148,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
         <v>84</v>
       </c>
@@ -5162,7 +5166,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <f>EDATE(A49,1)</f>
         <v>36526</v>
@@ -5187,7 +5191,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <f>EDATE(A53,1)</f>
         <v>36557</v>
@@ -5205,12 +5209,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H54" s="37"/>
+      <c r="H54" s="37">
+        <v>1</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>86</v>
@@ -5230,7 +5236,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <f>EDATE(A54,1)</f>
         <v>36586</v>
@@ -5255,7 +5261,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <f>EDATE(A56,1)</f>
         <v>36617</v>
@@ -5280,7 +5286,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <f t="shared" ref="A58:A59" si="1">EDATE(A57,1)</f>
         <v>36647</v>
@@ -5303,7 +5309,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -5330,7 +5336,7 @@
         <v>36558</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -5350,7 +5356,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <f>EDATE(A59,1)</f>
         <v>36708</v>
@@ -5375,7 +5381,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <f>EDATE(A61,1)</f>
         <v>36739</v>
@@ -5402,7 +5408,7 @@
         <v>36756</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="20" t="s">
         <v>81</v>
@@ -5422,7 +5428,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <f>EDATE(A62,1)</f>
         <v>36770</v>
@@ -5443,7 +5449,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <f>EDATE(A64,1)</f>
         <v>36800</v>
@@ -5470,7 +5476,7 @@
         <v>36818</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5492,7 +5498,7 @@
         <v>36829</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>54</v>
@@ -5514,7 +5520,7 @@
         <v>36830</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -5532,7 +5538,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <f>EDATE(A65,1)</f>
         <v>36831</v>
@@ -5559,7 +5565,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>52</v>
@@ -5579,7 +5585,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <f>EDATE(A69,1)</f>
         <v>36861</v>
@@ -5606,7 +5612,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>54</v>
@@ -5628,7 +5634,7 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>64</v>
@@ -5645,7 +5651,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="49" t="s">
         <v>93</v>
       </c>
@@ -5660,7 +5666,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="50"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <f>EDATE(A71,1)</f>
         <v>36892</v>
@@ -5685,7 +5691,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <f>EDATE(A75,1)</f>
         <v>36923</v>
@@ -5712,7 +5718,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>92</v>
@@ -5732,7 +5738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>54</v>
@@ -5754,7 +5760,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -5776,7 +5782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
       <c r="B80" s="20" t="s">
         <v>74</v>
@@ -5796,7 +5802,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <f>EDATE(A76,1)</f>
         <v>36951</v>
@@ -5823,7 +5829,7 @@
         <v>36969</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
       <c r="B82" s="20" t="s">
         <v>54</v>
@@ -5845,7 +5851,7 @@
         <v>36973</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="20" t="s">
         <v>98</v>
@@ -5865,7 +5871,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <f>EDATE(A81,1)</f>
         <v>36982</v>
@@ -5890,7 +5896,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <f>EDATE(A84,1)</f>
         <v>37012</v>
@@ -5917,7 +5923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
       <c r="B86" s="20" t="s">
         <v>57</v>
@@ -5939,7 +5945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>54</v>
@@ -5961,7 +5967,7 @@
         <v>37035</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <f>EDATE(A85,1)</f>
         <v>37043</v>
@@ -5988,7 +5994,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>102</v>
@@ -6008,7 +6014,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <f>EDATE(A88,1)</f>
         <v>37073</v>
@@ -6035,7 +6041,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -6055,7 +6061,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <f>EDATE(A90,1)</f>
         <v>37104</v>
@@ -6082,7 +6088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="20" t="s">
         <v>49</v>
@@ -6104,7 +6110,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -6124,7 +6130,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <f>EDATE(A92,1)</f>
         <v>37135</v>
@@ -6149,7 +6155,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>54</v>
@@ -6171,7 +6177,7 @@
         <v>37145</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
       <c r="B97" s="20" t="s">
         <v>109</v>
@@ -6191,7 +6197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <f>EDATE(A95,1)</f>
         <v>37165</v>
@@ -6212,7 +6218,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38">
         <f>EDATE(A98,1)</f>
         <v>37196</v>
@@ -6239,7 +6245,7 @@
         <v>37204</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <f>EDATE(A99,1)</f>
         <v>37226</v>
@@ -6266,7 +6272,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>110</v>
@@ -6286,7 +6292,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6308,7 +6314,7 @@
         <v>37237</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="20" t="s">
         <v>53</v>
@@ -6330,7 +6336,7 @@
         <v>37244</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="B104" s="20" t="s">
         <v>111</v>
@@ -6350,7 +6356,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="49" t="s">
         <v>112</v>
       </c>
@@ -6368,7 +6374,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38">
         <f>EDATE(A100,1)</f>
         <v>37257</v>
@@ -6393,7 +6399,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <f>EDATE(A106,1)</f>
         <v>37288</v>
@@ -6420,7 +6426,7 @@
         <v>37306</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="20" t="s">
         <v>66</v>
@@ -6440,7 +6446,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -6462,7 +6468,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38">
         <f>EDATE(A107,1)</f>
         <v>37316</v>
@@ -6487,7 +6493,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38">
         <f>EDATE(A110,1)</f>
         <v>37347</v>
@@ -6514,7 +6520,7 @@
         <v>37350</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
       <c r="B112" s="20" t="s">
         <v>54</v>
@@ -6536,7 +6542,7 @@
         <v>37363</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="B113" s="20" t="s">
         <v>117</v>
@@ -6556,7 +6562,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38">
         <f>EDATE(A111,1)</f>
         <v>37377</v>
@@ -6583,7 +6589,7 @@
         <v>37386</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="B115" s="20" t="s">
         <v>80</v>
@@ -6605,7 +6611,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="B116" s="20" t="s">
         <v>119</v>
@@ -6625,7 +6631,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38">
         <f>EDATE(A114,1)</f>
         <v>37408</v>
@@ -6650,7 +6656,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <f>EDATE(A117,1)</f>
         <v>37438</v>
@@ -6675,7 +6681,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38">
         <f>EDATE(A118,1)</f>
         <v>37469</v>
@@ -6702,7 +6708,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6724,7 +6730,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38"/>
       <c r="B121" s="20" t="s">
         <v>91</v>
@@ -6744,7 +6750,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38">
         <f>EDATE(A119,1)</f>
         <v>37500</v>
@@ -6771,7 +6777,7 @@
         <v>37502</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38"/>
       <c r="B123" s="20" t="s">
         <v>54</v>
@@ -6793,7 +6799,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38"/>
       <c r="B124" s="20" t="s">
         <v>53</v>
@@ -6815,7 +6821,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38">
         <f>EDATE(A122,1)</f>
         <v>37530</v>
@@ -6840,7 +6846,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <f>EDATE(A125,1)</f>
         <v>37561</v>
@@ -6867,7 +6873,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38"/>
       <c r="B127" s="20" t="s">
         <v>53</v>
@@ -6889,7 +6895,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38"/>
       <c r="B128" s="20" t="s">
         <v>123</v>
@@ -6909,7 +6915,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38">
         <f>EDATE(A126,1)</f>
         <v>37591</v>
@@ -6936,7 +6942,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6956,7 +6962,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="49" t="s">
         <v>127</v>
       </c>
@@ -6974,7 +6980,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="39">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -6999,7 +7005,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="38">
         <f>EDATE(A132,1)</f>
         <v>37653</v>
@@ -7026,7 +7032,7 @@
         <v>37301</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38"/>
       <c r="B134" s="20" t="s">
         <v>129</v>
@@ -7046,7 +7052,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>66</v>
@@ -7066,7 +7072,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38">
         <f>EDATE(A133,1)</f>
         <v>37681</v>
@@ -7091,7 +7097,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="38">
         <f>EDATE(A136,1)</f>
         <v>37712</v>
@@ -7116,7 +7122,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="38">
         <f>EDATE(A137,1)</f>
         <v>37742</v>
@@ -7143,7 +7149,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="38"/>
       <c r="B139" s="20" t="s">
         <v>133</v>
@@ -7163,7 +7169,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="38">
         <f>EDATE(A138,1)</f>
         <v>37773</v>
@@ -7188,7 +7194,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="38">
         <f>EDATE(A140,1)</f>
         <v>37803</v>
@@ -7213,7 +7219,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="38">
         <f>EDATE(A141,1)</f>
         <v>37834</v>
@@ -7234,7 +7240,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="38">
         <f>EDATE(A142,1)</f>
         <v>37865</v>
@@ -7261,7 +7267,7 @@
         <v>37865</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="38"/>
       <c r="B144" s="20" t="s">
         <v>66</v>
@@ -7281,7 +7287,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="38"/>
       <c r="B145" s="20" t="s">
         <v>53</v>
@@ -7303,7 +7309,7 @@
         <v>37893</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>136</v>
@@ -7323,7 +7329,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="38">
         <f>EDATE(A143,1)</f>
         <v>37895</v>
@@ -7348,7 +7354,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="38">
         <f>EDATE(A147,1)</f>
         <v>37926</v>
@@ -7375,7 +7381,7 @@
         <v>37945</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="38"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -7395,7 +7401,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="38">
         <f>EDATE(A148,1)</f>
         <v>37956</v>
@@ -7422,7 +7428,7 @@
         <v>37963</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="38"/>
       <c r="B151" s="20" t="s">
         <v>49</v>
@@ -7444,7 +7450,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="38"/>
       <c r="B152" s="20" t="s">
         <v>53</v>
@@ -7466,7 +7472,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="38"/>
       <c r="B153" s="20" t="s">
         <v>53</v>
@@ -7488,7 +7494,7 @@
         <v>37985</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
         <v>140</v>
@@ -7508,7 +7514,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="49" t="s">
         <v>141</v>
       </c>
@@ -7526,7 +7532,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="38">
         <f>EDATE(A150,1)</f>
         <v>37987</v>
@@ -7551,7 +7557,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="38">
         <f>EDATE(A156,1)</f>
         <v>38018</v>
@@ -7576,7 +7582,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="38">
         <f>EDATE(A157,1)</f>
         <v>38047</v>
@@ -7603,7 +7609,7 @@
         <v>38082</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
         <v>144</v>
@@ -7623,7 +7629,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="38">
         <f>EDATE(A158,1)</f>
         <v>38078</v>
@@ -7648,7 +7654,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="38"/>
       <c r="B161" s="20" t="s">
         <v>66</v>
@@ -7668,7 +7674,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="38">
         <f>EDATE(A160,1)</f>
         <v>38108</v>
@@ -7695,7 +7701,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="38"/>
       <c r="B163" s="20" t="s">
         <v>148</v>
@@ -7715,7 +7721,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="50"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="38">
         <f>EDATE(A162,1)</f>
         <v>38139</v>
@@ -7740,7 +7746,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="38"/>
       <c r="B165" s="20" t="s">
         <v>54</v>
@@ -7762,7 +7768,7 @@
         <v>38145</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="38"/>
       <c r="B166" s="20" t="s">
         <v>57</v>
@@ -7784,7 +7790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="38"/>
       <c r="B167" s="20" t="s">
         <v>49</v>
@@ -7806,7 +7812,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -7826,7 +7832,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="38">
         <f>EDATE(A164,1)</f>
         <v>38169</v>
@@ -7853,7 +7859,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="38"/>
       <c r="B170" s="20" t="s">
         <v>49</v>
@@ -7875,7 +7881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="38"/>
       <c r="B171" s="20" t="s">
         <v>153</v>
@@ -7895,7 +7901,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="38">
         <f>EDATE(A169,1)</f>
         <v>38200</v>
@@ -7922,7 +7928,7 @@
         <v>38208</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
         <v>154</v>
@@ -7942,7 +7948,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="38">
         <f>EDATE(A172,1)</f>
         <v>38231</v>
@@ -7969,7 +7975,7 @@
         <v>38232</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="38"/>
       <c r="B175" s="20" t="s">
         <v>53</v>
@@ -7991,7 +7997,7 @@
         <v>38250</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -8013,7 +8019,7 @@
         <v>38247</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="38"/>
       <c r="B177" s="20" t="s">
         <v>155</v>
@@ -8033,7 +8039,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="38">
         <f>EDATE(A174,1)</f>
         <v>38261</v>
@@ -8060,7 +8066,7 @@
         <v>38281</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="38"/>
       <c r="B179" s="20" t="s">
         <v>156</v>
@@ -8080,7 +8086,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="38">
         <f>EDATE(A178,1)</f>
         <v>38292</v>
@@ -8107,7 +8113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="38"/>
       <c r="B181" s="20" t="s">
         <v>54</v>
@@ -8129,7 +8135,7 @@
         <v>38302</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="38"/>
       <c r="B182" s="20" t="s">
         <v>54</v>
@@ -8151,7 +8157,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="38">
         <f>EDATE(A180,1)</f>
         <v>38322</v>
@@ -8178,7 +8184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>159</v>
@@ -8198,7 +8204,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="38"/>
       <c r="B185" s="20" t="s">
         <v>53</v>
@@ -8220,7 +8226,7 @@
         <v>38344</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="38"/>
       <c r="B186" s="20" t="s">
         <v>160</v>
@@ -8240,7 +8246,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="49" t="s">
         <v>161</v>
       </c>
@@ -8258,7 +8264,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="38">
         <f>EDATE(A183,1)</f>
         <v>38353</v>
@@ -8283,7 +8289,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="38"/>
       <c r="B189" s="20" t="s">
         <v>54</v>
@@ -8305,7 +8311,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>164</v>
@@ -8325,7 +8331,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="50"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="38">
         <f>EDATE(A188,1)</f>
         <v>38384</v>
@@ -8350,7 +8356,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="38"/>
       <c r="B192" s="20" t="s">
         <v>66</v>
@@ -8370,7 +8376,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>166</v>
@@ -8390,7 +8396,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="38">
         <f>EDATE(A191,1)</f>
         <v>38412</v>
@@ -8417,7 +8423,7 @@
         <v>38426</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
         <v>54</v>
@@ -8439,7 +8445,7 @@
         <v>38442</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="39"/>
       <c r="B196" s="15" t="s">
         <v>167</v>
@@ -8459,7 +8465,7 @@
       <c r="J196" s="12"/>
       <c r="K196" s="15"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="38">
         <f>EDATE(A194,1)</f>
         <v>38443</v>
@@ -8486,7 +8492,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
         <v>168</v>
@@ -8506,7 +8512,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="38">
         <f>EDATE(A197,1)</f>
         <v>38473</v>
@@ -8533,7 +8539,7 @@
         <v>38492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="38"/>
       <c r="B200" s="20" t="s">
         <v>54</v>
@@ -8555,7 +8561,7 @@
         <v>38489</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>54</v>
@@ -8577,7 +8583,7 @@
         <v>38497</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="38"/>
       <c r="B202" s="20" t="s">
         <v>170</v>
@@ -8597,7 +8603,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="38">
         <f>EDATE(A199,1)</f>
         <v>38504</v>
@@ -8624,7 +8630,7 @@
         <v>38517</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="38"/>
       <c r="B204" s="20" t="s">
         <v>54</v>
@@ -8646,7 +8652,7 @@
         <v>38518</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>171</v>
@@ -8666,7 +8672,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="38">
         <f>EDATE(A203,1)</f>
         <v>38534</v>
@@ -8693,7 +8699,7 @@
         <v>38537</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
         <v>54</v>
@@ -8715,7 +8721,7 @@
         <v>38547</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>54</v>
@@ -8737,7 +8743,7 @@
         <v>38551</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="38"/>
       <c r="B209" s="20" t="s">
         <v>169</v>
@@ -8759,7 +8765,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>172</v>
@@ -8779,7 +8785,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="38">
         <f>EDATE(A206,1)</f>
         <v>38565</v>
@@ -8806,7 +8812,7 @@
         <v>38597</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="38"/>
       <c r="B212" s="20" t="s">
         <v>54</v>
@@ -8828,7 +8834,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8848,7 +8854,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="38">
         <f>EDATE(A211,1)</f>
         <v>38596</v>
@@ -8875,7 +8881,7 @@
         <v>38603</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="38"/>
       <c r="B215" s="20" t="s">
         <v>49</v>
@@ -8897,7 +8903,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="38"/>
       <c r="B216" s="20" t="s">
         <v>175</v>
@@ -8917,7 +8923,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="38">
         <f>EDATE(A214,1)</f>
         <v>38626</v>
@@ -8944,7 +8950,7 @@
         <v>38635</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="38"/>
       <c r="B218" s="20" t="s">
         <v>54</v>
@@ -8966,7 +8972,7 @@
         <v>38637</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="38"/>
       <c r="B219" s="20" t="s">
         <v>176</v>
@@ -8986,7 +8992,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="50"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="38">
         <f>EDATE(A217,1)</f>
         <v>38657</v>
@@ -9011,7 +9017,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="38"/>
       <c r="B221" s="20" t="s">
         <v>177</v>
@@ -9031,7 +9037,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="38"/>
       <c r="B222" s="20" t="s">
         <v>53</v>
@@ -9053,7 +9059,7 @@
         <v>38685</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="38">
         <f>EDATE(A220,1)</f>
         <v>38687</v>
@@ -9080,7 +9086,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>169</v>
@@ -9102,7 +9108,7 @@
         <v>38708</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>54</v>
@@ -9122,7 +9128,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="38"/>
       <c r="B226" s="20" t="s">
         <v>178</v>
@@ -9142,7 +9148,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="49" t="s">
         <v>179</v>
       </c>
@@ -9160,7 +9166,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="38">
         <f>EDATE(A223,1)</f>
         <v>38718</v>
@@ -9185,7 +9191,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>180</v>
@@ -9205,7 +9211,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="38"/>
       <c r="B230" s="20" t="s">
         <v>181</v>
@@ -9225,7 +9231,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="38">
         <f>EDATE(A228,1)</f>
         <v>38749</v>
@@ -9252,7 +9258,7 @@
         <v>38772</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="38"/>
       <c r="B232" s="20" t="s">
         <v>184</v>
@@ -9272,7 +9278,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="38">
         <f>EDATE(A231,1)</f>
         <v>38777</v>
@@ -9299,7 +9305,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="38"/>
       <c r="B234" s="20" t="s">
         <v>185</v>
@@ -9319,7 +9325,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="38">
         <f>EDATE(A233,1)</f>
         <v>38808</v>
@@ -9346,7 +9352,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="38"/>
       <c r="B236" s="20" t="s">
         <v>54</v>
@@ -9368,7 +9374,7 @@
         <v>38816</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="38"/>
       <c r="B237" s="20" t="s">
         <v>186</v>
@@ -9388,7 +9394,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="38">
         <f>EDATE(A235,1)</f>
         <v>38838</v>
@@ -9415,7 +9421,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>187</v>
@@ -9435,7 +9441,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="38">
         <f>EDATE(A238,1)</f>
         <v>38869</v>
@@ -9462,7 +9468,7 @@
         <v>38881</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="38"/>
       <c r="B241" s="20" t="s">
         <v>54</v>
@@ -9484,7 +9490,7 @@
         <v>38876</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="38"/>
       <c r="B242" s="20" t="s">
         <v>49</v>
@@ -9506,7 +9512,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="38"/>
       <c r="B243" s="20" t="s">
         <v>190</v>
@@ -9526,7 +9532,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="38">
         <f>EDATE(A240,1)</f>
         <v>38899</v>
@@ -9553,7 +9559,7 @@
         <v>38916</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>49</v>
@@ -9575,7 +9581,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="38"/>
       <c r="B246" s="20" t="s">
         <v>189</v>
@@ -9595,7 +9601,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="38">
         <f>EDATE(A244,1)</f>
         <v>38930</v>
@@ -9622,7 +9628,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="38"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
@@ -9644,7 +9650,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>192</v>
@@ -9664,7 +9670,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="38">
         <f>EDATE(A247,1)</f>
         <v>38961</v>
@@ -9682,14 +9688,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H250" s="37"/>
+      <c r="H250" s="37">
+        <v>1</v>
+      </c>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
       <c r="K250" s="50">
         <v>38980</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="38"/>
       <c r="B251" s="20" t="s">
         <v>193</v>
@@ -9709,7 +9717,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="39">
         <f>EDATE(A250,1)</f>
         <v>38991</v>
@@ -9736,7 +9744,7 @@
         <v>39006</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>194</v>
@@ -9758,7 +9766,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="38"/>
       <c r="B254" s="20" t="s">
         <v>196</v>
@@ -9778,7 +9786,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="38">
         <f>EDATE(A252,1)</f>
         <v>39022</v>
@@ -9803,7 +9811,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="38">
         <f>EDATE(A255,1)</f>
         <v>39052</v>
@@ -9830,7 +9838,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="38"/>
       <c r="B257" s="20" t="s">
         <v>54</v>
@@ -9852,7 +9860,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="38"/>
       <c r="B258" s="20" t="s">
         <v>200</v>
@@ -9872,7 +9880,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="49" t="s">
         <v>201</v>
       </c>
@@ -9890,7 +9898,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="38">
         <f>EDATE(A256,1)</f>
         <v>39083</v>
@@ -9915,7 +9923,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="38"/>
       <c r="B261" s="20" t="s">
         <v>203</v>
@@ -9935,7 +9943,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="38">
         <f>EDATE(A260,1)</f>
         <v>39114</v>
@@ -9962,7 +9970,7 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="38"/>
       <c r="B263" s="20" t="s">
         <v>66</v>
@@ -9982,7 +9990,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="38"/>
       <c r="B264" s="20" t="s">
         <v>205</v>
@@ -10004,7 +10012,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="50"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="38">
         <f>EDATE(A262,1)</f>
         <v>39142</v>
@@ -10029,7 +10037,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="38">
         <f>EDATE(A265,1)</f>
         <v>39173</v>
@@ -10054,7 +10062,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="38"/>
       <c r="B267" s="20" t="s">
         <v>54</v>
@@ -10076,7 +10084,7 @@
         <v>39195</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>208</v>
@@ -10096,7 +10104,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="38">
         <f>EDATE(A266,1)</f>
         <v>39203</v>
@@ -10123,7 +10131,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="38"/>
       <c r="B270" s="20" t="s">
         <v>209</v>
@@ -10143,7 +10151,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="38">
         <f>EDATE(A269,1)</f>
         <v>39234</v>
@@ -10170,7 +10178,7 @@
         <v>39246</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="38"/>
       <c r="B272" s="20" t="s">
         <v>54</v>
@@ -10192,7 +10200,7 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>54</v>
@@ -10214,7 +10222,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="38"/>
       <c r="B274" s="20" t="s">
         <v>211</v>
@@ -10234,7 +10242,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="38">
         <f>EDATE(A271,1)</f>
         <v>39264</v>
@@ -10261,7 +10269,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="38"/>
       <c r="B276" s="20" t="s">
         <v>213</v>
@@ -10281,7 +10289,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="38">
         <f>EDATE(A275,1)</f>
         <v>39295</v>
@@ -10308,7 +10316,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="38"/>
       <c r="B278" s="20" t="s">
         <v>49</v>
@@ -10330,7 +10338,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="38"/>
       <c r="B279" s="20" t="s">
         <v>214</v>
@@ -10350,7 +10358,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="38">
         <f>EDATE(A277,1)</f>
         <v>39326</v>
@@ -10377,7 +10385,7 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>49</v>
@@ -10399,7 +10407,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="38"/>
       <c r="B282" s="20" t="s">
         <v>216</v>
@@ -10419,7 +10427,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="38">
         <f>EDATE(A280,1)</f>
         <v>39356</v>
@@ -10446,7 +10454,7 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
         <v>169</v>
@@ -10468,7 +10476,7 @@
         <v>39381</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="38"/>
       <c r="B285" s="20" t="s">
         <v>54</v>
@@ -10481,14 +10489,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H285" s="37"/>
+      <c r="H285" s="37">
+        <v>1</v>
+      </c>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
       <c r="K285" s="50">
         <v>39386</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="38"/>
       <c r="B286" s="20" t="s">
         <v>218</v>
@@ -10508,7 +10518,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="38">
         <f>EDATE(A283,1)</f>
         <v>39387</v>
@@ -10535,7 +10545,7 @@
         <v>39401</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="38"/>
       <c r="B288" s="20" t="s">
         <v>169</v>
@@ -10557,7 +10567,7 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="38"/>
       <c r="B289" s="20" t="s">
         <v>219</v>
@@ -10577,7 +10587,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="50"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="38">
         <f>EDATE(A287,1)</f>
         <v>39417</v>
@@ -10585,15 +10595,17 @@
       <c r="B290" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C290" s="13"/>
+      <c r="C290" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D290" s="37">
         <v>2</v>
       </c>
       <c r="E290" s="9"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G290" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H290" s="37"/>
       <c r="I290" s="9"/>
@@ -10602,7 +10614,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="38"/>
       <c r="B291" s="20" t="s">
         <v>49</v>
@@ -10624,7 +10636,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="38"/>
       <c r="B292" s="20" t="s">
         <v>222</v>
@@ -10644,7 +10656,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="49" t="s">
         <v>223</v>
       </c>
@@ -10662,7 +10674,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="38">
         <f>EDATE(A290,1)</f>
         <v>39448</v>
@@ -10687,7 +10699,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="38"/>
       <c r="B295" s="20" t="s">
         <v>54</v>
@@ -10709,7 +10721,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="38"/>
       <c r="B296" s="20" t="s">
         <v>224</v>
@@ -10729,7 +10741,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="38">
         <f>EDATE(A294,1)</f>
         <v>39479</v>
@@ -10754,7 +10766,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="38"/>
       <c r="B298" s="20" t="s">
         <v>225</v>
@@ -10774,7 +10786,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="38">
         <f>EDATE(A297,1)</f>
         <v>39508</v>
@@ -10801,7 +10813,7 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="38"/>
       <c r="B300" s="20" t="s">
         <v>169</v>
@@ -10823,7 +10835,7 @@
         <v>39531</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="38"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10843,7 +10855,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="38">
         <f>EDATE(A299,1)</f>
         <v>39539</v>
@@ -10870,7 +10882,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="38"/>
       <c r="B303" s="20" t="s">
         <v>227</v>
@@ -10890,7 +10902,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="38">
         <f>EDATE(A302,1)</f>
         <v>39569</v>
@@ -10917,7 +10929,7 @@
         <v>39584</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>54</v>
@@ -10939,7 +10951,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="38"/>
       <c r="B306" s="20" t="s">
         <v>54</v>
@@ -10952,20 +10964,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H306" s="37"/>
+      <c r="H306" s="37">
+        <v>1</v>
+      </c>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="50">
         <v>39587</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="37"/>
+      <c r="D307" s="37">
+        <v>1</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
       <c r="G307" s="13" t="str">
@@ -10979,7 +10995,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>54</v>
@@ -10992,14 +11008,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H308" s="37"/>
+      <c r="H308" s="37">
+        <v>1</v>
+      </c>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="50">
         <v>39594</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="38"/>
       <c r="B309" s="20" t="s">
         <v>54</v>
@@ -11012,14 +11030,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H309" s="37"/>
+      <c r="H309" s="37">
+        <v>1</v>
+      </c>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="50">
         <v>39597</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
         <v>228</v>
@@ -11039,7 +11059,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="38">
         <f>EDATE(A304,1)</f>
         <v>39600</v>
@@ -11066,7 +11086,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="38"/>
       <c r="B312" s="20" t="s">
         <v>49</v>
@@ -11088,7 +11108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>233</v>
@@ -11108,7 +11128,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="38">
         <f>EDATE(A311,1)</f>
         <v>39630</v>
@@ -11133,7 +11153,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="38"/>
       <c r="B315" s="20" t="s">
         <v>235</v>
@@ -11153,7 +11173,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="38">
         <f>EDATE(A314,1)</f>
         <v>39661</v>
@@ -11178,7 +11198,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="38">
         <f>EDATE(A316,1)</f>
         <v>39692</v>
@@ -11205,7 +11225,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>54</v>
@@ -11227,7 +11247,7 @@
         <v>39706</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
         <v>237</v>
@@ -11247,7 +11267,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="38">
         <f>EDATE(A317,1)</f>
         <v>39722</v>
@@ -11268,7 +11288,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="38">
         <f>EDATE(A320,1)</f>
         <v>39753</v>
@@ -11295,7 +11315,7 @@
         <v>39755</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
         <v>169</v>
@@ -11317,7 +11337,7 @@
         <v>39769</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="38"/>
       <c r="B323" s="20" t="s">
         <v>54</v>
@@ -11339,7 +11359,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="38"/>
       <c r="B324" s="20" t="s">
         <v>238</v>
@@ -11359,7 +11379,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="38">
         <f>EDATE(A321,1)</f>
         <v>39783</v>
@@ -11386,7 +11406,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>239</v>
@@ -11406,7 +11426,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="49" t="s">
         <v>240</v>
       </c>
@@ -11424,7 +11444,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="38">
         <f>EDATE(A325,1)</f>
         <v>39814</v>
@@ -11449,7 +11469,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="38"/>
       <c r="B329" s="20" t="s">
         <v>242</v>
@@ -11469,7 +11489,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="38">
         <f>EDATE(A328,1)</f>
         <v>39845</v>
@@ -11494,7 +11514,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="39"/>
       <c r="B331" s="15" t="s">
         <v>243</v>
@@ -11514,7 +11534,7 @@
       <c r="J331" s="12"/>
       <c r="K331" s="15"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="38">
         <f>EDATE(A330,1)</f>
         <v>39873</v>
@@ -11541,7 +11561,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>244</v>
@@ -11561,7 +11581,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="38">
         <f>EDATE(A332,1)</f>
         <v>39904</v>
@@ -11588,7 +11608,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="38"/>
       <c r="B335" s="20" t="s">
         <v>54</v>
@@ -11610,7 +11630,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="38"/>
       <c r="B336" s="20" t="s">
         <v>169</v>
@@ -11632,7 +11652,7 @@
         <v>39931</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>245</v>
@@ -11652,7 +11672,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="38">
         <f>EDATE(A334,1)</f>
         <v>39934</v>
@@ -11679,7 +11699,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="38"/>
       <c r="B339" s="20" t="s">
         <v>49</v>
@@ -11701,7 +11721,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="38"/>
       <c r="B340" s="20" t="s">
         <v>247</v>
@@ -11721,7 +11741,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="38">
         <f>EDATE(A338,1)</f>
         <v>39965</v>
@@ -11748,7 +11768,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
         <v>248</v>
@@ -11768,7 +11788,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="38">
         <f>EDATE(A341,1)</f>
         <v>39995</v>
@@ -11797,7 +11817,7 @@
         <v>39997</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>54</v>
@@ -11819,7 +11839,7 @@
         <v>40025</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="38"/>
       <c r="B345" s="20" t="s">
         <v>250</v>
@@ -11839,7 +11859,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="38">
         <f>EDATE(A343,1)</f>
         <v>40026</v>
@@ -11866,7 +11886,7 @@
         <v>40043</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="38"/>
       <c r="B347" s="20" t="s">
         <v>251</v>
@@ -11886,7 +11906,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="50"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="38">
         <f>EDATE(A346,1)</f>
         <v>40057</v>
@@ -11911,7 +11931,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="38"/>
       <c r="B349" s="20" t="s">
         <v>54</v>
@@ -11933,7 +11953,7 @@
         <v>40058</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="38"/>
       <c r="B350" s="20" t="s">
         <v>252</v>
@@ -11953,7 +11973,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="38">
         <f>EDATE(A348,1)</f>
         <v>40087</v>
@@ -11978,7 +11998,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="38">
         <f>EDATE(A351,1)</f>
         <v>40118</v>
@@ -12005,7 +12025,7 @@
         <v>40134</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>254</v>
@@ -12025,7 +12045,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="38">
         <f>EDATE(A352,1)</f>
         <v>40148</v>
@@ -12052,7 +12072,7 @@
         <v>40165</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="38"/>
       <c r="B355" s="20" t="s">
         <v>49</v>
@@ -12074,7 +12094,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="38"/>
       <c r="B356" s="20" t="s">
         <v>256</v>
@@ -12094,7 +12114,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="49" t="s">
         <v>257</v>
       </c>
@@ -12112,7 +12132,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="38">
         <f>EDATE(A354,1)</f>
         <v>40179</v>
@@ -12137,7 +12157,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="38"/>
       <c r="B359" s="20" t="s">
         <v>258</v>
@@ -12157,7 +12177,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="38">
         <f>EDATE(A358,1)</f>
         <v>40210</v>
@@ -12184,7 +12204,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="38"/>
       <c r="B361" s="20" t="s">
         <v>66</v>
@@ -12206,7 +12226,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="38"/>
       <c r="B362" s="20" t="s">
         <v>263</v>
@@ -12226,7 +12246,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="38">
         <f>EDATE(A360,1)</f>
         <v>40238</v>
@@ -12253,7 +12273,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="38"/>
       <c r="B364" s="20" t="s">
         <v>264</v>
@@ -12273,7 +12293,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="50"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="38">
         <f>EDATE(A363,1)</f>
         <v>40269</v>
@@ -12298,7 +12318,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="38">
         <f t="shared" ref="A366" si="2">EDATE(A365,1)</f>
         <v>40299</v>
@@ -12325,7 +12345,7 @@
         <v>40315</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="38"/>
       <c r="B367" s="20" t="s">
         <v>54</v>
@@ -12347,7 +12367,7 @@
         <v>40311</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="38"/>
       <c r="B368" s="20" t="s">
         <v>266</v>
@@ -12367,7 +12387,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="50"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="38">
         <f>EDATE(A366,1)</f>
         <v>40330</v>
@@ -12394,7 +12414,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="38"/>
       <c r="B370" s="20" t="s">
         <v>267</v>
@@ -12414,7 +12434,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="50"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="38">
         <f>EDATE(A369,1)</f>
         <v>40360</v>
@@ -12441,7 +12461,7 @@
         <v>40361</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="38"/>
       <c r="B372" s="20" t="s">
         <v>54</v>
@@ -12461,7 +12481,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="50"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>268</v>
@@ -12481,7 +12501,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="50"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="38">
         <f>EDATE(A371,1)</f>
         <v>40391</v>
@@ -12508,7 +12528,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
         <v>269</v>
@@ -12528,7 +12548,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="50"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="38">
         <f>EDATE(A374,1)</f>
         <v>40422</v>
@@ -12555,7 +12575,7 @@
         <v>40423</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="38"/>
       <c r="B377" s="20" t="s">
         <v>124</v>
@@ -12577,7 +12597,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="38"/>
       <c r="B378" s="20" t="s">
         <v>124</v>
@@ -12599,7 +12619,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>272</v>
@@ -12619,7 +12639,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="38">
         <f>EDATE(A376,1)</f>
         <v>40452</v>
@@ -12646,7 +12666,7 @@
         <v>40471</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="38"/>
       <c r="B381" s="20" t="s">
         <v>273</v>
@@ -12666,7 +12686,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="38">
         <f>EDATE(A380,1)</f>
         <v>40483</v>
@@ -12693,7 +12713,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="38"/>
       <c r="B383" s="20" t="s">
         <v>275</v>
@@ -12713,7 +12733,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="50"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="38">
         <f>EDATE(A382,1)</f>
         <v>40513</v>
@@ -12740,7 +12760,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>194</v>
@@ -12762,7 +12782,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="38"/>
       <c r="B386" s="20" t="s">
         <v>274</v>
@@ -12782,7 +12802,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="49" t="s">
         <v>277</v>
       </c>
@@ -12800,7 +12820,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="38">
         <f>EDATE(A384,1)</f>
         <v>40544</v>
@@ -12825,7 +12845,7 @@
         <v>40560</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>74</v>
@@ -12845,7 +12865,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="50"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="38">
         <f>EDATE(A388,1)</f>
         <v>40575</v>
@@ -12868,7 +12888,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="38">
         <f t="shared" ref="A391:A400" si="3">EDATE(A390,1)</f>
         <v>40603</v>
@@ -12895,7 +12915,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="38"/>
       <c r="B392" s="20" t="s">
         <v>278</v>
@@ -12915,7 +12935,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="50"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="38">
         <f>EDATE(A391,1)</f>
         <v>40634</v>
@@ -12940,7 +12960,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="38">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -12965,7 +12985,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="38"/>
       <c r="B395" s="20" t="s">
         <v>281</v>
@@ -12985,7 +13005,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="38">
         <f>EDATE(A394,1)</f>
         <v>40695</v>
@@ -13012,7 +13032,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="38"/>
       <c r="B397" s="20" t="s">
         <v>54</v>
@@ -13034,7 +13054,7 @@
         <v>40721</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="38"/>
       <c r="B398" s="20" t="s">
         <v>282</v>
@@ -13054,7 +13074,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="50"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="38">
         <f>EDATE(A396,1)</f>
         <v>40725</v>
@@ -13079,7 +13099,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="38">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -13106,13 +13126,15 @@
         <v>40765</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="38"/>
       <c r="B401" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C401" s="13"/>
-      <c r="D401" s="37"/>
+      <c r="D401" s="37">
+        <v>1</v>
+      </c>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
       <c r="G401" s="13" t="str">
@@ -13124,7 +13146,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="50"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="38"/>
       <c r="B402" s="20" t="s">
         <v>66</v>
@@ -13142,7 +13164,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="50"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="38"/>
       <c r="B403" s="20" t="s">
         <v>283</v>
@@ -13162,7 +13184,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="50"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="38">
         <f>EDATE(A400,1)</f>
         <v>40787</v>
@@ -13189,7 +13211,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="38"/>
       <c r="B405" s="20" t="s">
         <v>284</v>
@@ -13209,7 +13231,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="50"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="38">
         <f>EDATE(A404,1)</f>
         <v>40817</v>
@@ -13236,7 +13258,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="38"/>
       <c r="B407" s="20" t="s">
         <v>286</v>
@@ -13256,7 +13278,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="38">
         <f>EDATE(A406,1)</f>
         <v>40848</v>
@@ -13283,7 +13305,7 @@
         <v>40876</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="38"/>
       <c r="B409" s="20" t="s">
         <v>51</v>
@@ -13303,7 +13325,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="50"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="38">
         <f>EDATE(A408,1)</f>
         <v>40878</v>
@@ -13330,7 +13352,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="38"/>
       <c r="B411" s="20" t="s">
         <v>287</v>
@@ -13350,7 +13372,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="49" t="s">
         <v>288</v>
       </c>
@@ -13368,7 +13390,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="38">
         <f>EDATE(A410,1)</f>
         <v>40909</v>
@@ -13393,7 +13415,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="38"/>
       <c r="B414" s="20" t="s">
         <v>54</v>
@@ -13415,7 +13437,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="38"/>
       <c r="B415" s="20" t="s">
         <v>66</v>
@@ -13435,7 +13457,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="38"/>
       <c r="B416" s="20" t="s">
         <v>66</v>
@@ -13455,7 +13477,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="38"/>
       <c r="B417" s="20" t="s">
         <v>292</v>
@@ -13475,7 +13497,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="38">
         <f>EDATE(A413,1)</f>
         <v>40940</v>
@@ -13502,7 +13524,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="38"/>
       <c r="B419" s="20" t="s">
         <v>148</v>
@@ -13522,7 +13544,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="38">
         <f>EDATE(A418,1)</f>
         <v>40969</v>
@@ -13549,7 +13571,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="38"/>
       <c r="B421" s="20" t="s">
         <v>54</v>
@@ -13571,7 +13593,7 @@
         <v>40995</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>294</v>
@@ -13591,7 +13613,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="50"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="38">
         <f>EDATE(A420,1)</f>
         <v>41000</v>
@@ -13616,7 +13638,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="38">
         <f t="shared" ref="A424:A437" si="4">EDATE(A423,1)</f>
         <v>41030</v>
@@ -13643,7 +13665,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="38"/>
       <c r="B425" s="20" t="s">
         <v>194</v>
@@ -13665,7 +13687,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="38"/>
       <c r="B426" s="20" t="s">
         <v>296</v>
@@ -13685,7 +13707,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="38">
         <f>EDATE(A424,1)</f>
         <v>41061</v>
@@ -13710,7 +13732,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="38">
         <f t="shared" si="4"/>
         <v>41091</v>
@@ -13737,7 +13759,7 @@
         <v>41110</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="38"/>
       <c r="B429" s="20" t="s">
         <v>54</v>
@@ -13759,7 +13781,7 @@
         <v>41121</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="38"/>
       <c r="B430" s="20" t="s">
         <v>297</v>
@@ -13779,7 +13801,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="38">
         <f>EDATE(A428,1)</f>
         <v>41122</v>
@@ -13790,7 +13812,9 @@
       <c r="C431" s="13">
         <v>1.25</v>
       </c>
-      <c r="D431" s="37"/>
+      <c r="D431" s="37">
+        <v>1</v>
+      </c>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
       <c r="G431" s="13">
@@ -13804,7 +13828,7 @@
         <v>41155</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="38"/>
       <c r="B432" s="20" t="s">
         <v>54</v>
@@ -13826,7 +13850,7 @@
         <v>41143</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="38"/>
       <c r="B433" s="20" t="s">
         <v>299</v>
@@ -13846,7 +13870,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="50"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="38">
         <f>EDATE(A431,1)</f>
         <v>41153</v>
@@ -13873,7 +13897,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="38"/>
       <c r="B435" s="20" t="s">
         <v>298</v>
@@ -13893,7 +13917,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="50"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="38">
         <f>EDATE(A434,1)</f>
         <v>41183</v>
@@ -13918,7 +13942,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="38">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -13945,7 +13969,7 @@
         <v>41234</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>73</v>
@@ -13965,7 +13989,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="50"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="38">
         <f>EDATE(A437,1)</f>
         <v>41244</v>
@@ -13992,7 +14016,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="38"/>
       <c r="B440" s="20" t="s">
         <v>227</v>
@@ -14012,7 +14036,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="49" t="s">
         <v>301</v>
       </c>
@@ -14030,7 +14054,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="38">
         <f>EDATE(A439,1)</f>
         <v>41275</v>
@@ -14055,7 +14079,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="38">
         <f>EDATE(A442,1)</f>
         <v>41306</v>
@@ -14080,7 +14104,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="38"/>
       <c r="B444" s="20" t="s">
         <v>54</v>
@@ -14102,7 +14126,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="38"/>
       <c r="B445" s="20" t="s">
         <v>66</v>
@@ -14122,7 +14146,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="38"/>
       <c r="B446" s="20" t="s">
         <v>309</v>
@@ -14142,7 +14166,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="38">
         <f>EDATE(A443,1)</f>
         <v>41334</v>
@@ -14167,7 +14191,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="38"/>
       <c r="B448" s="20" t="s">
         <v>279</v>
@@ -14178,7 +14202,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.811000000000149</v>
+        <v>57.417000000000094</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -14188,12 +14212,12 @@
       <c r="H448" s="37"/>
       <c r="I448" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>196.43299999999999</v>
+        <v>193.18299999999999</v>
       </c>
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="38">
         <f>EDATE(A447,1)</f>
         <v>41365</v>
@@ -14218,7 +14242,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="38">
         <f t="shared" ref="A450:A457" si="5">EDATE(A449,1)</f>
         <v>41395</v>
@@ -14239,7 +14263,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="38">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -14264,7 +14288,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="38">
         <f t="shared" si="5"/>
         <v>41456</v>
@@ -14289,7 +14313,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="38">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -14314,7 +14338,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="38"/>
       <c r="B454" s="20" t="s">
         <v>169</v>
@@ -14336,7 +14360,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="38"/>
       <c r="B455" s="20" t="s">
         <v>312</v>
@@ -14356,7 +14380,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="38">
         <f>EDATE(A453,1)</f>
         <v>41518</v>
@@ -14381,7 +14405,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="38">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -14408,7 +14432,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="38"/>
       <c r="B458" s="20" t="s">
         <v>315</v>
@@ -14428,7 +14452,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="38">
         <f>EDATE(A457,1)</f>
         <v>41579</v>
@@ -14455,7 +14479,7 @@
         <v>41606</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="38"/>
       <c r="B460" s="20" t="s">
         <v>316</v>
@@ -14475,7 +14499,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="50"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="38">
         <f>EDATE(A459,1)</f>
         <v>41609</v>
@@ -14499,7 +14523,7 @@
         <v>41614</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="38"/>
       <c r="B462" s="20" t="s">
         <v>317</v>
@@ -14519,7 +14543,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="50"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="49" t="s">
         <v>303</v>
       </c>
@@ -14537,7 +14561,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="38">
         <f>EDATE(A461,1)</f>
         <v>41640</v>
@@ -14562,7 +14586,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="38">
         <f>EDATE(A464,1)</f>
         <v>41671</v>
@@ -14587,7 +14611,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="38">
         <f>EDATE(A465,1)</f>
         <v>41699</v>
@@ -14612,7 +14636,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="38"/>
       <c r="B467" s="20" t="s">
         <v>169</v>
@@ -14634,7 +14658,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="38"/>
       <c r="B468" s="20" t="s">
         <v>66</v>
@@ -14654,7 +14678,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="38"/>
       <c r="B469" s="20" t="s">
         <v>66</v>
@@ -14674,7 +14698,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="38"/>
       <c r="B470" s="20" t="s">
         <v>310</v>
@@ -14694,7 +14718,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="38">
         <f>EDATE(A466,1)</f>
         <v>41730</v>
@@ -14719,7 +14743,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="38">
         <f t="shared" ref="A472:A481" si="6">EDATE(A471,1)</f>
         <v>41760</v>
@@ -14744,7 +14768,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="38">
         <f t="shared" si="6"/>
         <v>41791</v>
@@ -14769,7 +14793,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="38">
         <f t="shared" si="6"/>
         <v>41821</v>
@@ -14790,7 +14814,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="38">
         <f t="shared" si="6"/>
         <v>41852</v>
@@ -14817,7 +14841,7 @@
         <v>41884</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="38"/>
       <c r="B476" s="20" t="s">
         <v>321</v>
@@ -14837,7 +14861,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="50"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="38">
         <f>EDATE(A475,1)</f>
         <v>41883</v>
@@ -14864,13 +14888,15 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="38"/>
       <c r="B478" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C478" s="13"/>
-      <c r="D478" s="37"/>
+      <c r="D478" s="37">
+        <v>1</v>
+      </c>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
       <c r="G478" s="13" t="str">
@@ -14884,7 +14910,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="38"/>
       <c r="B479" s="20" t="s">
         <v>88</v>
@@ -14904,7 +14930,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="50"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="38">
         <f>EDATE(A477,1)</f>
         <v>41913</v>
@@ -14929,7 +14955,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="38">
         <f t="shared" si="6"/>
         <v>41944</v>
@@ -14954,7 +14980,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="38">
         <f>EDATE(A481,1)</f>
         <v>41974</v>
@@ -14981,7 +15007,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="38"/>
       <c r="B483" s="20" t="s">
         <v>52</v>
@@ -15003,7 +15029,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="49" t="s">
         <v>304</v>
       </c>
@@ -15021,7 +15047,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="38">
         <f>EDATE(A482,1)</f>
         <v>42005</v>
@@ -15042,7 +15068,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="38">
         <f>EDATE(A485,1)</f>
         <v>42036</v>
@@ -15063,7 +15089,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="38">
         <f t="shared" ref="A487:A495" si="7">EDATE(A486,1)</f>
         <v>42064</v>
@@ -15088,7 +15114,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="38">
         <f t="shared" si="7"/>
         <v>42095</v>
@@ -15113,7 +15139,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="38">
         <f t="shared" si="7"/>
         <v>42125</v>
@@ -15134,7 +15160,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="38">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -15159,7 +15185,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="38">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -15180,7 +15206,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="38">
         <f t="shared" si="7"/>
         <v>42217</v>
@@ -15205,7 +15231,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="38">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -15230,7 +15256,7 @@
         <v>42254</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="38">
         <f>EDATE(A493,1)</f>
         <v>42278</v>
@@ -15241,7 +15267,9 @@
       <c r="C494" s="13">
         <v>1.25</v>
       </c>
-      <c r="D494" s="37"/>
+      <c r="D494" s="37">
+        <v>2</v>
+      </c>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
       <c r="G494" s="13">
@@ -15255,7 +15283,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="38">
         <f t="shared" si="7"/>
         <v>42309</v>
@@ -15266,7 +15294,9 @@
       <c r="C495" s="13">
         <v>1.25</v>
       </c>
-      <c r="D495" s="37"/>
+      <c r="D495" s="37">
+        <v>3</v>
+      </c>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
       <c r="G495" s="13">
@@ -15280,7 +15310,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="38"/>
       <c r="B496" s="20" t="s">
         <v>54</v>
@@ -15293,14 +15323,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H496" s="37"/>
+      <c r="H496" s="37">
+        <v>1</v>
+      </c>
       <c r="I496" s="9"/>
       <c r="J496" s="11"/>
       <c r="K496" s="50">
         <v>42333</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="38">
         <f>EDATE(A495,1)</f>
         <v>42339</v>
@@ -15321,7 +15353,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="49" t="s">
         <v>305</v>
       </c>
@@ -15339,7 +15371,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="38">
         <f>EDATE(A497,1)</f>
         <v>42370</v>
@@ -15364,7 +15396,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="38"/>
       <c r="B500" s="20" t="s">
         <v>302</v>
@@ -15384,7 +15416,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="38">
         <f>EDATE(A499,1)</f>
         <v>42401</v>
@@ -15409,7 +15441,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="38">
         <f t="shared" ref="A502" si="8">EDATE(A501,1)</f>
         <v>42430</v>
@@ -15436,7 +15468,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="38"/>
       <c r="B503" s="20" t="s">
         <v>133</v>
@@ -15456,7 +15488,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="50"/>
     </row>
-    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="38">
         <f>EDATE(A502,1)</f>
         <v>42461</v>
@@ -15481,7 +15513,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="38"/>
       <c r="B505" s="20" t="s">
         <v>57</v>
@@ -15503,7 +15535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="38"/>
       <c r="B506" s="20" t="s">
         <v>330</v>
@@ -15523,7 +15555,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="38">
         <f>EDATE(A504,1)</f>
         <v>42491</v>
@@ -15550,7 +15582,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="38"/>
       <c r="B508" s="20" t="s">
         <v>331</v>
@@ -15561,7 +15593,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.811000000000149</v>
+        <v>57.417000000000094</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -15571,12 +15603,12 @@
       <c r="H508" s="37"/>
       <c r="I508" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>196.43299999999999</v>
+        <v>193.18299999999999</v>
       </c>
       <c r="J508" s="11"/>
       <c r="K508" s="50"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="38">
         <f>EDATE(A507,1)</f>
         <v>42522</v>
@@ -15601,7 +15633,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="39">
         <f>EDATE(A509,1)</f>
         <v>42552</v>
@@ -15626,7 +15658,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="38"/>
       <c r="B511" s="20" t="s">
         <v>332</v>
@@ -15646,7 +15678,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="39">
         <f>EDATE(A510,1)</f>
         <v>42583</v>
@@ -15673,7 +15705,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="38"/>
       <c r="B513" s="20" t="s">
         <v>337</v>
@@ -15693,7 +15725,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="50"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="39">
         <f>EDATE(A512,1)</f>
         <v>42614</v>
@@ -15718,7 +15750,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="39">
         <f t="shared" ref="A515:A516" si="9">EDATE(A514,1)</f>
         <v>42644</v>
@@ -15743,7 +15775,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="39">
         <f t="shared" si="9"/>
         <v>42675</v>
@@ -15770,7 +15802,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="38"/>
       <c r="B517" s="20" t="s">
         <v>74</v>
@@ -15790,7 +15822,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="39">
         <f>EDATE(A516,1)</f>
         <v>42705</v>
@@ -15817,13 +15849,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="38"/>
       <c r="B519" s="20" t="s">
         <v>339</v>
       </c>
       <c r="C519" s="13"/>
-      <c r="D519" s="37"/>
+      <c r="D519" s="37">
+        <v>0.14400000000000002</v>
+      </c>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
       <c r="G519" s="13" t="str">
@@ -15835,7 +15869,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="49" t="s">
         <v>306</v>
       </c>
@@ -15853,7 +15887,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="38">
         <f>EDATE(A518,1)</f>
         <v>42736</v>
@@ -15878,7 +15912,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="38"/>
       <c r="B522" s="20" t="s">
         <v>341</v>
@@ -15900,7 +15934,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="38">
         <f>EDATE(A521,1)</f>
         <v>42767</v>
@@ -15925,7 +15959,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="38">
         <f t="shared" ref="A524:A537" si="10">EDATE(A523,1)</f>
         <v>42795</v>
@@ -15950,7 +15984,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="38">
         <f t="shared" si="10"/>
         <v>42826</v>
@@ -15975,7 +16009,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="38">
         <f>EDATE(A525,1)</f>
         <v>42856</v>
@@ -16002,7 +16036,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="38"/>
       <c r="B527" s="20" t="s">
         <v>57</v>
@@ -16024,7 +16058,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="38"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -16044,7 +16078,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="38">
         <f>EDATE(A526,1)</f>
         <v>42887</v>
@@ -16069,7 +16103,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="38"/>
       <c r="B530" s="20" t="s">
         <v>91</v>
@@ -16089,7 +16123,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="38">
         <f>EDATE(A529,1)</f>
         <v>42917</v>
@@ -16114,7 +16148,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="38"/>
       <c r="B532" s="20" t="s">
         <v>76</v>
@@ -16134,7 +16168,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="38">
         <f>EDATE(A531,1)</f>
         <v>42948</v>
@@ -16161,7 +16195,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="38"/>
       <c r="B534" s="20" t="s">
         <v>63</v>
@@ -16181,7 +16215,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="50"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="38">
         <f>EDATE(A533,1)</f>
         <v>42979</v>
@@ -16206,7 +16240,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="38">
         <f t="shared" si="10"/>
         <v>43009</v>
@@ -16231,7 +16265,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="38">
         <f t="shared" si="10"/>
         <v>43040</v>
@@ -16252,7 +16286,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="39">
         <f>EDATE(A537,1)</f>
         <v>43070</v>
@@ -16279,7 +16313,7 @@
         <v>43098</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="49" t="s">
         <v>347</v>
       </c>
@@ -16297,7 +16331,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="38">
         <f>EDATE(A538,1)</f>
         <v>43101</v>
@@ -16322,7 +16356,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="38">
         <f>EDATE(A540,1)</f>
         <v>43132</v>
@@ -16347,7 +16381,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="38">
         <f>EDATE(A541,1)</f>
         <v>43160</v>
@@ -16372,7 +16406,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="38"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16394,7 +16428,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="38">
         <f>EDATE(A542,1)</f>
         <v>43191</v>
@@ -16421,7 +16455,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="38"/>
       <c r="B545" s="20" t="s">
         <v>53</v>
@@ -16443,7 +16477,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="38">
         <f>EDATE(A544,1)</f>
         <v>43221</v>
@@ -16468,7 +16502,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="38">
         <f t="shared" ref="A547:A554" si="11">EDATE(A546,1)</f>
         <v>43252</v>
@@ -16493,7 +16527,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="38"/>
       <c r="B548" s="20" t="s">
         <v>55</v>
@@ -16513,7 +16547,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="38">
         <f>EDATE(A547,1)</f>
         <v>43282</v>
@@ -16538,7 +16572,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="38">
         <f t="shared" si="11"/>
         <v>43313</v>
@@ -16565,7 +16599,7 @@
         <v>43314</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="38"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -16587,7 +16621,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="38"/>
       <c r="B552" s="20" t="s">
         <v>350</v>
@@ -16607,7 +16641,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="38">
         <f>EDATE(A550,1)</f>
         <v>43344</v>
@@ -16632,7 +16666,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="38">
         <f t="shared" si="11"/>
         <v>43374</v>
@@ -16659,7 +16693,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="38"/>
       <c r="B555" s="20" t="s">
         <v>54</v>
@@ -16681,7 +16715,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="38"/>
       <c r="B556" s="20" t="s">
         <v>322</v>
@@ -16701,7 +16735,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="38">
         <f>EDATE(A554,1)</f>
         <v>43405</v>
@@ -16728,7 +16762,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="38"/>
       <c r="B558" s="20" t="s">
         <v>81</v>
@@ -16748,7 +16782,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="38">
         <f>EDATE(A557,1)</f>
         <v>43435</v>
@@ -16775,7 +16809,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="38"/>
       <c r="B560" s="20" t="s">
         <v>57</v>
@@ -16797,7 +16831,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="38"/>
       <c r="B561" s="20" t="s">
         <v>122</v>
@@ -16817,7 +16851,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="49" t="s">
         <v>352</v>
       </c>
@@ -16835,7 +16869,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="38">
         <f>EDATE(A559,1)</f>
         <v>43466</v>
@@ -16862,7 +16896,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="38"/>
       <c r="B564" s="20" t="s">
         <v>92</v>
@@ -16882,7 +16916,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="38"/>
       <c r="B565" s="20" t="s">
         <v>76</v>
@@ -16902,7 +16936,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="38">
         <f>EDATE(A563,1)</f>
         <v>43497</v>
@@ -16927,7 +16961,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="38">
         <f t="shared" ref="A567:A573" si="12">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16952,7 +16986,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="38">
         <f t="shared" si="12"/>
         <v>43556</v>
@@ -16979,7 +17013,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="38"/>
       <c r="B569" s="20" t="s">
         <v>120</v>
@@ -16999,7 +17033,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="38">
         <f>EDATE(A568,1)</f>
         <v>43586</v>
@@ -17026,7 +17060,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="38">
         <f t="shared" si="12"/>
         <v>43617</v>
@@ -17051,7 +17085,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="38">
         <f t="shared" si="12"/>
         <v>43647</v>
@@ -17076,7 +17110,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="38">
         <f t="shared" si="12"/>
         <v>43678</v>
@@ -17103,7 +17137,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="38"/>
       <c r="B574" s="20" t="s">
         <v>54</v>
@@ -17125,7 +17159,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="38"/>
       <c r="B575" s="20" t="s">
         <v>359</v>
@@ -17145,7 +17179,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="50"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="38">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -17172,7 +17206,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="38"/>
       <c r="B577" s="20" t="s">
         <v>102</v>
@@ -17192,7 +17226,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="50"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="38">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -17217,7 +17251,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="38">
         <f>EDATE(A578,1)</f>
         <v>43770</v>
@@ -17244,7 +17278,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="38"/>
       <c r="B580" s="20" t="s">
         <v>49</v>
@@ -17266,7 +17300,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="38"/>
       <c r="B581" s="20" t="s">
         <v>76</v>
@@ -17286,7 +17320,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="38">
         <f>EDATE(A579,1)</f>
         <v>43800</v>
@@ -17313,7 +17347,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="38"/>
       <c r="B583" s="20" t="s">
         <v>252</v>
@@ -17333,7 +17367,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="49" t="s">
         <v>361</v>
       </c>
@@ -17351,7 +17385,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="38">
         <f>EDATE(A582,1)</f>
         <v>43831</v>
@@ -17376,7 +17410,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="38"/>
       <c r="B586" s="20" t="s">
         <v>363</v>
@@ -17396,7 +17430,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="38">
         <f>EDATE(A585,1)</f>
         <v>43862</v>
@@ -17423,7 +17457,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="38"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17445,7 +17479,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="38">
         <f>EDATE(A587,1)</f>
         <v>43891</v>
@@ -17466,7 +17500,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="38">
         <f t="shared" ref="A590:A600" si="13">EDATE(A589,1)</f>
         <v>43922</v>
@@ -17487,7 +17521,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="38">
         <f t="shared" si="13"/>
         <v>43952</v>
@@ -17508,7 +17542,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="38">
         <f t="shared" si="13"/>
         <v>43983</v>
@@ -17533,7 +17567,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="38"/>
       <c r="B593" s="20" t="s">
         <v>66</v>
@@ -17553,7 +17587,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="38">
         <f>EDATE(A592,1)</f>
         <v>44013</v>
@@ -17580,7 +17614,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="38">
         <f t="shared" si="13"/>
         <v>44044</v>
@@ -17601,7 +17635,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="38">
         <f>EDATE(A595,1)</f>
         <v>44075</v>
@@ -17628,7 +17662,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="38"/>
       <c r="B597" s="20" t="s">
         <v>49</v>
@@ -17650,7 +17684,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="38">
         <f>EDATE(A596,1)</f>
         <v>44105</v>
@@ -17675,7 +17709,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="38">
         <f>EDATE(A598,1)</f>
         <v>44136</v>
@@ -17696,7 +17730,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="38">
         <f t="shared" si="13"/>
         <v>44166</v>
@@ -17723,13 +17757,15 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="38"/>
       <c r="B601" s="20" t="s">
         <v>353</v>
       </c>
       <c r="C601" s="13"/>
-      <c r="D601" s="37"/>
+      <c r="D601" s="37">
+        <v>4</v>
+      </c>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
       <c r="G601" s="13" t="str">
@@ -17743,7 +17779,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="49" t="s">
         <v>370</v>
       </c>
@@ -17761,7 +17797,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="38">
         <f>EDATE(A600,1)</f>
         <v>44197</v>
@@ -17782,7 +17818,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="38">
         <f>EDATE(A603,1)</f>
         <v>44228</v>
@@ -17803,7 +17839,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="38">
         <f t="shared" ref="A605:A614" si="14">EDATE(A604,1)</f>
         <v>44256</v>
@@ -17824,7 +17860,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="38">
         <f t="shared" si="14"/>
         <v>44287</v>
@@ -17845,7 +17881,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="38">
         <f t="shared" si="14"/>
         <v>44317</v>
@@ -17866,7 +17902,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="38">
         <f t="shared" si="14"/>
         <v>44348</v>
@@ -17887,7 +17923,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="38">
         <f t="shared" si="14"/>
         <v>44378</v>
@@ -17908,7 +17944,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="38">
         <f t="shared" si="14"/>
         <v>44409</v>
@@ -17929,7 +17965,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="38">
         <f t="shared" si="14"/>
         <v>44440</v>
@@ -17950,7 +17986,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="38">
         <f t="shared" si="14"/>
         <v>44470</v>
@@ -17971,7 +18007,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="38">
         <f>EDATE(A612,1)</f>
         <v>44501</v>
@@ -17992,7 +18028,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="38">
         <f t="shared" si="14"/>
         <v>44531</v>
@@ -18017,7 +18053,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="49" t="s">
         <v>372</v>
       </c>
@@ -18035,7 +18071,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="38">
         <f>EDATE(A614,1)</f>
         <v>44562</v>
@@ -18056,7 +18092,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="38">
         <f>EDATE(A616,1)</f>
         <v>44593</v>
@@ -18077,7 +18113,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="38">
         <f t="shared" ref="A618:A622" si="15">EDATE(A617,1)</f>
         <v>44621</v>
@@ -18102,7 +18138,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="38">
         <f t="shared" si="15"/>
         <v>44652</v>
@@ -18123,7 +18159,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="38">
         <f t="shared" si="15"/>
         <v>44682</v>
@@ -18148,7 +18184,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="38">
         <f t="shared" si="15"/>
         <v>44713</v>
@@ -18169,7 +18205,7 @@
       <c r="J621" s="12"/>
       <c r="K621" s="15"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="38">
         <f t="shared" si="15"/>
         <v>44743</v>
@@ -18196,7 +18232,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="38">
         <v>44774</v>
       </c>
@@ -18222,7 +18258,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="38">
         <v>44805</v>
       </c>
@@ -18246,7 +18282,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="38"/>
       <c r="B625" s="20" t="s">
         <v>54</v>
@@ -18268,7 +18304,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="38">
         <v>44835</v>
       </c>
@@ -18288,7 +18324,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="38">
         <v>44866</v>
       </c>
@@ -18314,7 +18350,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="38"/>
       <c r="B628" s="20" t="s">
         <v>54</v>
@@ -18336,7 +18372,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="38">
         <v>44896</v>
       </c>
@@ -18360,7 +18396,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="49" t="s">
         <v>380</v>
       </c>
@@ -18378,7 +18414,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="50"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="38">
         <f>EDATE(A629,1)</f>
         <v>44927</v>
@@ -18399,7 +18435,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="38">
         <f t="shared" ref="A632" si="16">EDATE(A631,1)</f>
         <v>44958</v>
@@ -18426,7 +18462,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="38">
         <v>44986</v>
       </c>
@@ -18450,22 +18486,24 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="38">
         <v>45017</v>
       </c>
       <c r="B634" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="C634" s="13"/>
+      <c r="C634" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D634" s="37">
         <v>16</v>
       </c>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G634" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H634" s="37"/>
       <c r="I634" s="9"/>
@@ -18474,7 +18512,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="38">
         <v>45047</v>
       </c>
@@ -18492,7 +18530,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="38">
         <v>45078</v>
       </c>
@@ -18510,7 +18548,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="38">
         <v>45108</v>
       </c>
@@ -18528,7 +18566,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="38">
         <v>45139</v>
       </c>
@@ -18546,7 +18584,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="38">
         <v>45170</v>
       </c>
@@ -18564,7 +18602,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="38">
         <v>45200</v>
       </c>
@@ -18582,7 +18620,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="38">
         <v>45231</v>
       </c>
@@ -18600,7 +18638,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="38">
         <v>45261</v>
       </c>
@@ -18618,7 +18656,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="38">
         <v>45292</v>
       </c>
@@ -18636,7 +18674,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="38">
         <v>45323</v>
       </c>
@@ -18654,7 +18692,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="38">
         <v>45352</v>
       </c>
@@ -18672,7 +18710,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="38">
         <v>45383</v>
       </c>
@@ -18690,7 +18728,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="38">
         <v>45413</v>
       </c>
@@ -18708,7 +18746,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="38">
         <v>45444</v>
       </c>
@@ -18726,7 +18764,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="38">
         <v>45474</v>
       </c>
@@ -18744,7 +18782,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="38">
         <v>45505</v>
       </c>
@@ -18762,7 +18800,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="38">
         <v>45536</v>
       </c>
@@ -18780,7 +18818,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="38">
         <v>45566</v>
       </c>
@@ -18798,7 +18836,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="38">
         <v>45597</v>
       </c>
@@ -18816,7 +18854,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="38">
         <v>45627</v>
       </c>
@@ -18834,7 +18872,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="38">
         <v>45658</v>
       </c>
@@ -18852,7 +18890,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="38"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18868,7 +18906,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="38"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18884,7 +18922,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="38"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18900,7 +18938,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="38"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18916,7 +18954,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="38"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18932,7 +18970,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="38"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18948,7 +18986,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="38"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18964,7 +19002,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="38"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18980,7 +19018,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="38"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18996,7 +19034,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="38"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -19012,7 +19050,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="38"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -19028,7 +19066,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="38"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -19044,7 +19082,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="38"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19060,7 +19098,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="38"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19076,7 +19114,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="38"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19092,7 +19130,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="38"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19108,7 +19146,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="38"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19124,7 +19162,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="38"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19140,7 +19178,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="38"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19156,7 +19194,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="38"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19172,7 +19210,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="38"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19188,7 +19226,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="38"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19204,7 +19242,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="38"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19220,7 +19258,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="39"/>
       <c r="B679" s="15"/>
       <c r="C679" s="40"/>
@@ -19251,10 +19289,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19277,7 +19315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19285,21 +19323,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -19312,7 +19350,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -19341,25 +19379,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>21.683</v>
       </c>
       <c r="B3" s="11">
         <v>32.683</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.0189999999999999</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="33">
@@ -19371,17 +19407,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -19402,7 +19438,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -19429,7 +19465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -19455,7 +19491,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -19481,7 +19517,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -19507,7 +19543,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -19533,7 +19569,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -19559,7 +19595,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -19585,7 +19621,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -19611,7 +19647,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -19631,7 +19667,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -19651,7 +19687,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -19671,7 +19707,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -19692,7 +19728,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -19713,7 +19749,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -19734,7 +19770,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -19755,7 +19791,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -19776,7 +19812,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -19797,7 +19833,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -19818,7 +19854,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -19839,7 +19875,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -19860,7 +19896,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -19881,7 +19917,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -19902,7 +19938,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -19923,7 +19959,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -19944,7 +19980,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -19965,7 +20001,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -19986,7 +20022,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -20007,7 +20043,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -20028,7 +20064,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -20049,7 +20085,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -20070,7 +20106,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -20091,7 +20127,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -20100,7 +20136,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -20109,7 +20145,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -20118,7 +20154,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -20127,7 +20163,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -20136,7 +20172,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -20145,7 +20181,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -20154,7 +20190,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -20163,7 +20199,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -20172,7 +20208,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -20181,7 +20217,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -20190,7 +20226,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -20199,7 +20235,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -20208,7 +20244,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -20217,7 +20253,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -20226,7 +20262,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -20235,7 +20271,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -20244,7 +20280,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -20253,7 +20289,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -20262,7 +20298,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -20271,7 +20307,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -20280,7 +20316,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -20289,7 +20325,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -20298,7 +20334,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -20307,7 +20343,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -20316,7 +20352,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -20325,7 +20361,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -20334,7 +20370,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -20343,7 +20379,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -20352,7 +20388,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/GOMEZ, EMMA M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A72EFF-ECFD-453B-8BAA-20893793EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="387">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1193,12 +1192,15 @@
   </si>
   <si>
     <t>5/12,15-19,22-26,29-31 6/1,2</t>
+  </si>
+  <si>
+    <t>SPL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2083,7 +2085,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2128,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2192,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2252,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2318,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2381,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2479,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2538,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2603,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2646,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2721,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2907,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2973,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3031,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3097,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3153,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3228,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3271,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,7 +3337,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3393,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3491,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3554,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,26 +3620,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K679" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K679" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K679" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K679"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3649,13 +3651,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3664,14 +3666,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3975,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3985,7 +3987,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3993,34 +3995,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K679"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="4452" topLeftCell="A629" activePane="bottomLeft"/>
+      <pane ySplit="4455" topLeftCell="A629" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="E636" sqref="E636"/>
+      <selection pane="bottomLeft" activeCell="A636" sqref="A636"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4045,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4061,7 +4063,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4083,7 +4085,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -4091,7 +4093,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -4104,7 +4106,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -4121,7 +4123,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4156,7 +4158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
       <c r="B9" s="53" t="s">
         <v>23</v>
@@ -4165,7 +4167,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.417000000000094</v>
+        <v>58.667000000000094</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4175,12 +4177,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>193.18299999999999</v>
+        <v>194.43299999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>42</v>
       </c>
@@ -4204,7 +4206,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>43</v>
       </c>
@@ -4224,7 +4226,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="11" t="s">
         <v>44</v>
@@ -4246,7 +4248,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>45</v>
       </c>
@@ -4264,7 +4266,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>35947</v>
       </c>
@@ -4284,7 +4286,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <f>EDATE(A14,1)</f>
         <v>35977</v>
@@ -4311,7 +4313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="15" t="s">
         <v>48</v>
@@ -4331,7 +4333,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f>EDATE(A15,1)</f>
         <v>36008</v>
@@ -4358,7 +4360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20" t="s">
         <v>51</v>
@@ -4378,7 +4380,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <f>EDATE(A17,1)</f>
         <v>36039</v>
@@ -4403,7 +4405,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <f>EDATE(A19,1)</f>
         <v>36069</v>
@@ -4430,7 +4432,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20" t="s">
         <v>54</v>
@@ -4452,7 +4454,7 @@
         <v>36094</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20" t="s">
         <v>55</v>
@@ -4472,7 +4474,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <f>EDATE(A20,1)</f>
         <v>36100</v>
@@ -4499,7 +4501,7 @@
         <v>36108</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>51</v>
@@ -4519,7 +4521,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <f>EDATE(A23,1)</f>
         <v>36130</v>
@@ -4546,7 +4548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
         <v>57</v>
@@ -4568,7 +4570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="20" t="s">
         <v>60</v>
@@ -4588,7 +4590,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>61</v>
       </c>
@@ -4606,7 +4608,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <f>EDATE(A25,1)</f>
         <v>36161</v>
@@ -4633,7 +4635,7 @@
         <v>36171</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
         <v>63</v>
@@ -4653,7 +4655,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <f>EDATE(A29,1)</f>
         <v>36192</v>
@@ -4680,7 +4682,7 @@
         <v>36214</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20" t="s">
         <v>64</v>
@@ -4700,7 +4702,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <f>EDATE(A31,1)</f>
         <v>36220</v>
@@ -4727,7 +4729,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20" t="s">
         <v>65</v>
@@ -4747,7 +4749,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <f>EDATE(A33,1)</f>
         <v>36251</v>
@@ -4774,7 +4776,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20" t="s">
         <v>68</v>
@@ -4796,7 +4798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>49</v>
@@ -4818,7 +4820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>71</v>
@@ -4838,7 +4840,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <f>EDATE(A35,1)</f>
         <v>36281</v>
@@ -4863,7 +4865,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <f>EDATE(A39,1)</f>
         <v>36312</v>
@@ -4888,7 +4890,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <f t="shared" ref="A41:A42" si="0">EDATE(A40,1)</f>
         <v>36342</v>
@@ -4913,7 +4915,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -4938,7 +4940,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4960,7 +4962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <f>EDATE(A42,1)</f>
         <v>36404</v>
@@ -4987,7 +4989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>54</v>
@@ -5009,7 +5011,7 @@
         <v>36426</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -5029,7 +5031,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <f>EDATE(A44,1)</f>
         <v>36434</v>
@@ -5054,7 +5056,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <f>EDATE(A47,1)</f>
         <v>36465</v>
@@ -5079,7 +5081,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <f>EDATE(A48,1)</f>
         <v>36495</v>
@@ -5106,7 +5108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20" t="s">
         <v>80</v>
@@ -5128,7 +5130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20" t="s">
         <v>81</v>
@@ -5148,7 +5150,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>84</v>
       </c>
@@ -5166,7 +5168,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <f>EDATE(A49,1)</f>
         <v>36526</v>
@@ -5191,7 +5193,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <f>EDATE(A53,1)</f>
         <v>36557</v>
@@ -5216,7 +5218,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20" t="s">
         <v>86</v>
@@ -5236,7 +5238,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <f>EDATE(A54,1)</f>
         <v>36586</v>
@@ -5261,7 +5263,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <f>EDATE(A56,1)</f>
         <v>36617</v>
@@ -5286,7 +5288,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <f t="shared" ref="A58:A59" si="1">EDATE(A57,1)</f>
         <v>36647</v>
@@ -5309,7 +5311,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -5336,7 +5338,7 @@
         <v>36558</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -5356,7 +5358,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <f>EDATE(A59,1)</f>
         <v>36708</v>
@@ -5381,7 +5383,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <f>EDATE(A61,1)</f>
         <v>36739</v>
@@ -5408,7 +5410,7 @@
         <v>36756</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20" t="s">
         <v>81</v>
@@ -5428,7 +5430,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <f>EDATE(A62,1)</f>
         <v>36770</v>
@@ -5449,7 +5451,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <f>EDATE(A64,1)</f>
         <v>36800</v>
@@ -5476,7 +5478,7 @@
         <v>36818</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -5498,7 +5500,7 @@
         <v>36829</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20" t="s">
         <v>54</v>
@@ -5520,7 +5522,7 @@
         <v>36830</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20" t="s">
         <v>48</v>
@@ -5538,7 +5540,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <f>EDATE(A65,1)</f>
         <v>36831</v>
@@ -5565,7 +5567,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20" t="s">
         <v>52</v>
@@ -5585,7 +5587,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <f>EDATE(A69,1)</f>
         <v>36861</v>
@@ -5612,7 +5614,7 @@
         <v>36880</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20" t="s">
         <v>54</v>
@@ -5634,7 +5636,7 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20" t="s">
         <v>64</v>
@@ -5651,7 +5653,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
         <v>93</v>
       </c>
@@ -5666,7 +5668,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="50"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <f>EDATE(A71,1)</f>
         <v>36892</v>
@@ -5691,7 +5693,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <f>EDATE(A75,1)</f>
         <v>36923</v>
@@ -5718,7 +5720,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20" t="s">
         <v>92</v>
@@ -5738,7 +5740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20" t="s">
         <v>54</v>
@@ -5760,7 +5762,7 @@
         <v>36934</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -5782,7 +5784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20" t="s">
         <v>74</v>
@@ -5802,7 +5804,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <f>EDATE(A76,1)</f>
         <v>36951</v>
@@ -5829,7 +5831,7 @@
         <v>36969</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20" t="s">
         <v>54</v>
@@ -5851,7 +5853,7 @@
         <v>36973</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20" t="s">
         <v>98</v>
@@ -5871,7 +5873,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <f>EDATE(A81,1)</f>
         <v>36982</v>
@@ -5896,7 +5898,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <f>EDATE(A84,1)</f>
         <v>37012</v>
@@ -5923,7 +5925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20" t="s">
         <v>57</v>
@@ -5945,7 +5947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20" t="s">
         <v>54</v>
@@ -5967,7 +5969,7 @@
         <v>37035</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <f>EDATE(A85,1)</f>
         <v>37043</v>
@@ -5994,7 +5996,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
         <v>102</v>
@@ -6014,7 +6016,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <f>EDATE(A88,1)</f>
         <v>37073</v>
@@ -6041,7 +6043,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -6061,7 +6063,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <f>EDATE(A90,1)</f>
         <v>37104</v>
@@ -6088,7 +6090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20" t="s">
         <v>49</v>
@@ -6110,7 +6112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -6130,7 +6132,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <f>EDATE(A92,1)</f>
         <v>37135</v>
@@ -6155,7 +6157,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>54</v>
@@ -6177,7 +6179,7 @@
         <v>37145</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20" t="s">
         <v>109</v>
@@ -6197,7 +6199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <f>EDATE(A95,1)</f>
         <v>37165</v>
@@ -6218,7 +6220,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <f>EDATE(A98,1)</f>
         <v>37196</v>
@@ -6245,7 +6247,7 @@
         <v>37204</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <f>EDATE(A99,1)</f>
         <v>37226</v>
@@ -6272,7 +6274,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20" t="s">
         <v>110</v>
@@ -6292,7 +6294,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20" t="s">
         <v>53</v>
@@ -6314,7 +6316,7 @@
         <v>37237</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20" t="s">
         <v>53</v>
@@ -6336,7 +6338,7 @@
         <v>37244</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20" t="s">
         <v>111</v>
@@ -6356,7 +6358,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
         <v>112</v>
       </c>
@@ -6374,7 +6376,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
         <f>EDATE(A100,1)</f>
         <v>37257</v>
@@ -6399,7 +6401,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <f>EDATE(A106,1)</f>
         <v>37288</v>
@@ -6426,7 +6428,7 @@
         <v>37306</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20" t="s">
         <v>66</v>
@@ -6446,7 +6448,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -6468,7 +6470,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <f>EDATE(A107,1)</f>
         <v>37316</v>
@@ -6493,7 +6495,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <f>EDATE(A110,1)</f>
         <v>37347</v>
@@ -6520,7 +6522,7 @@
         <v>37350</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20" t="s">
         <v>54</v>
@@ -6542,7 +6544,7 @@
         <v>37363</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20" t="s">
         <v>117</v>
@@ -6562,7 +6564,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
         <f>EDATE(A111,1)</f>
         <v>37377</v>
@@ -6589,7 +6591,7 @@
         <v>37386</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20" t="s">
         <v>80</v>
@@ -6611,7 +6613,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20" t="s">
         <v>119</v>
@@ -6631,7 +6633,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
         <f>EDATE(A114,1)</f>
         <v>37408</v>
@@ -6656,7 +6658,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <f>EDATE(A117,1)</f>
         <v>37438</v>
@@ -6681,7 +6683,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <f>EDATE(A118,1)</f>
         <v>37469</v>
@@ -6708,7 +6710,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6730,7 +6732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="20" t="s">
         <v>91</v>
@@ -6750,7 +6752,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
         <f>EDATE(A119,1)</f>
         <v>37500</v>
@@ -6777,7 +6779,7 @@
         <v>37502</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="20" t="s">
         <v>54</v>
@@ -6799,7 +6801,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="20" t="s">
         <v>53</v>
@@ -6821,7 +6823,7 @@
         <v>37518</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <f>EDATE(A122,1)</f>
         <v>37530</v>
@@ -6846,7 +6848,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <f>EDATE(A125,1)</f>
         <v>37561</v>
@@ -6873,7 +6875,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38"/>
       <c r="B127" s="20" t="s">
         <v>53</v>
@@ -6895,7 +6897,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="20" t="s">
         <v>123</v>
@@ -6915,7 +6917,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <f>EDATE(A126,1)</f>
         <v>37591</v>
@@ -6942,7 +6944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38"/>
       <c r="B130" s="20" t="s">
         <v>126</v>
@@ -6962,7 +6964,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="49" t="s">
         <v>127</v>
       </c>
@@ -6980,7 +6982,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -7005,7 +7007,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
         <f>EDATE(A132,1)</f>
         <v>37653</v>
@@ -7032,7 +7034,7 @@
         <v>37301</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="38"/>
       <c r="B134" s="20" t="s">
         <v>129</v>
@@ -7052,7 +7054,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="38"/>
       <c r="B135" s="20" t="s">
         <v>66</v>
@@ -7072,7 +7074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <f>EDATE(A133,1)</f>
         <v>37681</v>
@@ -7097,7 +7099,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <f>EDATE(A136,1)</f>
         <v>37712</v>
@@ -7122,7 +7124,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
         <f>EDATE(A137,1)</f>
         <v>37742</v>
@@ -7149,7 +7151,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="38"/>
       <c r="B139" s="20" t="s">
         <v>133</v>
@@ -7169,7 +7171,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <f>EDATE(A138,1)</f>
         <v>37773</v>
@@ -7194,7 +7196,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <f>EDATE(A140,1)</f>
         <v>37803</v>
@@ -7219,7 +7221,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <f>EDATE(A141,1)</f>
         <v>37834</v>
@@ -7240,7 +7242,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <f>EDATE(A142,1)</f>
         <v>37865</v>
@@ -7267,7 +7269,7 @@
         <v>37865</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="38"/>
       <c r="B144" s="20" t="s">
         <v>66</v>
@@ -7287,7 +7289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="38"/>
       <c r="B145" s="20" t="s">
         <v>53</v>
@@ -7309,7 +7311,7 @@
         <v>37893</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38"/>
       <c r="B146" s="20" t="s">
         <v>136</v>
@@ -7329,7 +7331,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <f>EDATE(A143,1)</f>
         <v>37895</v>
@@ -7354,7 +7356,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <f>EDATE(A147,1)</f>
         <v>37926</v>
@@ -7381,7 +7383,7 @@
         <v>37945</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="38"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -7401,7 +7403,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <f>EDATE(A148,1)</f>
         <v>37956</v>
@@ -7428,7 +7430,7 @@
         <v>37963</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="38"/>
       <c r="B151" s="20" t="s">
         <v>49</v>
@@ -7450,7 +7452,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="38"/>
       <c r="B152" s="20" t="s">
         <v>53</v>
@@ -7472,7 +7474,7 @@
         <v>37973</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="38"/>
       <c r="B153" s="20" t="s">
         <v>53</v>
@@ -7494,7 +7496,7 @@
         <v>37985</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="38"/>
       <c r="B154" s="20" t="s">
         <v>140</v>
@@ -7514,7 +7516,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="49" t="s">
         <v>141</v>
       </c>
@@ -7532,7 +7534,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <f>EDATE(A150,1)</f>
         <v>37987</v>
@@ -7557,7 +7559,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
         <f>EDATE(A156,1)</f>
         <v>38018</v>
@@ -7582,7 +7584,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <f>EDATE(A157,1)</f>
         <v>38047</v>
@@ -7609,7 +7611,7 @@
         <v>38082</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="38"/>
       <c r="B159" s="20" t="s">
         <v>144</v>
@@ -7629,7 +7631,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <f>EDATE(A158,1)</f>
         <v>38078</v>
@@ -7654,7 +7656,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="38"/>
       <c r="B161" s="20" t="s">
         <v>66</v>
@@ -7674,7 +7676,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <f>EDATE(A160,1)</f>
         <v>38108</v>
@@ -7701,7 +7703,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="38"/>
       <c r="B163" s="20" t="s">
         <v>148</v>
@@ -7721,7 +7723,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="50"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <f>EDATE(A162,1)</f>
         <v>38139</v>
@@ -7746,7 +7748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="38"/>
       <c r="B165" s="20" t="s">
         <v>54</v>
@@ -7768,7 +7770,7 @@
         <v>38145</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="38"/>
       <c r="B166" s="20" t="s">
         <v>57</v>
@@ -7790,7 +7792,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="38"/>
       <c r="B167" s="20" t="s">
         <v>49</v>
@@ -7812,7 +7814,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="38"/>
       <c r="B168" s="20" t="s">
         <v>151</v>
@@ -7832,7 +7834,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <f>EDATE(A164,1)</f>
         <v>38169</v>
@@ -7859,7 +7861,7 @@
         <v>38184</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="38"/>
       <c r="B170" s="20" t="s">
         <v>49</v>
@@ -7881,7 +7883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="38"/>
       <c r="B171" s="20" t="s">
         <v>153</v>
@@ -7901,7 +7903,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <f>EDATE(A169,1)</f>
         <v>38200</v>
@@ -7928,7 +7930,7 @@
         <v>38208</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="38"/>
       <c r="B173" s="20" t="s">
         <v>154</v>
@@ -7948,7 +7950,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <f>EDATE(A172,1)</f>
         <v>38231</v>
@@ -7975,7 +7977,7 @@
         <v>38232</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="38"/>
       <c r="B175" s="20" t="s">
         <v>53</v>
@@ -7997,7 +7999,7 @@
         <v>38250</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="38"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -8019,7 +8021,7 @@
         <v>38247</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="38"/>
       <c r="B177" s="20" t="s">
         <v>155</v>
@@ -8039,7 +8041,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="38">
         <f>EDATE(A174,1)</f>
         <v>38261</v>
@@ -8066,7 +8068,7 @@
         <v>38281</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="38"/>
       <c r="B179" s="20" t="s">
         <v>156</v>
@@ -8086,7 +8088,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="38">
         <f>EDATE(A178,1)</f>
         <v>38292</v>
@@ -8113,7 +8115,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="38"/>
       <c r="B181" s="20" t="s">
         <v>54</v>
@@ -8135,7 +8137,7 @@
         <v>38302</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="38"/>
       <c r="B182" s="20" t="s">
         <v>54</v>
@@ -8157,7 +8159,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="38">
         <f>EDATE(A180,1)</f>
         <v>38322</v>
@@ -8184,7 +8186,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="38"/>
       <c r="B184" s="20" t="s">
         <v>159</v>
@@ -8204,7 +8206,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="38"/>
       <c r="B185" s="20" t="s">
         <v>53</v>
@@ -8226,7 +8228,7 @@
         <v>38344</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="38"/>
       <c r="B186" s="20" t="s">
         <v>160</v>
@@ -8246,7 +8248,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="49" t="s">
         <v>161</v>
       </c>
@@ -8264,7 +8266,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="38">
         <f>EDATE(A183,1)</f>
         <v>38353</v>
@@ -8289,7 +8291,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="38"/>
       <c r="B189" s="20" t="s">
         <v>54</v>
@@ -8311,7 +8313,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="38"/>
       <c r="B190" s="20" t="s">
         <v>164</v>
@@ -8331,7 +8333,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="50"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="38">
         <f>EDATE(A188,1)</f>
         <v>38384</v>
@@ -8356,7 +8358,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="38"/>
       <c r="B192" s="20" t="s">
         <v>66</v>
@@ -8376,7 +8378,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="20" t="s">
         <v>166</v>
@@ -8396,7 +8398,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <f>EDATE(A191,1)</f>
         <v>38412</v>
@@ -8423,7 +8425,7 @@
         <v>38426</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="38"/>
       <c r="B195" s="20" t="s">
         <v>54</v>
@@ -8445,7 +8447,7 @@
         <v>38442</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39"/>
       <c r="B196" s="15" t="s">
         <v>167</v>
@@ -8465,7 +8467,7 @@
       <c r="J196" s="12"/>
       <c r="K196" s="15"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <f>EDATE(A194,1)</f>
         <v>38443</v>
@@ -8492,7 +8494,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="38"/>
       <c r="B198" s="20" t="s">
         <v>168</v>
@@ -8512,7 +8514,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <f>EDATE(A197,1)</f>
         <v>38473</v>
@@ -8539,7 +8541,7 @@
         <v>38492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="38"/>
       <c r="B200" s="20" t="s">
         <v>54</v>
@@ -8561,7 +8563,7 @@
         <v>38489</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="38"/>
       <c r="B201" s="20" t="s">
         <v>54</v>
@@ -8583,7 +8585,7 @@
         <v>38497</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="38"/>
       <c r="B202" s="20" t="s">
         <v>170</v>
@@ -8603,7 +8605,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <f>EDATE(A199,1)</f>
         <v>38504</v>
@@ -8630,7 +8632,7 @@
         <v>38517</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="38"/>
       <c r="B204" s="20" t="s">
         <v>54</v>
@@ -8652,7 +8654,7 @@
         <v>38518</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="38"/>
       <c r="B205" s="20" t="s">
         <v>171</v>
@@ -8672,7 +8674,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="38">
         <f>EDATE(A203,1)</f>
         <v>38534</v>
@@ -8699,7 +8701,7 @@
         <v>38537</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="38"/>
       <c r="B207" s="20" t="s">
         <v>54</v>
@@ -8721,7 +8723,7 @@
         <v>38547</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="38"/>
       <c r="B208" s="20" t="s">
         <v>54</v>
@@ -8743,7 +8745,7 @@
         <v>38551</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="38"/>
       <c r="B209" s="20" t="s">
         <v>169</v>
@@ -8765,7 +8767,7 @@
         <v>38562</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="38"/>
       <c r="B210" s="20" t="s">
         <v>172</v>
@@ -8785,7 +8787,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="38">
         <f>EDATE(A206,1)</f>
         <v>38565</v>
@@ -8812,7 +8814,7 @@
         <v>38597</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="38"/>
       <c r="B212" s="20" t="s">
         <v>54</v>
@@ -8834,7 +8836,7 @@
         <v>38590</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="20" t="s">
         <v>173</v>
@@ -8854,7 +8856,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <f>EDATE(A211,1)</f>
         <v>38596</v>
@@ -8881,7 +8883,7 @@
         <v>38603</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="38"/>
       <c r="B215" s="20" t="s">
         <v>49</v>
@@ -8903,7 +8905,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="20" t="s">
         <v>175</v>
@@ -8923,7 +8925,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <f>EDATE(A214,1)</f>
         <v>38626</v>
@@ -8950,7 +8952,7 @@
         <v>38635</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="38"/>
       <c r="B218" s="20" t="s">
         <v>54</v>
@@ -8972,7 +8974,7 @@
         <v>38637</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="38"/>
       <c r="B219" s="20" t="s">
         <v>176</v>
@@ -8992,7 +8994,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="50"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="38">
         <f>EDATE(A217,1)</f>
         <v>38657</v>
@@ -9017,7 +9019,7 @@
         <v>38658</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="38"/>
       <c r="B221" s="20" t="s">
         <v>177</v>
@@ -9037,7 +9039,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="38"/>
       <c r="B222" s="20" t="s">
         <v>53</v>
@@ -9059,7 +9061,7 @@
         <v>38685</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="38">
         <f>EDATE(A220,1)</f>
         <v>38687</v>
@@ -9086,7 +9088,7 @@
         <v>38699</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="38"/>
       <c r="B224" s="20" t="s">
         <v>169</v>
@@ -9108,7 +9110,7 @@
         <v>38708</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="38"/>
       <c r="B225" s="20" t="s">
         <v>54</v>
@@ -9128,7 +9130,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="38"/>
       <c r="B226" s="20" t="s">
         <v>178</v>
@@ -9148,7 +9150,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>179</v>
       </c>
@@ -9166,7 +9168,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="38">
         <f>EDATE(A223,1)</f>
         <v>38718</v>
@@ -9191,7 +9193,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="38"/>
       <c r="B229" s="20" t="s">
         <v>180</v>
@@ -9211,7 +9213,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="38"/>
       <c r="B230" s="20" t="s">
         <v>181</v>
@@ -9231,7 +9233,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="38">
         <f>EDATE(A228,1)</f>
         <v>38749</v>
@@ -9258,7 +9260,7 @@
         <v>38772</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="20" t="s">
         <v>184</v>
@@ -9278,7 +9280,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="38">
         <f>EDATE(A231,1)</f>
         <v>38777</v>
@@ -9305,7 +9307,7 @@
         <v>38799</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="38"/>
       <c r="B234" s="20" t="s">
         <v>185</v>
@@ -9325,7 +9327,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="38">
         <f>EDATE(A233,1)</f>
         <v>38808</v>
@@ -9352,7 +9354,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="38"/>
       <c r="B236" s="20" t="s">
         <v>54</v>
@@ -9374,7 +9376,7 @@
         <v>38816</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="20" t="s">
         <v>186</v>
@@ -9394,7 +9396,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="38">
         <f>EDATE(A235,1)</f>
         <v>38838</v>
@@ -9421,7 +9423,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="38"/>
       <c r="B239" s="20" t="s">
         <v>187</v>
@@ -9441,7 +9443,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="38">
         <f>EDATE(A238,1)</f>
         <v>38869</v>
@@ -9468,7 +9470,7 @@
         <v>38881</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="38"/>
       <c r="B241" s="20" t="s">
         <v>54</v>
@@ -9490,7 +9492,7 @@
         <v>38876</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="38"/>
       <c r="B242" s="20" t="s">
         <v>49</v>
@@ -9512,7 +9514,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="38"/>
       <c r="B243" s="20" t="s">
         <v>190</v>
@@ -9532,7 +9534,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="38">
         <f>EDATE(A240,1)</f>
         <v>38899</v>
@@ -9559,7 +9561,7 @@
         <v>38916</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="20" t="s">
         <v>49</v>
@@ -9581,7 +9583,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="38"/>
       <c r="B246" s="20" t="s">
         <v>189</v>
@@ -9601,7 +9603,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="38">
         <f>EDATE(A244,1)</f>
         <v>38930</v>
@@ -9628,7 +9630,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="38"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
@@ -9650,7 +9652,7 @@
         <v>38957</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="38"/>
       <c r="B249" s="20" t="s">
         <v>192</v>
@@ -9670,7 +9672,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="38">
         <f>EDATE(A247,1)</f>
         <v>38961</v>
@@ -9697,7 +9699,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="38"/>
       <c r="B251" s="20" t="s">
         <v>193</v>
@@ -9717,7 +9719,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39">
         <f>EDATE(A250,1)</f>
         <v>38991</v>
@@ -9744,7 +9746,7 @@
         <v>39006</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="20" t="s">
         <v>194</v>
@@ -9766,7 +9768,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="38"/>
       <c r="B254" s="20" t="s">
         <v>196</v>
@@ -9786,7 +9788,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="38">
         <f>EDATE(A252,1)</f>
         <v>39022</v>
@@ -9811,7 +9813,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="38">
         <f>EDATE(A255,1)</f>
         <v>39052</v>
@@ -9838,7 +9840,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="38"/>
       <c r="B257" s="20" t="s">
         <v>54</v>
@@ -9860,7 +9862,7 @@
         <v>39069</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="20" t="s">
         <v>200</v>
@@ -9880,7 +9882,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="49" t="s">
         <v>201</v>
       </c>
@@ -9898,7 +9900,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="38">
         <f>EDATE(A256,1)</f>
         <v>39083</v>
@@ -9923,7 +9925,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38"/>
       <c r="B261" s="20" t="s">
         <v>203</v>
@@ -9943,7 +9945,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="38">
         <f>EDATE(A260,1)</f>
         <v>39114</v>
@@ -9970,7 +9972,7 @@
         <v>39122</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="20" t="s">
         <v>66</v>
@@ -9990,7 +9992,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="38"/>
       <c r="B264" s="20" t="s">
         <v>205</v>
@@ -10012,7 +10014,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="50"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="38">
         <f>EDATE(A262,1)</f>
         <v>39142</v>
@@ -10037,7 +10039,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="38">
         <f>EDATE(A265,1)</f>
         <v>39173</v>
@@ -10062,7 +10064,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="38"/>
       <c r="B267" s="20" t="s">
         <v>54</v>
@@ -10084,7 +10086,7 @@
         <v>39195</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="38"/>
       <c r="B268" s="20" t="s">
         <v>208</v>
@@ -10104,7 +10106,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="38">
         <f>EDATE(A266,1)</f>
         <v>39203</v>
@@ -10131,7 +10133,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="38"/>
       <c r="B270" s="20" t="s">
         <v>209</v>
@@ -10151,7 +10153,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="38">
         <f>EDATE(A269,1)</f>
         <v>39234</v>
@@ -10178,7 +10180,7 @@
         <v>39246</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="38"/>
       <c r="B272" s="20" t="s">
         <v>54</v>
@@ -10200,7 +10202,7 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="38"/>
       <c r="B273" s="20" t="s">
         <v>54</v>
@@ -10222,7 +10224,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="38"/>
       <c r="B274" s="20" t="s">
         <v>211</v>
@@ -10242,7 +10244,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="38">
         <f>EDATE(A271,1)</f>
         <v>39264</v>
@@ -10269,7 +10271,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="38"/>
       <c r="B276" s="20" t="s">
         <v>213</v>
@@ -10289,7 +10291,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="38">
         <f>EDATE(A275,1)</f>
         <v>39295</v>
@@ -10316,7 +10318,7 @@
         <v>39297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="38"/>
       <c r="B278" s="20" t="s">
         <v>49</v>
@@ -10338,7 +10340,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="38"/>
       <c r="B279" s="20" t="s">
         <v>214</v>
@@ -10358,7 +10360,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="38">
         <f>EDATE(A277,1)</f>
         <v>39326</v>
@@ -10385,7 +10387,7 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="38"/>
       <c r="B281" s="20" t="s">
         <v>49</v>
@@ -10407,7 +10409,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="38"/>
       <c r="B282" s="20" t="s">
         <v>216</v>
@@ -10427,7 +10429,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="38">
         <f>EDATE(A280,1)</f>
         <v>39356</v>
@@ -10454,7 +10456,7 @@
         <v>39371</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="38"/>
       <c r="B284" s="20" t="s">
         <v>169</v>
@@ -10476,7 +10478,7 @@
         <v>39381</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="38"/>
       <c r="B285" s="20" t="s">
         <v>54</v>
@@ -10498,7 +10500,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="38"/>
       <c r="B286" s="20" t="s">
         <v>218</v>
@@ -10518,7 +10520,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="38">
         <f>EDATE(A283,1)</f>
         <v>39387</v>
@@ -10545,7 +10547,7 @@
         <v>39401</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="38"/>
       <c r="B288" s="20" t="s">
         <v>169</v>
@@ -10567,7 +10569,7 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="38"/>
       <c r="B289" s="20" t="s">
         <v>219</v>
@@ -10587,7 +10589,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="50"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="38">
         <f>EDATE(A287,1)</f>
         <v>39417</v>
@@ -10614,7 +10616,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="38"/>
       <c r="B291" s="20" t="s">
         <v>49</v>
@@ -10636,7 +10638,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="38"/>
       <c r="B292" s="20" t="s">
         <v>222</v>
@@ -10656,7 +10658,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="49" t="s">
         <v>223</v>
       </c>
@@ -10674,7 +10676,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="38">
         <f>EDATE(A290,1)</f>
         <v>39448</v>
@@ -10699,7 +10701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="38"/>
       <c r="B295" s="20" t="s">
         <v>54</v>
@@ -10721,7 +10723,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="38"/>
       <c r="B296" s="20" t="s">
         <v>224</v>
@@ -10741,7 +10743,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="38">
         <f>EDATE(A294,1)</f>
         <v>39479</v>
@@ -10766,7 +10768,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="38"/>
       <c r="B298" s="20" t="s">
         <v>225</v>
@@ -10786,7 +10788,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="38">
         <f>EDATE(A297,1)</f>
         <v>39508</v>
@@ -10813,7 +10815,7 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="38"/>
       <c r="B300" s="20" t="s">
         <v>169</v>
@@ -10835,7 +10837,7 @@
         <v>39531</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="38"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10855,7 +10857,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="38">
         <f>EDATE(A299,1)</f>
         <v>39539</v>
@@ -10882,7 +10884,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="38"/>
       <c r="B303" s="20" t="s">
         <v>227</v>
@@ -10902,7 +10904,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="38">
         <f>EDATE(A302,1)</f>
         <v>39569</v>
@@ -10929,7 +10931,7 @@
         <v>39584</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="38"/>
       <c r="B305" s="20" t="s">
         <v>54</v>
@@ -10951,7 +10953,7 @@
         <v>39577</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="38"/>
       <c r="B306" s="20" t="s">
         <v>54</v>
@@ -10973,7 +10975,7 @@
         <v>39587</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="38"/>
       <c r="B307" s="20" t="s">
         <v>169</v>
@@ -10995,7 +10997,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="38"/>
       <c r="B308" s="20" t="s">
         <v>54</v>
@@ -11017,7 +11019,7 @@
         <v>39594</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="38"/>
       <c r="B309" s="20" t="s">
         <v>54</v>
@@ -11039,7 +11041,7 @@
         <v>39597</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="38"/>
       <c r="B310" s="20" t="s">
         <v>228</v>
@@ -11059,7 +11061,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="38">
         <f>EDATE(A304,1)</f>
         <v>39600</v>
@@ -11086,7 +11088,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="38"/>
       <c r="B312" s="20" t="s">
         <v>49</v>
@@ -11108,7 +11110,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="38"/>
       <c r="B313" s="20" t="s">
         <v>233</v>
@@ -11128,7 +11130,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="38">
         <f>EDATE(A311,1)</f>
         <v>39630</v>
@@ -11153,7 +11155,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="38"/>
       <c r="B315" s="20" t="s">
         <v>235</v>
@@ -11173,7 +11175,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="38">
         <f>EDATE(A314,1)</f>
         <v>39661</v>
@@ -11198,7 +11200,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="38">
         <f>EDATE(A316,1)</f>
         <v>39692</v>
@@ -11225,7 +11227,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="38"/>
       <c r="B318" s="20" t="s">
         <v>54</v>
@@ -11247,7 +11249,7 @@
         <v>39706</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="38"/>
       <c r="B319" s="20" t="s">
         <v>237</v>
@@ -11267,7 +11269,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="38">
         <f>EDATE(A317,1)</f>
         <v>39722</v>
@@ -11288,7 +11290,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="38">
         <f>EDATE(A320,1)</f>
         <v>39753</v>
@@ -11315,7 +11317,7 @@
         <v>39755</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="38"/>
       <c r="B322" s="20" t="s">
         <v>169</v>
@@ -11337,7 +11339,7 @@
         <v>39769</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="38"/>
       <c r="B323" s="20" t="s">
         <v>54</v>
@@ -11359,7 +11361,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="38"/>
       <c r="B324" s="20" t="s">
         <v>238</v>
@@ -11379,7 +11381,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="38">
         <f>EDATE(A321,1)</f>
         <v>39783</v>
@@ -11406,7 +11408,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="38"/>
       <c r="B326" s="20" t="s">
         <v>239</v>
@@ -11426,7 +11428,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="49" t="s">
         <v>240</v>
       </c>
@@ -11444,7 +11446,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="38">
         <f>EDATE(A325,1)</f>
         <v>39814</v>
@@ -11469,7 +11471,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="38"/>
       <c r="B329" s="20" t="s">
         <v>242</v>
@@ -11489,7 +11491,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="38">
         <f>EDATE(A328,1)</f>
         <v>39845</v>
@@ -11514,7 +11516,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="15" t="s">
         <v>243</v>
@@ -11534,7 +11536,7 @@
       <c r="J331" s="12"/>
       <c r="K331" s="15"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="38">
         <f>EDATE(A330,1)</f>
         <v>39873</v>
@@ -11561,7 +11563,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="38"/>
       <c r="B333" s="20" t="s">
         <v>244</v>
@@ -11581,7 +11583,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="38">
         <f>EDATE(A332,1)</f>
         <v>39904</v>
@@ -11608,7 +11610,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="38"/>
       <c r="B335" s="20" t="s">
         <v>54</v>
@@ -11630,7 +11632,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="38"/>
       <c r="B336" s="20" t="s">
         <v>169</v>
@@ -11652,7 +11654,7 @@
         <v>39931</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="38"/>
       <c r="B337" s="20" t="s">
         <v>245</v>
@@ -11672,7 +11674,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="38">
         <f>EDATE(A334,1)</f>
         <v>39934</v>
@@ -11699,7 +11701,7 @@
         <v>39944</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="38"/>
       <c r="B339" s="20" t="s">
         <v>49</v>
@@ -11721,7 +11723,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="38"/>
       <c r="B340" s="20" t="s">
         <v>247</v>
@@ -11741,7 +11743,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="38">
         <f>EDATE(A338,1)</f>
         <v>39965</v>
@@ -11768,7 +11770,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="38"/>
       <c r="B342" s="20" t="s">
         <v>248</v>
@@ -11788,7 +11790,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="38">
         <f>EDATE(A341,1)</f>
         <v>39995</v>
@@ -11817,7 +11819,7 @@
         <v>39997</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="20" t="s">
         <v>54</v>
@@ -11839,7 +11841,7 @@
         <v>40025</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="38"/>
       <c r="B345" s="20" t="s">
         <v>250</v>
@@ -11859,7 +11861,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="38">
         <f>EDATE(A343,1)</f>
         <v>40026</v>
@@ -11886,7 +11888,7 @@
         <v>40043</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="38"/>
       <c r="B347" s="20" t="s">
         <v>251</v>
@@ -11906,7 +11908,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="50"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="38">
         <f>EDATE(A346,1)</f>
         <v>40057</v>
@@ -11931,7 +11933,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="38"/>
       <c r="B349" s="20" t="s">
         <v>54</v>
@@ -11953,7 +11955,7 @@
         <v>40058</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="38"/>
       <c r="B350" s="20" t="s">
         <v>252</v>
@@ -11973,7 +11975,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="38">
         <f>EDATE(A348,1)</f>
         <v>40087</v>
@@ -11998,7 +12000,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="38">
         <f>EDATE(A351,1)</f>
         <v>40118</v>
@@ -12025,7 +12027,7 @@
         <v>40134</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="38"/>
       <c r="B353" s="20" t="s">
         <v>254</v>
@@ -12045,7 +12047,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="38">
         <f>EDATE(A352,1)</f>
         <v>40148</v>
@@ -12072,7 +12074,7 @@
         <v>40165</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="38"/>
       <c r="B355" s="20" t="s">
         <v>49</v>
@@ -12094,7 +12096,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="38"/>
       <c r="B356" s="20" t="s">
         <v>256</v>
@@ -12114,7 +12116,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="49" t="s">
         <v>257</v>
       </c>
@@ -12132,7 +12134,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="38">
         <f>EDATE(A354,1)</f>
         <v>40179</v>
@@ -12157,7 +12159,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="38"/>
       <c r="B359" s="20" t="s">
         <v>258</v>
@@ -12177,7 +12179,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="38">
         <f>EDATE(A358,1)</f>
         <v>40210</v>
@@ -12204,7 +12206,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="38"/>
       <c r="B361" s="20" t="s">
         <v>66</v>
@@ -12226,7 +12228,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="38"/>
       <c r="B362" s="20" t="s">
         <v>263</v>
@@ -12246,7 +12248,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="38">
         <f>EDATE(A360,1)</f>
         <v>40238</v>
@@ -12273,7 +12275,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="38"/>
       <c r="B364" s="20" t="s">
         <v>264</v>
@@ -12293,7 +12295,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="50"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="38">
         <f>EDATE(A363,1)</f>
         <v>40269</v>
@@ -12318,7 +12320,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="38">
         <f t="shared" ref="A366" si="2">EDATE(A365,1)</f>
         <v>40299</v>
@@ -12345,7 +12347,7 @@
         <v>40315</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="38"/>
       <c r="B367" s="20" t="s">
         <v>54</v>
@@ -12367,7 +12369,7 @@
         <v>40311</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="38"/>
       <c r="B368" s="20" t="s">
         <v>266</v>
@@ -12387,7 +12389,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="50"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="38">
         <f>EDATE(A366,1)</f>
         <v>40330</v>
@@ -12414,7 +12416,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="38"/>
       <c r="B370" s="20" t="s">
         <v>267</v>
@@ -12434,7 +12436,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="50"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="38">
         <f>EDATE(A369,1)</f>
         <v>40360</v>
@@ -12461,7 +12463,7 @@
         <v>40361</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="38"/>
       <c r="B372" s="20" t="s">
         <v>54</v>
@@ -12481,7 +12483,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="50"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="38"/>
       <c r="B373" s="20" t="s">
         <v>268</v>
@@ -12501,7 +12503,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="50"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="38">
         <f>EDATE(A371,1)</f>
         <v>40391</v>
@@ -12528,7 +12530,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="38"/>
       <c r="B375" s="20" t="s">
         <v>269</v>
@@ -12548,7 +12550,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="50"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="38">
         <f>EDATE(A374,1)</f>
         <v>40422</v>
@@ -12575,7 +12577,7 @@
         <v>40423</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="38"/>
       <c r="B377" s="20" t="s">
         <v>124</v>
@@ -12597,7 +12599,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="38"/>
       <c r="B378" s="20" t="s">
         <v>124</v>
@@ -12619,7 +12621,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="38"/>
       <c r="B379" s="20" t="s">
         <v>272</v>
@@ -12639,7 +12641,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="38">
         <f>EDATE(A376,1)</f>
         <v>40452</v>
@@ -12666,7 +12668,7 @@
         <v>40471</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="20" t="s">
         <v>273</v>
@@ -12686,7 +12688,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="38">
         <f>EDATE(A380,1)</f>
         <v>40483</v>
@@ -12713,7 +12715,7 @@
         <v>40508</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="38"/>
       <c r="B383" s="20" t="s">
         <v>275</v>
@@ -12733,7 +12735,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="50"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="38">
         <f>EDATE(A382,1)</f>
         <v>40513</v>
@@ -12760,7 +12762,7 @@
         <v>40521</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="38"/>
       <c r="B385" s="20" t="s">
         <v>194</v>
@@ -12782,7 +12784,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="38"/>
       <c r="B386" s="20" t="s">
         <v>274</v>
@@ -12802,7 +12804,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="49" t="s">
         <v>277</v>
       </c>
@@ -12820,7 +12822,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="38">
         <f>EDATE(A384,1)</f>
         <v>40544</v>
@@ -12845,7 +12847,7 @@
         <v>40560</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="38"/>
       <c r="B389" s="20" t="s">
         <v>74</v>
@@ -12865,7 +12867,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="50"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="38">
         <f>EDATE(A388,1)</f>
         <v>40575</v>
@@ -12888,7 +12890,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="38">
         <f t="shared" ref="A391:A400" si="3">EDATE(A390,1)</f>
         <v>40603</v>
@@ -12915,7 +12917,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="38"/>
       <c r="B392" s="20" t="s">
         <v>278</v>
@@ -12935,7 +12937,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="50"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="38">
         <f>EDATE(A391,1)</f>
         <v>40634</v>
@@ -12960,7 +12962,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="38">
         <f t="shared" si="3"/>
         <v>40664</v>
@@ -12985,7 +12987,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="38"/>
       <c r="B395" s="20" t="s">
         <v>281</v>
@@ -13005,7 +13007,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="38">
         <f>EDATE(A394,1)</f>
         <v>40695</v>
@@ -13032,7 +13034,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="38"/>
       <c r="B397" s="20" t="s">
         <v>54</v>
@@ -13054,7 +13056,7 @@
         <v>40721</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="38"/>
       <c r="B398" s="20" t="s">
         <v>282</v>
@@ -13074,7 +13076,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="50"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="38">
         <f>EDATE(A396,1)</f>
         <v>40725</v>
@@ -13099,7 +13101,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="38">
         <f t="shared" si="3"/>
         <v>40756</v>
@@ -13126,7 +13128,7 @@
         <v>40765</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="38"/>
       <c r="B401" s="20" t="s">
         <v>169</v>
@@ -13146,7 +13148,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="50"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="38"/>
       <c r="B402" s="20" t="s">
         <v>66</v>
@@ -13164,7 +13166,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="50"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="38"/>
       <c r="B403" s="20" t="s">
         <v>283</v>
@@ -13184,7 +13186,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="50"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="38">
         <f>EDATE(A400,1)</f>
         <v>40787</v>
@@ -13211,7 +13213,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="38"/>
       <c r="B405" s="20" t="s">
         <v>284</v>
@@ -13231,7 +13233,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="50"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="38">
         <f>EDATE(A404,1)</f>
         <v>40817</v>
@@ -13258,7 +13260,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="38"/>
       <c r="B407" s="20" t="s">
         <v>286</v>
@@ -13278,7 +13280,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="38">
         <f>EDATE(A406,1)</f>
         <v>40848</v>
@@ -13305,7 +13307,7 @@
         <v>40876</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="38"/>
       <c r="B409" s="20" t="s">
         <v>51</v>
@@ -13325,7 +13327,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="50"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="38">
         <f>EDATE(A408,1)</f>
         <v>40878</v>
@@ -13352,7 +13354,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="38"/>
       <c r="B411" s="20" t="s">
         <v>287</v>
@@ -13372,7 +13374,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="49" t="s">
         <v>288</v>
       </c>
@@ -13390,7 +13392,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="38">
         <f>EDATE(A410,1)</f>
         <v>40909</v>
@@ -13415,7 +13417,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="38"/>
       <c r="B414" s="20" t="s">
         <v>54</v>
@@ -13437,7 +13439,7 @@
         <v>40932</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="38"/>
       <c r="B415" s="20" t="s">
         <v>66</v>
@@ -13457,7 +13459,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="38"/>
       <c r="B416" s="20" t="s">
         <v>66</v>
@@ -13477,7 +13479,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="38"/>
       <c r="B417" s="20" t="s">
         <v>292</v>
@@ -13497,7 +13499,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="38">
         <f>EDATE(A413,1)</f>
         <v>40940</v>
@@ -13524,7 +13526,7 @@
         <v>40956</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="38"/>
       <c r="B419" s="20" t="s">
         <v>148</v>
@@ -13544,7 +13546,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="38">
         <f>EDATE(A418,1)</f>
         <v>40969</v>
@@ -13571,7 +13573,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="38"/>
       <c r="B421" s="20" t="s">
         <v>54</v>
@@ -13593,7 +13595,7 @@
         <v>40995</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
       <c r="B422" s="20" t="s">
         <v>294</v>
@@ -13613,7 +13615,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="50"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="38">
         <f>EDATE(A420,1)</f>
         <v>41000</v>
@@ -13638,7 +13640,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="38">
         <f t="shared" ref="A424:A437" si="4">EDATE(A423,1)</f>
         <v>41030</v>
@@ -13665,7 +13667,7 @@
         <v>41043</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="38"/>
       <c r="B425" s="20" t="s">
         <v>194</v>
@@ -13687,7 +13689,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="38"/>
       <c r="B426" s="20" t="s">
         <v>296</v>
@@ -13707,7 +13709,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="38">
         <f>EDATE(A424,1)</f>
         <v>41061</v>
@@ -13732,7 +13734,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="38">
         <f t="shared" si="4"/>
         <v>41091</v>
@@ -13759,7 +13761,7 @@
         <v>41110</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="38"/>
       <c r="B429" s="20" t="s">
         <v>54</v>
@@ -13781,7 +13783,7 @@
         <v>41121</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="38"/>
       <c r="B430" s="20" t="s">
         <v>297</v>
@@ -13801,7 +13803,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="38">
         <f>EDATE(A428,1)</f>
         <v>41122</v>
@@ -13828,7 +13830,7 @@
         <v>41155</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="38"/>
       <c r="B432" s="20" t="s">
         <v>54</v>
@@ -13850,7 +13852,7 @@
         <v>41143</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="38"/>
       <c r="B433" s="20" t="s">
         <v>299</v>
@@ -13870,7 +13872,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="50"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="38">
         <f>EDATE(A431,1)</f>
         <v>41153</v>
@@ -13897,7 +13899,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="38"/>
       <c r="B435" s="20" t="s">
         <v>298</v>
@@ -13917,7 +13919,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="50"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="38">
         <f>EDATE(A434,1)</f>
         <v>41183</v>
@@ -13942,7 +13944,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="38">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -13969,7 +13971,7 @@
         <v>41234</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
       <c r="B438" s="20" t="s">
         <v>73</v>
@@ -13989,7 +13991,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="50"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="38">
         <f>EDATE(A437,1)</f>
         <v>41244</v>
@@ -14016,7 +14018,7 @@
         <v>41256</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="38"/>
       <c r="B440" s="20" t="s">
         <v>227</v>
@@ -14036,7 +14038,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="49" t="s">
         <v>301</v>
       </c>
@@ -14054,7 +14056,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="38">
         <f>EDATE(A439,1)</f>
         <v>41275</v>
@@ -14079,7 +14081,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="38">
         <f>EDATE(A442,1)</f>
         <v>41306</v>
@@ -14104,7 +14106,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="38"/>
       <c r="B444" s="20" t="s">
         <v>54</v>
@@ -14126,7 +14128,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="38"/>
       <c r="B445" s="20" t="s">
         <v>66</v>
@@ -14146,7 +14148,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="38"/>
       <c r="B446" s="20" t="s">
         <v>309</v>
@@ -14166,7 +14168,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="38">
         <f>EDATE(A443,1)</f>
         <v>41334</v>
@@ -14191,7 +14193,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="38"/>
       <c r="B448" s="20" t="s">
         <v>279</v>
@@ -14202,7 +14204,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.417000000000094</v>
+        <v>58.667000000000094</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -14212,12 +14214,12 @@
       <c r="H448" s="37"/>
       <c r="I448" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>193.18299999999999</v>
+        <v>194.43299999999999</v>
       </c>
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="38">
         <f>EDATE(A447,1)</f>
         <v>41365</v>
@@ -14242,7 +14244,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="38">
         <f t="shared" ref="A450:A457" si="5">EDATE(A449,1)</f>
         <v>41395</v>
@@ -14263,7 +14265,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="38">
         <f t="shared" si="5"/>
         <v>41426</v>
@@ -14288,7 +14290,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="38">
         <f t="shared" si="5"/>
         <v>41456</v>
@@ -14313,7 +14315,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="38">
         <f t="shared" si="5"/>
         <v>41487</v>
@@ -14338,7 +14340,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="38"/>
       <c r="B454" s="20" t="s">
         <v>169</v>
@@ -14360,7 +14362,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="38"/>
       <c r="B455" s="20" t="s">
         <v>312</v>
@@ -14380,7 +14382,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="38">
         <f>EDATE(A453,1)</f>
         <v>41518</v>
@@ -14405,7 +14407,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="38">
         <f t="shared" si="5"/>
         <v>41548</v>
@@ -14432,7 +14434,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="38"/>
       <c r="B458" s="20" t="s">
         <v>315</v>
@@ -14452,7 +14454,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="38">
         <f>EDATE(A457,1)</f>
         <v>41579</v>
@@ -14479,7 +14481,7 @@
         <v>41606</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="38"/>
       <c r="B460" s="20" t="s">
         <v>316</v>
@@ -14499,7 +14501,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="50"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="38">
         <f>EDATE(A459,1)</f>
         <v>41609</v>
@@ -14523,7 +14525,7 @@
         <v>41614</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="38"/>
       <c r="B462" s="20" t="s">
         <v>317</v>
@@ -14543,7 +14545,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="50"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="49" t="s">
         <v>303</v>
       </c>
@@ -14561,7 +14563,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="38">
         <f>EDATE(A461,1)</f>
         <v>41640</v>
@@ -14586,7 +14588,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="38">
         <f>EDATE(A464,1)</f>
         <v>41671</v>
@@ -14611,7 +14613,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="38">
         <f>EDATE(A465,1)</f>
         <v>41699</v>
@@ -14636,7 +14638,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="38"/>
       <c r="B467" s="20" t="s">
         <v>169</v>
@@ -14658,7 +14660,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="38"/>
       <c r="B468" s="20" t="s">
         <v>66</v>
@@ -14678,7 +14680,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
       <c r="B469" s="20" t="s">
         <v>66</v>
@@ -14698,7 +14700,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
       <c r="B470" s="20" t="s">
         <v>310</v>
@@ -14718,7 +14720,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="38">
         <f>EDATE(A466,1)</f>
         <v>41730</v>
@@ -14743,7 +14745,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="38">
         <f t="shared" ref="A472:A481" si="6">EDATE(A471,1)</f>
         <v>41760</v>
@@ -14768,7 +14770,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="38">
         <f t="shared" si="6"/>
         <v>41791</v>
@@ -14793,7 +14795,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="38">
         <f t="shared" si="6"/>
         <v>41821</v>
@@ -14814,7 +14816,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="38">
         <f t="shared" si="6"/>
         <v>41852</v>
@@ -14841,7 +14843,7 @@
         <v>41884</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="38"/>
       <c r="B476" s="20" t="s">
         <v>321</v>
@@ -14861,7 +14863,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="50"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="38">
         <f>EDATE(A475,1)</f>
         <v>41883</v>
@@ -14888,7 +14890,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="38"/>
       <c r="B478" s="20" t="s">
         <v>169</v>
@@ -14910,7 +14912,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="38"/>
       <c r="B479" s="20" t="s">
         <v>88</v>
@@ -14930,7 +14932,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="50"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="38">
         <f>EDATE(A477,1)</f>
         <v>41913</v>
@@ -14955,7 +14957,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="38">
         <f t="shared" si="6"/>
         <v>41944</v>
@@ -14980,7 +14982,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="38">
         <f>EDATE(A481,1)</f>
         <v>41974</v>
@@ -15007,7 +15009,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="38"/>
       <c r="B483" s="20" t="s">
         <v>52</v>
@@ -15029,7 +15031,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="49" t="s">
         <v>304</v>
       </c>
@@ -15047,7 +15049,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="38">
         <f>EDATE(A482,1)</f>
         <v>42005</v>
@@ -15068,7 +15070,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="38">
         <f>EDATE(A485,1)</f>
         <v>42036</v>
@@ -15089,7 +15091,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="38">
         <f t="shared" ref="A487:A495" si="7">EDATE(A486,1)</f>
         <v>42064</v>
@@ -15114,7 +15116,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="38">
         <f t="shared" si="7"/>
         <v>42095</v>
@@ -15139,7 +15141,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="38">
         <f t="shared" si="7"/>
         <v>42125</v>
@@ -15160,7 +15162,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="38">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -15185,7 +15187,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="38">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -15206,7 +15208,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="38">
         <f t="shared" si="7"/>
         <v>42217</v>
@@ -15231,7 +15233,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="38">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -15256,7 +15258,7 @@
         <v>42254</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="38">
         <f>EDATE(A493,1)</f>
         <v>42278</v>
@@ -15283,7 +15285,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="38">
         <f t="shared" si="7"/>
         <v>42309</v>
@@ -15310,7 +15312,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="38"/>
       <c r="B496" s="20" t="s">
         <v>54</v>
@@ -15332,7 +15334,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="38">
         <f>EDATE(A495,1)</f>
         <v>42339</v>
@@ -15353,7 +15355,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="49" t="s">
         <v>305</v>
       </c>
@@ -15371,7 +15373,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="38">
         <f>EDATE(A497,1)</f>
         <v>42370</v>
@@ -15396,7 +15398,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="38"/>
       <c r="B500" s="20" t="s">
         <v>302</v>
@@ -15416,7 +15418,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="38">
         <f>EDATE(A499,1)</f>
         <v>42401</v>
@@ -15441,7 +15443,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="38">
         <f t="shared" ref="A502" si="8">EDATE(A501,1)</f>
         <v>42430</v>
@@ -15468,7 +15470,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="38"/>
       <c r="B503" s="20" t="s">
         <v>133</v>
@@ -15488,7 +15490,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="50"/>
     </row>
-    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="38">
         <f>EDATE(A502,1)</f>
         <v>42461</v>
@@ -15513,7 +15515,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="38"/>
       <c r="B505" s="20" t="s">
         <v>57</v>
@@ -15535,7 +15537,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="38"/>
       <c r="B506" s="20" t="s">
         <v>330</v>
@@ -15555,7 +15557,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="38">
         <f>EDATE(A504,1)</f>
         <v>42491</v>
@@ -15582,7 +15584,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="38"/>
       <c r="B508" s="20" t="s">
         <v>331</v>
@@ -15593,7 +15595,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.417000000000094</v>
+        <v>58.667000000000094</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -15603,12 +15605,12 @@
       <c r="H508" s="37"/>
       <c r="I508" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>193.18299999999999</v>
+        <v>194.43299999999999</v>
       </c>
       <c r="J508" s="11"/>
       <c r="K508" s="50"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="38">
         <f>EDATE(A507,1)</f>
         <v>42522</v>
@@ -15633,7 +15635,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="39">
         <f>EDATE(A509,1)</f>
         <v>42552</v>
@@ -15658,7 +15660,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="38"/>
       <c r="B511" s="20" t="s">
         <v>332</v>
@@ -15678,7 +15680,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="39">
         <f>EDATE(A510,1)</f>
         <v>42583</v>
@@ -15705,7 +15707,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="38"/>
       <c r="B513" s="20" t="s">
         <v>337</v>
@@ -15725,7 +15727,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="50"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="39">
         <f>EDATE(A512,1)</f>
         <v>42614</v>
@@ -15750,7 +15752,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="39">
         <f t="shared" ref="A515:A516" si="9">EDATE(A514,1)</f>
         <v>42644</v>
@@ -15775,7 +15777,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="39">
         <f t="shared" si="9"/>
         <v>42675</v>
@@ -15802,7 +15804,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="38"/>
       <c r="B517" s="20" t="s">
         <v>74</v>
@@ -15822,7 +15824,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="39">
         <f>EDATE(A516,1)</f>
         <v>42705</v>
@@ -15849,7 +15851,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="38"/>
       <c r="B519" s="20" t="s">
         <v>339</v>
@@ -15869,7 +15871,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="49" t="s">
         <v>306</v>
       </c>
@@ -15887,7 +15889,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="38">
         <f>EDATE(A518,1)</f>
         <v>42736</v>
@@ -15912,7 +15914,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="38"/>
       <c r="B522" s="20" t="s">
         <v>341</v>
@@ -15934,7 +15936,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="38">
         <f>EDATE(A521,1)</f>
         <v>42767</v>
@@ -15959,7 +15961,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="38">
         <f t="shared" ref="A524:A537" si="10">EDATE(A523,1)</f>
         <v>42795</v>
@@ -15984,7 +15986,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="38">
         <f t="shared" si="10"/>
         <v>42826</v>
@@ -16009,7 +16011,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="38">
         <f>EDATE(A525,1)</f>
         <v>42856</v>
@@ -16036,7 +16038,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="38"/>
       <c r="B527" s="20" t="s">
         <v>57</v>
@@ -16058,7 +16060,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="38"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -16078,7 +16080,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="38">
         <f>EDATE(A526,1)</f>
         <v>42887</v>
@@ -16103,7 +16105,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="38"/>
       <c r="B530" s="20" t="s">
         <v>91</v>
@@ -16123,7 +16125,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="38">
         <f>EDATE(A529,1)</f>
         <v>42917</v>
@@ -16148,7 +16150,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="38"/>
       <c r="B532" s="20" t="s">
         <v>76</v>
@@ -16168,7 +16170,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="38">
         <f>EDATE(A531,1)</f>
         <v>42948</v>
@@ -16195,7 +16197,7 @@
         <v>42962</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="38"/>
       <c r="B534" s="20" t="s">
         <v>63</v>
@@ -16215,7 +16217,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="50"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="38">
         <f>EDATE(A533,1)</f>
         <v>42979</v>
@@ -16240,7 +16242,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="38">
         <f t="shared" si="10"/>
         <v>43009</v>
@@ -16265,7 +16267,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="38">
         <f t="shared" si="10"/>
         <v>43040</v>
@@ -16286,7 +16288,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="39">
         <f>EDATE(A537,1)</f>
         <v>43070</v>
@@ -16313,7 +16315,7 @@
         <v>43098</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="49" t="s">
         <v>347</v>
       </c>
@@ -16331,7 +16333,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="38">
         <f>EDATE(A538,1)</f>
         <v>43101</v>
@@ -16356,7 +16358,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="38">
         <f>EDATE(A540,1)</f>
         <v>43132</v>
@@ -16381,7 +16383,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="38">
         <f>EDATE(A541,1)</f>
         <v>43160</v>
@@ -16406,7 +16408,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="38"/>
       <c r="B543" s="20" t="s">
         <v>53</v>
@@ -16428,7 +16430,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="38">
         <f>EDATE(A542,1)</f>
         <v>43191</v>
@@ -16455,7 +16457,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="38"/>
       <c r="B545" s="20" t="s">
         <v>53</v>
@@ -16477,7 +16479,7 @@
         <v>43250</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="38">
         <f>EDATE(A544,1)</f>
         <v>43221</v>
@@ -16502,7 +16504,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="38">
         <f t="shared" ref="A547:A554" si="11">EDATE(A546,1)</f>
         <v>43252</v>
@@ -16527,7 +16529,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="38"/>
       <c r="B548" s="20" t="s">
         <v>55</v>
@@ -16547,7 +16549,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="38">
         <f>EDATE(A547,1)</f>
         <v>43282</v>
@@ -16572,7 +16574,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="38">
         <f t="shared" si="11"/>
         <v>43313</v>
@@ -16599,7 +16601,7 @@
         <v>43314</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="38"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -16621,7 +16623,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="38"/>
       <c r="B552" s="20" t="s">
         <v>350</v>
@@ -16641,7 +16643,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="38">
         <f>EDATE(A550,1)</f>
         <v>43344</v>
@@ -16666,7 +16668,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="38">
         <f t="shared" si="11"/>
         <v>43374</v>
@@ -16693,7 +16695,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="38"/>
       <c r="B555" s="20" t="s">
         <v>54</v>
@@ -16715,7 +16717,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="38"/>
       <c r="B556" s="20" t="s">
         <v>322</v>
@@ -16735,7 +16737,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="38">
         <f>EDATE(A554,1)</f>
         <v>43405</v>
@@ -16762,7 +16764,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="38"/>
       <c r="B558" s="20" t="s">
         <v>81</v>
@@ -16782,7 +16784,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="38">
         <f>EDATE(A557,1)</f>
         <v>43435</v>
@@ -16809,7 +16811,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="38"/>
       <c r="B560" s="20" t="s">
         <v>57</v>
@@ -16831,7 +16833,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="38"/>
       <c r="B561" s="20" t="s">
         <v>122</v>
@@ -16851,7 +16853,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="49" t="s">
         <v>352</v>
       </c>
@@ -16869,7 +16871,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="38">
         <f>EDATE(A559,1)</f>
         <v>43466</v>
@@ -16896,7 +16898,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="38"/>
       <c r="B564" s="20" t="s">
         <v>92</v>
@@ -16916,7 +16918,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="38"/>
       <c r="B565" s="20" t="s">
         <v>76</v>
@@ -16936,7 +16938,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="38">
         <f>EDATE(A563,1)</f>
         <v>43497</v>
@@ -16961,7 +16963,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="38">
         <f t="shared" ref="A567:A573" si="12">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16986,7 +16988,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="38">
         <f t="shared" si="12"/>
         <v>43556</v>
@@ -17013,7 +17015,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="38"/>
       <c r="B569" s="20" t="s">
         <v>120</v>
@@ -17033,7 +17035,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="38">
         <f>EDATE(A568,1)</f>
         <v>43586</v>
@@ -17060,7 +17062,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="38">
         <f t="shared" si="12"/>
         <v>43617</v>
@@ -17085,7 +17087,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="38">
         <f t="shared" si="12"/>
         <v>43647</v>
@@ -17110,7 +17112,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="38">
         <f t="shared" si="12"/>
         <v>43678</v>
@@ -17137,7 +17139,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="38"/>
       <c r="B574" s="20" t="s">
         <v>54</v>
@@ -17159,7 +17161,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="38"/>
       <c r="B575" s="20" t="s">
         <v>359</v>
@@ -17179,7 +17181,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="50"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="38">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -17206,7 +17208,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="38"/>
       <c r="B577" s="20" t="s">
         <v>102</v>
@@ -17226,7 +17228,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="50"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="38">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -17251,7 +17253,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="38">
         <f>EDATE(A578,1)</f>
         <v>43770</v>
@@ -17278,7 +17280,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="38"/>
       <c r="B580" s="20" t="s">
         <v>49</v>
@@ -17300,7 +17302,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="38"/>
       <c r="B581" s="20" t="s">
         <v>76</v>
@@ -17320,7 +17322,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="38">
         <f>EDATE(A579,1)</f>
         <v>43800</v>
@@ -17347,7 +17349,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="38"/>
       <c r="B583" s="20" t="s">
         <v>252</v>
@@ -17367,7 +17369,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="49" t="s">
         <v>361</v>
       </c>
@@ -17385,7 +17387,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="38">
         <f>EDATE(A582,1)</f>
         <v>43831</v>
@@ -17410,7 +17412,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="38"/>
       <c r="B586" s="20" t="s">
         <v>363</v>
@@ -17430,7 +17432,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="38">
         <f>EDATE(A585,1)</f>
         <v>43862</v>
@@ -17457,7 +17459,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="38"/>
       <c r="B588" s="20" t="s">
         <v>53</v>
@@ -17479,7 +17481,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="38">
         <f>EDATE(A587,1)</f>
         <v>43891</v>
@@ -17500,7 +17502,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="38">
         <f t="shared" ref="A590:A600" si="13">EDATE(A589,1)</f>
         <v>43922</v>
@@ -17521,7 +17523,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="38">
         <f t="shared" si="13"/>
         <v>43952</v>
@@ -17542,7 +17544,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="38">
         <f t="shared" si="13"/>
         <v>43983</v>
@@ -17567,7 +17569,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="38"/>
       <c r="B593" s="20" t="s">
         <v>66</v>
@@ -17587,7 +17589,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="38">
         <f>EDATE(A592,1)</f>
         <v>44013</v>
@@ -17614,7 +17616,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="38">
         <f t="shared" si="13"/>
         <v>44044</v>
@@ -17635,7 +17637,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="38">
         <f>EDATE(A595,1)</f>
         <v>44075</v>
@@ -17662,7 +17664,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="38"/>
       <c r="B597" s="20" t="s">
         <v>49</v>
@@ -17684,7 +17686,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="38">
         <f>EDATE(A596,1)</f>
         <v>44105</v>
@@ -17709,7 +17711,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="38">
         <f>EDATE(A598,1)</f>
         <v>44136</v>
@@ -17730,7 +17732,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="38">
         <f t="shared" si="13"/>
         <v>44166</v>
@@ -17757,7 +17759,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="38"/>
       <c r="B601" s="20" t="s">
         <v>353</v>
@@ -17779,7 +17781,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="49" t="s">
         <v>370</v>
       </c>
@@ -17797,7 +17799,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="38">
         <f>EDATE(A600,1)</f>
         <v>44197</v>
@@ -17818,7 +17820,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="38">
         <f>EDATE(A603,1)</f>
         <v>44228</v>
@@ -17839,7 +17841,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="38">
         <f t="shared" ref="A605:A614" si="14">EDATE(A604,1)</f>
         <v>44256</v>
@@ -17860,7 +17862,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="38">
         <f t="shared" si="14"/>
         <v>44287</v>
@@ -17881,7 +17883,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="38">
         <f t="shared" si="14"/>
         <v>44317</v>
@@ -17902,7 +17904,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="38">
         <f t="shared" si="14"/>
         <v>44348</v>
@@ -17923,7 +17925,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="38">
         <f t="shared" si="14"/>
         <v>44378</v>
@@ -17944,7 +17946,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="38">
         <f t="shared" si="14"/>
         <v>44409</v>
@@ -17965,7 +17967,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="38">
         <f t="shared" si="14"/>
         <v>44440</v>
@@ -17986,7 +17988,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="38">
         <f t="shared" si="14"/>
         <v>44470</v>
@@ -18007,7 +18009,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="38">
         <f>EDATE(A612,1)</f>
         <v>44501</v>
@@ -18028,7 +18030,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="38">
         <f t="shared" si="14"/>
         <v>44531</v>
@@ -18053,7 +18055,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="49" t="s">
         <v>372</v>
       </c>
@@ -18071,7 +18073,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="38">
         <f>EDATE(A614,1)</f>
         <v>44562</v>
@@ -18092,7 +18094,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="38">
         <f>EDATE(A616,1)</f>
         <v>44593</v>
@@ -18113,7 +18115,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="38">
         <f t="shared" ref="A618:A622" si="15">EDATE(A617,1)</f>
         <v>44621</v>
@@ -18138,7 +18140,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="38">
         <f t="shared" si="15"/>
         <v>44652</v>
@@ -18159,7 +18161,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="38">
         <f t="shared" si="15"/>
         <v>44682</v>
@@ -18184,7 +18186,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="38">
         <f t="shared" si="15"/>
         <v>44713</v>
@@ -18205,7 +18207,7 @@
       <c r="J621" s="12"/>
       <c r="K621" s="15"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="38">
         <f t="shared" si="15"/>
         <v>44743</v>
@@ -18232,7 +18234,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="38">
         <v>44774</v>
       </c>
@@ -18258,7 +18260,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="38">
         <v>44805</v>
       </c>
@@ -18282,7 +18284,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="38"/>
       <c r="B625" s="20" t="s">
         <v>54</v>
@@ -18304,7 +18306,7 @@
         <v>44831</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="38">
         <v>44835</v>
       </c>
@@ -18324,7 +18326,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="38">
         <v>44866</v>
       </c>
@@ -18350,7 +18352,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="38"/>
       <c r="B628" s="20" t="s">
         <v>54</v>
@@ -18372,7 +18374,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="38">
         <v>44896</v>
       </c>
@@ -18396,7 +18398,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="49" t="s">
         <v>380</v>
       </c>
@@ -18414,7 +18416,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="50"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="38">
         <f>EDATE(A629,1)</f>
         <v>44927</v>
@@ -18435,7 +18437,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="38">
         <f t="shared" ref="A632" si="16">EDATE(A631,1)</f>
         <v>44958</v>
@@ -18462,7 +18464,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="38">
         <v>44986</v>
       </c>
@@ -18486,7 +18488,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="38">
         <v>45017</v>
       </c>
@@ -18512,29 +18514,33 @@
         <v>385</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="38">
         <v>45047</v>
       </c>
       <c r="B635" s="20"/>
-      <c r="C635" s="13"/>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D635" s="37"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="37"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="38">
         <v>45078</v>
       </c>
-      <c r="B636" s="20"/>
+      <c r="B636" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="C636" s="13"/>
       <c r="D636" s="37"/>
       <c r="E636" s="9"/>
@@ -18546,9 +18552,11 @@
       <c r="H636" s="37"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K636" s="50">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="38">
         <v>45108</v>
       </c>
@@ -18566,7 +18574,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="38">
         <v>45139</v>
       </c>
@@ -18584,7 +18592,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="38">
         <v>45170</v>
       </c>
@@ -18602,7 +18610,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="38">
         <v>45200</v>
       </c>
@@ -18620,7 +18628,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="38">
         <v>45231</v>
       </c>
@@ -18638,7 +18646,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="38">
         <v>45261</v>
       </c>
@@ -18656,7 +18664,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="38">
         <v>45292</v>
       </c>
@@ -18674,7 +18682,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="38">
         <v>45323</v>
       </c>
@@ -18692,7 +18700,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="38">
         <v>45352</v>
       </c>
@@ -18710,7 +18718,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="38">
         <v>45383</v>
       </c>
@@ -18728,7 +18736,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="38">
         <v>45413</v>
       </c>
@@ -18746,7 +18754,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="38">
         <v>45444</v>
       </c>
@@ -18764,7 +18772,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="38">
         <v>45474</v>
       </c>
@@ -18782,7 +18790,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="38">
         <v>45505</v>
       </c>
@@ -18800,7 +18808,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="38">
         <v>45536</v>
       </c>
@@ -18818,7 +18826,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="38">
         <v>45566</v>
       </c>
@@ -18836,7 +18844,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="38">
         <v>45597</v>
       </c>
@@ -18854,7 +18862,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="38">
         <v>45627</v>
       </c>
@@ -18872,7 +18880,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="38">
         <v>45658</v>
       </c>
@@ -18890,7 +18898,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="38"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18906,7 +18914,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="38"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18922,7 +18930,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="38"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18938,7 +18946,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="38"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18954,7 +18962,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="38"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18970,7 +18978,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="38"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18986,7 +18994,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="38"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -19002,7 +19010,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="38"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -19018,7 +19026,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="38"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -19034,7 +19042,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="38"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -19050,7 +19058,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="38"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -19066,7 +19074,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="38"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -19082,7 +19090,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="38"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -19098,7 +19106,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="38"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -19114,7 +19122,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="38"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -19130,7 +19138,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="38"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -19146,7 +19154,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="38"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -19162,7 +19170,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="38"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -19178,7 +19186,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="38"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -19194,7 +19202,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="38"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -19210,7 +19218,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="38"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -19226,7 +19234,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="38"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -19242,7 +19250,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="38"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -19258,7 +19266,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="39"/>
       <c r="B679" s="15"/>
       <c r="C679" s="40"/>
@@ -19289,10 +19297,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19315,7 +19323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -19323,21 +19331,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -19350,7 +19358,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -19379,7 +19387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>21.683</v>
       </c>
@@ -19407,17 +19415,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -19438,7 +19446,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -19465,7 +19473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -19491,7 +19499,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -19517,7 +19525,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -19543,7 +19551,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -19569,7 +19577,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -19595,7 +19603,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -19621,7 +19629,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -19647,7 +19655,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -19667,7 +19675,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -19687,7 +19695,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -19707,7 +19715,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -19728,7 +19736,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -19749,7 +19757,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -19770,7 +19778,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -19791,7 +19799,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -19812,7 +19820,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -19833,7 +19841,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -19854,7 +19862,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -19875,7 +19883,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -19896,7 +19904,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -19917,7 +19925,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -19938,7 +19946,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -19959,7 +19967,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -19980,7 +19988,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -20001,7 +20009,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -20022,7 +20030,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -20043,7 +20051,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -20064,7 +20072,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -20085,7 +20093,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -20106,7 +20114,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -20127,7 +20135,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -20136,7 +20144,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -20145,7 +20153,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -20154,7 +20162,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -20163,7 +20171,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -20172,7 +20180,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -20181,7 +20189,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -20190,7 +20198,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -20199,7 +20207,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -20208,7 +20216,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -20217,7 +20225,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -20226,7 +20234,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -20235,7 +20243,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -20244,7 +20252,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -20253,7 +20261,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -20262,7 +20270,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -20271,7 +20279,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -20280,7 +20288,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -20289,7 +20297,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -20298,7 +20306,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -20307,7 +20315,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -20316,7 +20324,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -20325,7 +20333,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -20334,7 +20342,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -20343,7 +20351,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -20352,7 +20360,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -20361,7 +20369,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -20370,7 +20378,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -20379,7 +20387,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -20388,7 +20396,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/GOMEZ, EMMA M..xlsx
+++ b/REGULAR/GOMEZ, EMMA M..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="387">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2085,7 +2085,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2128,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2192,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2252,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2318,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2381,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2479,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2538,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2603,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2646,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2721,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2907,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2973,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3031,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3097,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3153,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3228,7 +3228,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3271,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3337,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,7 +3393,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,7 +3491,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,7 +3554,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4004,7 +4004,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane ySplit="4455" topLeftCell="A629" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="A636" sqref="A636"/>
+      <selection pane="bottomLeft" activeCell="K637" sqref="K637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,7 +4167,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.667000000000094</v>
+        <v>59.917000000000094</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4177,7 +4177,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.43299999999999</v>
+        <v>195.68299999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14204,7 +14204,7 @@
       </c>
       <c r="E448" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.667000000000094</v>
+        <v>59.917000000000094</v>
       </c>
       <c r="F448" s="20"/>
       <c r="G448" s="13" t="str">
@@ -14214,7 +14214,7 @@
       <c r="H448" s="37"/>
       <c r="I448" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.43299999999999</v>
+        <v>195.68299999999999</v>
       </c>
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="E508" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.667000000000094</v>
+        <v>59.917000000000094</v>
       </c>
       <c r="F508" s="20"/>
       <c r="G508" s="13" t="str">
@@ -15605,7 +15605,7 @@
       <c r="H508" s="37"/>
       <c r="I508" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.43299999999999</v>
+        <v>195.68299999999999</v>
       </c>
       <c r="J508" s="11"/>
       <c r="K508" s="50"/>
@@ -18541,13 +18541,15 @@
       <c r="B636" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="C636" s="13"/>
+      <c r="C636" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D636" s="37"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G636" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H636" s="37"/>
       <c r="I636" s="9"/>
@@ -18560,7 +18562,9 @@
       <c r="A637" s="38">
         <v>45108</v>
       </c>
-      <c r="B637" s="20"/>
+      <c r="B637" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C637" s="13"/>
       <c r="D637" s="37"/>
       <c r="E637" s="9"/>
@@ -18572,7 +18576,9 @@
       <c r="H637" s="37"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
-      <c r="K637" s="20"/>
+      <c r="K637" s="50">
+        <v>45128</v>
+      </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="38">
